--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -15,8 +15,7 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="WynikiScenariusza1" sheetId="3" r:id="rId2"/>
     <sheet name="WynikiScenariusza2" sheetId="4" r:id="rId3"/>
-    <sheet name="ANOVA" sheetId="2" r:id="rId4"/>
-    <sheet name="Arkusz5" sheetId="5" r:id="rId5"/>
+    <sheet name="ANOVA" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>Bartek_2</t>
   </si>
@@ -150,21 +149,6 @@
     <t>Średnia ogólna</t>
   </si>
   <si>
-    <t>Średnie grupowe</t>
-  </si>
-  <si>
-    <t>Suma kwadratów odchyleń między grupami Ssefekt</t>
-  </si>
-  <si>
-    <t>Suma kwadratów odchyleń wewnątrzgrupowych Ssbłąd</t>
-  </si>
-  <si>
-    <t>Stopnie swobody</t>
-  </si>
-  <si>
-    <t>Średnie kwadraty odchyleń</t>
-  </si>
-  <si>
     <t>Statystyka testowa</t>
   </si>
   <si>
@@ -183,23 +167,41 @@
     <t>…</t>
   </si>
   <si>
-    <t>Ilość sekwencji</t>
-  </si>
-  <si>
-    <t>Całość</t>
-  </si>
-  <si>
     <t>Ilość testerów</t>
   </si>
   <si>
     <t>http://www.statystyka.az.pl/centrum-statystyki/testy-parametryczne/1-czynnikowa-anova.php</t>
+  </si>
+  <si>
+    <t>Średnia grupowa</t>
+  </si>
+  <si>
+    <t>suma kwadratów odchyleń pomiędzy grupami SSEfekt</t>
+  </si>
+  <si>
+    <t>Ilość filmów</t>
+  </si>
+  <si>
+    <t>Ilość testów</t>
+  </si>
+  <si>
+    <t>suma kwadratów odchyleń wewnątrzgrupowych SSBłąd</t>
+  </si>
+  <si>
+    <t>stopnie swobody</t>
+  </si>
+  <si>
+    <t>średnie kwadraty odchyleń</t>
+  </si>
+  <si>
+    <t>https://brownmath.com/stat/anova1.htm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,13 +217,52 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,14 +274,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3114,7 +3164,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:X13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4091,7 +4141,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="B1" sqref="B1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5068,3244 +5118,4172 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <f>AVERAGE(WynikiScenariusza1!B1:X13)</f>
-        <v>3.3177257525083612</v>
-      </c>
-      <c r="C3">
-        <f>AVERAGE(WynikiScenariusza2!B1:X13)</f>
-        <v>3.2842809364548495</v>
-      </c>
-      <c r="D3">
-        <f>AVERAGE(B3:C3)</f>
-        <v>3.3010033444816056</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!B1:B13,WynikiScenariusza2!B1:B13)</f>
+        <v>4.3461538461538458</v>
+      </c>
+      <c r="C6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!C1:C13,WynikiScenariusza2!C1:C13)</f>
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="D6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!D1:D13,WynikiScenariusza2!D1:D13)</f>
+        <v>4.7692307692307692</v>
+      </c>
+      <c r="E6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!E1:E13,WynikiScenariusza2!E1:E13)</f>
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!F1:F13,WynikiScenariusza2!F1:F13)</f>
+        <v>4.1923076923076925</v>
+      </c>
+      <c r="G6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!G1:G13,WynikiScenariusza2!G1:G13)</f>
+        <v>3.6923076923076925</v>
+      </c>
+      <c r="H6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!H1:H13,WynikiScenariusza2!H1:H13)</f>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="I6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!I1:I13,WynikiScenariusza2!I1:I13)</f>
+        <v>4.115384615384615</v>
+      </c>
+      <c r="J6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!J1:J13,WynikiScenariusza2!J1:J13)</f>
+        <v>2.9615384615384617</v>
+      </c>
+      <c r="K6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!K1:K13,WynikiScenariusza2!K1:K13)</f>
+        <v>3.4230769230769229</v>
+      </c>
+      <c r="L6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!L1:L13,WynikiScenariusza2!L1:L13)</f>
+        <v>3.6538461538461537</v>
+      </c>
+      <c r="M6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!M1:M13,WynikiScenariusza2!M1:M13)</f>
+        <v>4</v>
+      </c>
+      <c r="N6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!N1:N13,WynikiScenariusza2!N1:N13)</f>
+        <v>4.5</v>
+      </c>
+      <c r="O6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!O1:O13,WynikiScenariusza2!O1:O13)</f>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="P6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!P1:P13,WynikiScenariusza2!P1:P13)</f>
+        <v>4.115384615384615</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!Q1:Q13,WynikiScenariusza2!Q1:Q13)</f>
+        <v>4.2692307692307692</v>
+      </c>
+      <c r="R6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!R1:R13,WynikiScenariusza2!R1:R13)</f>
+        <v>4.1538461538461542</v>
+      </c>
+      <c r="S6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!S1:S13,WynikiScenariusza2!S1:S13)</f>
+        <v>3.1923076923076925</v>
+      </c>
+      <c r="T6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!T1:T13,WynikiScenariusza2!T1:T13)</f>
+        <v>1.6538461538461537</v>
+      </c>
+      <c r="U6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!U1:U13,WynikiScenariusza2!U1:U13)</f>
+        <v>2.2307692307692308</v>
+      </c>
+      <c r="V6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!V1:V13,WynikiScenariusza2!V1:V13)</f>
+        <v>2.6538461538461537</v>
+      </c>
+      <c r="W6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!W1:W13,WynikiScenariusza2!W1:W13)</f>
+        <v>2.5384615384615383</v>
+      </c>
+      <c r="X6" s="3">
+        <f>AVERAGE(WynikiScenariusza1!X1:X13,WynikiScenariusza2!X1:X13)</f>
+        <v>2.4230769230769229</v>
+      </c>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3">
         <f>AVERAGE(WynikiScenariusza1!B1:B13)</f>
         <v>4.4615384615384617</v>
       </c>
-      <c r="D6">
+      <c r="C9" s="3">
         <f>AVERAGE(WynikiScenariusza1!C1:C13)</f>
         <v>1.2307692307692308</v>
       </c>
-      <c r="E6">
+      <c r="D9" s="3">
         <f>AVERAGE(WynikiScenariusza1!D1:D13)</f>
         <v>4.8461538461538458</v>
       </c>
-      <c r="F6">
+      <c r="E9" s="3">
         <f>AVERAGE(WynikiScenariusza1!E1:E13)</f>
         <v>2.6153846153846154</v>
       </c>
-      <c r="G6">
+      <c r="F9" s="3">
         <f>AVERAGE(WynikiScenariusza1!F1:F13)</f>
         <v>4.384615384615385</v>
       </c>
-      <c r="H6">
+      <c r="G9" s="3">
         <f>AVERAGE(WynikiScenariusza1!G1:G13)</f>
         <v>3.6153846153846154</v>
       </c>
-      <c r="I6">
+      <c r="H9" s="3">
         <f>AVERAGE(WynikiScenariusza1!H1:H13)</f>
         <v>1.6153846153846154</v>
       </c>
-      <c r="J6">
+      <c r="I9" s="3">
         <f>AVERAGE(WynikiScenariusza1!I1:I13)</f>
         <v>4.1538461538461542</v>
       </c>
-      <c r="K6">
+      <c r="J9" s="3">
         <f>AVERAGE(WynikiScenariusza1!J1:J13)</f>
         <v>2.9230769230769229</v>
       </c>
-      <c r="L6">
+      <c r="K9" s="3">
         <f>AVERAGE(WynikiScenariusza1!K1:K13)</f>
         <v>3.3076923076923075</v>
       </c>
-      <c r="M6">
+      <c r="L9" s="3">
         <f>AVERAGE(WynikiScenariusza1!L1:L13)</f>
         <v>3.4615384615384617</v>
       </c>
-      <c r="N6">
+      <c r="M9" s="3">
         <f>AVERAGE(WynikiScenariusza1!M1:M13)</f>
         <v>3.9230769230769229</v>
       </c>
-      <c r="O6">
+      <c r="N9" s="3">
         <f>AVERAGE(WynikiScenariusza1!N1:N13)</f>
         <v>4.5384615384615383</v>
       </c>
-      <c r="P6">
+      <c r="O9" s="3">
         <f>AVERAGE(WynikiScenariusza1!O1:O13)</f>
         <v>3.9230769230769229</v>
       </c>
-      <c r="Q6">
+      <c r="P9" s="3">
         <f>AVERAGE(WynikiScenariusza1!P1:P13)</f>
         <v>4.1538461538461542</v>
       </c>
-      <c r="R6">
+      <c r="Q9" s="3">
         <f>AVERAGE(WynikiScenariusza1!Q1:Q13)</f>
         <v>4.384615384615385</v>
       </c>
-      <c r="S6">
+      <c r="R9" s="3">
         <f>AVERAGE(WynikiScenariusza1!R1:R13)</f>
         <v>4.0769230769230766</v>
       </c>
-      <c r="T6">
+      <c r="S9" s="3">
         <f>AVERAGE(WynikiScenariusza1!S1:S13)</f>
         <v>3.2307692307692308</v>
       </c>
-      <c r="U6">
+      <c r="T9" s="3">
         <f>AVERAGE(WynikiScenariusza1!T1:T13)</f>
         <v>1.7692307692307692</v>
       </c>
-      <c r="V6">
+      <c r="U9" s="3">
         <f>AVERAGE(WynikiScenariusza1!U1:U13)</f>
         <v>2.1538461538461537</v>
       </c>
-      <c r="W6">
+      <c r="V9" s="3">
         <f>AVERAGE(WynikiScenariusza1!V1:V13)</f>
         <v>2.6153846153846154</v>
       </c>
-      <c r="X6">
+      <c r="W9" s="3">
         <f>AVERAGE(WynikiScenariusza1!W1:W13)</f>
         <v>2.5384615384615383</v>
       </c>
-      <c r="Y6">
+      <c r="X9" s="3">
         <f>AVERAGE(WynikiScenariusza1!X1:X13)</f>
         <v>2.3846153846153846</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3">
         <f>AVERAGE(WynikiScenariusza2!B1:B13)</f>
         <v>4.2307692307692308</v>
       </c>
-      <c r="D7">
+      <c r="C10" s="3">
         <f>AVERAGE(WynikiScenariusza2!C1:C13)</f>
         <v>1.0769230769230769</v>
       </c>
-      <c r="E7">
+      <c r="D10" s="3">
         <f>AVERAGE(WynikiScenariusza2!D1:D13)</f>
         <v>4.6923076923076925</v>
       </c>
-      <c r="F7">
+      <c r="E10" s="3">
         <f>AVERAGE(WynikiScenariusza2!E1:E13)</f>
         <v>2.3846153846153846</v>
       </c>
-      <c r="G7">
+      <c r="F10" s="3">
         <f>AVERAGE(WynikiScenariusza2!F1:F13)</f>
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="G10" s="3">
         <f>AVERAGE(WynikiScenariusza2!G1:G13)</f>
         <v>3.7692307692307692</v>
       </c>
-      <c r="I7">
+      <c r="H10" s="3">
         <f>AVERAGE(WynikiScenariusza2!H1:H13)</f>
         <v>1.4615384615384615</v>
       </c>
-      <c r="J7">
+      <c r="I10" s="3">
         <f>AVERAGE(WynikiScenariusza2!I1:I13)</f>
         <v>4.0769230769230766</v>
       </c>
-      <c r="K7">
+      <c r="J10" s="3">
         <f>AVERAGE(WynikiScenariusza2!J1:J13)</f>
         <v>3</v>
       </c>
-      <c r="L7">
+      <c r="K10" s="3">
         <f>AVERAGE(WynikiScenariusza2!K1:K13)</f>
         <v>3.5384615384615383</v>
       </c>
-      <c r="M7">
+      <c r="L10" s="3">
         <f>AVERAGE(WynikiScenariusza2!L1:L13)</f>
         <v>3.8461538461538463</v>
       </c>
-      <c r="N7">
+      <c r="M10" s="3">
         <f>AVERAGE(WynikiScenariusza2!M1:M13)</f>
         <v>4.0769230769230766</v>
       </c>
-      <c r="O7">
+      <c r="N10" s="3">
         <f>AVERAGE(WynikiScenariusza2!N1:N13)</f>
         <v>4.4615384615384617</v>
       </c>
-      <c r="P7">
+      <c r="O10" s="3">
         <f>AVERAGE(WynikiScenariusza2!O1:O13)</f>
         <v>3.7692307692307692</v>
       </c>
-      <c r="Q7">
+      <c r="P10" s="3">
         <f>AVERAGE(WynikiScenariusza2!P1:P13)</f>
         <v>4.0769230769230766</v>
       </c>
-      <c r="R7">
+      <c r="Q10" s="3">
         <f>AVERAGE(WynikiScenariusza2!Q1:Q13)</f>
         <v>4.1538461538461542</v>
       </c>
-      <c r="S7">
+      <c r="R10" s="3">
         <f>AVERAGE(WynikiScenariusza2!R1:R13)</f>
         <v>4.2307692307692308</v>
       </c>
-      <c r="T7">
+      <c r="S10" s="3">
         <f>AVERAGE(WynikiScenariusza2!S1:S13)</f>
         <v>3.1538461538461537</v>
       </c>
-      <c r="U7">
+      <c r="T10" s="3">
         <f>AVERAGE(WynikiScenariusza2!T1:T13)</f>
         <v>1.5384615384615385</v>
       </c>
-      <c r="V7">
+      <c r="U10" s="3">
         <f>AVERAGE(WynikiScenariusza2!U1:U13)</f>
         <v>2.3076923076923075</v>
       </c>
-      <c r="W7">
+      <c r="V10" s="3">
         <f>AVERAGE(WynikiScenariusza2!V1:V13)</f>
         <v>2.6923076923076925</v>
       </c>
-      <c r="X7">
+      <c r="W10" s="3">
         <f>AVERAGE(WynikiScenariusza2!W1:W13)</f>
         <v>2.5384615384615383</v>
       </c>
-      <c r="Y7">
+      <c r="X10" s="3">
         <f>AVERAGE(WynikiScenariusza2!X1:X13)</f>
         <v>2.4615384615384617</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <f>$H2*POWER(C6-$D3,2)+$H2*POWER(C7-$D3,2)</f>
-        <v>28.746982695942989</v>
-      </c>
-      <c r="D10">
-        <f>$H2*POWER(D6-$D3,2)+$H2*POWER(D7-$D3,2)</f>
-        <v>120.02123018758184</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ref="D10:Y10" si="0">$H2*POWER(E6-$D3,2)+$H2*POWER(E7-$D3,2)</f>
-        <v>56.201832194270736</v>
-      </c>
-      <c r="F10">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <f>$C2*POWER(B9-B6,2)+$C2*POWER(B10-B6,2)</f>
+        <v>0.34615384615384637</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" ref="C15:X15" si="0">$C2*POWER(C9-C6,2)+$C2*POWER(C10-C6,2)</f>
+        <v>0.15384615384615408</v>
+      </c>
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>17.027919150792506</v>
-      </c>
-      <c r="G10">
+        <v>0.15384615384615277</v>
+      </c>
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>21.616547913334305</v>
-      </c>
-      <c r="H10">
+        <v>0.34615384615384637</v>
+      </c>
+      <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>4.1349425621637286</v>
-      </c>
-      <c r="I10">
+        <v>0.96153846153846356</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="0"/>
-        <v>80.924240221026636</v>
-      </c>
-      <c r="J10">
+        <v>0.15384615384615363</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="0"/>
-        <v>17.282099752799176</v>
-      </c>
-      <c r="K10">
+        <v>0.15384615384615408</v>
+      </c>
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>3.0346081140032051</v>
-      </c>
-      <c r="L10">
+        <v>3.8461538461539074E-2</v>
+      </c>
+      <c r="J15" s="3">
         <f t="shared" si="0"/>
-        <v>0.73360476952159126</v>
-      </c>
-      <c r="M10">
+        <v>3.846153846153863E-2</v>
+      </c>
+      <c r="K15" s="3">
         <f t="shared" si="0"/>
-        <v>4.1984877126654041</v>
-      </c>
-      <c r="N10">
+        <v>0.34615384615384637</v>
+      </c>
+      <c r="L15" s="3">
         <f t="shared" si="0"/>
-        <v>12.857350588919569</v>
-      </c>
-      <c r="O10">
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="M15" s="3">
         <f t="shared" si="0"/>
-        <v>37.415879017013211</v>
-      </c>
-      <c r="P10">
+        <v>0.15384615384615363</v>
+      </c>
+      <c r="N15" s="3">
         <f t="shared" si="0"/>
-        <v>7.8807619601570345</v>
-      </c>
-      <c r="Q10">
+        <v>3.8461538461538193E-2</v>
+      </c>
+      <c r="O15" s="3">
         <f t="shared" si="0"/>
-        <v>17.282099752799176</v>
-      </c>
-      <c r="R10">
+        <v>0.15384615384615363</v>
+      </c>
+      <c r="P15" s="3">
         <f t="shared" si="0"/>
-        <v>24.720226843100196</v>
-      </c>
-      <c r="S10">
+        <v>3.8461538461539074E-2</v>
+      </c>
+      <c r="Q15" s="3">
         <f t="shared" si="0"/>
-        <v>19.064708448451345</v>
-      </c>
-      <c r="T10">
+        <v>0.34615384615384637</v>
+      </c>
+      <c r="R15" s="3">
         <f t="shared" si="0"/>
-        <v>0.34564490330085956</v>
-      </c>
-      <c r="U10">
+        <v>0.15384615384615452</v>
+      </c>
+      <c r="S15" s="3">
         <f t="shared" si="0"/>
-        <v>70.887450923367766</v>
-      </c>
-      <c r="V10">
+        <v>3.846153846153863E-2</v>
+      </c>
+      <c r="T15" s="3">
         <f t="shared" si="0"/>
-        <v>29.934273665842689</v>
-      </c>
-      <c r="W10">
+        <v>0.3461538461538457</v>
+      </c>
+      <c r="U15" s="3">
         <f t="shared" si="0"/>
-        <v>10.927584702631966</v>
-      </c>
-      <c r="X10">
+        <v>0.15384615384615363</v>
+      </c>
+      <c r="V15" s="3">
         <f t="shared" si="0"/>
-        <v>15.118220154136992</v>
-      </c>
-      <c r="Y10">
+        <v>3.846153846153863E-2</v>
+      </c>
+      <c r="W15" s="3">
         <f t="shared" si="0"/>
-        <v>20.078086374872775</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <f>POWER(WynikiScenariusza1!B1-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="D13">
-        <f>POWER(WynikiScenariusza1!C1-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="E13">
-        <f>POWER(WynikiScenariusza1!D1-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="F13">
-        <f>POWER(WynikiScenariusza1!E1-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="G13">
-        <f>POWER(WynikiScenariusza1!F1-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="H13">
-        <f>POWER(WynikiScenariusza1!G1-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="I13">
-        <f>POWER(WynikiScenariusza1!H1-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="J13">
-        <f>POWER(WynikiScenariusza1!I1-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="K13">
-        <f>POWER(WynikiScenariusza1!J1-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="L13">
-        <f>POWER(WynikiScenariusza1!K1-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="M13">
-        <f>POWER(WynikiScenariusza1!L1-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="N13">
-        <f>POWER(WynikiScenariusza1!M1-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="O13">
-        <f>POWER(WynikiScenariusza1!N1-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="P13">
-        <f>POWER(WynikiScenariusza1!O1-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="Q13">
-        <f>POWER(WynikiScenariusza1!P1-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="R13">
-        <f>POWER(WynikiScenariusza1!Q1-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="S13">
-        <f>POWER(WynikiScenariusza1!R1-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="T13">
-        <f>POWER(WynikiScenariusza1!S1-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="U13">
-        <f>POWER(WynikiScenariusza1!T1-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="V13">
-        <f>POWER(WynikiScenariusza1!U1-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="W13">
-        <f>POWER(WynikiScenariusza1!V1-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="X13">
-        <f>POWER(WynikiScenariusza1!W1-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="Y13">
-        <f>POWER(WynikiScenariusza1!X1-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <f>POWER(WynikiScenariusza1!B2-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="D14">
-        <f>POWER(WynikiScenariusza1!C2-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="E14">
-        <f>POWER(WynikiScenariusza1!D2-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="F14">
-        <f>POWER(WynikiScenariusza1!E2-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="G14">
-        <f>POWER(WynikiScenariusza1!F2-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="H14">
-        <f>POWER(WynikiScenariusza1!G2-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="I14">
-        <f>POWER(WynikiScenariusza1!H2-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="J14">
-        <f>POWER(WynikiScenariusza1!I2-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="K14">
-        <f>POWER(WynikiScenariusza1!J2-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="L14">
-        <f>POWER(WynikiScenariusza1!K2-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="M14">
-        <f>POWER(WynikiScenariusza1!L2-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="N14">
-        <f>POWER(WynikiScenariusza1!M2-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="O14">
-        <f>POWER(WynikiScenariusza1!N2-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="P14">
-        <f>POWER(WynikiScenariusza1!O2-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="Q14">
-        <f>POWER(WynikiScenariusza1!P2-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="R14">
-        <f>POWER(WynikiScenariusza1!Q2-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="S14">
-        <f>POWER(WynikiScenariusza1!R2-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="T14">
-        <f>POWER(WynikiScenariusza1!S2-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="U14">
-        <f>POWER(WynikiScenariusza1!T2-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="V14">
-        <f>POWER(WynikiScenariusza1!U2-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="W14">
-        <f>POWER(WynikiScenariusza1!V2-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="X14">
-        <f>POWER(WynikiScenariusza1!W2-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="Y14">
-        <f>POWER(WynikiScenariusza1!X2-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <f>POWER(WynikiScenariusza1!B3-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="D15">
-        <f>POWER(WynikiScenariusza1!C3-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="E15">
-        <f>POWER(WynikiScenariusza1!D3-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="F15">
-        <f>POWER(WynikiScenariusza1!E3-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="G15">
-        <f>POWER(WynikiScenariusza1!F3-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="H15">
-        <f>POWER(WynikiScenariusza1!G3-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="I15">
-        <f>POWER(WynikiScenariusza1!H3-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="J15">
-        <f>POWER(WynikiScenariusza1!I3-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="K15">
-        <f>POWER(WynikiScenariusza1!J3-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="L15">
-        <f>POWER(WynikiScenariusza1!K3-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="M15">
-        <f>POWER(WynikiScenariusza1!L3-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="N15">
-        <f>POWER(WynikiScenariusza1!M3-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="O15">
-        <f>POWER(WynikiScenariusza1!N3-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="P15">
-        <f>POWER(WynikiScenariusza1!O3-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="Q15">
-        <f>POWER(WynikiScenariusza1!P3-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="R15">
-        <f>POWER(WynikiScenariusza1!Q3-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="S15">
-        <f>POWER(WynikiScenariusza1!R3-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="T15">
-        <f>POWER(WynikiScenariusza1!S3-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="U15">
-        <f>POWER(WynikiScenariusza1!T3-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="V15">
-        <f>POWER(WynikiScenariusza1!U3-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="W15">
-        <f>POWER(WynikiScenariusza1!V3-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="X15">
-        <f>POWER(WynikiScenariusza1!W3-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="Y15">
-        <f>POWER(WynikiScenariusza1!X3-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <f t="shared" si="0"/>
+        <v>3.846153846153863E-2</v>
+      </c>
+      <c r="Y15" s="3"/>
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <f>POWER(WynikiScenariusza1!B4-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="D16">
-        <f>POWER(WynikiScenariusza1!C4-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="E16">
-        <f>POWER(WynikiScenariusza1!D4-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="F16">
-        <f>POWER(WynikiScenariusza1!E4-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="G16">
-        <f>POWER(WynikiScenariusza1!F4-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="H16">
-        <f>POWER(WynikiScenariusza1!G4-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="I16">
-        <f>POWER(WynikiScenariusza1!H4-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="J16">
-        <f>POWER(WynikiScenariusza1!I4-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="K16">
-        <f>POWER(WynikiScenariusza1!J4-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="L16">
-        <f>POWER(WynikiScenariusza1!K4-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="M16">
-        <f>POWER(WynikiScenariusza1!L4-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="N16">
-        <f>POWER(WynikiScenariusza1!M4-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="O16">
-        <f>POWER(WynikiScenariusza1!N4-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="P16">
-        <f>POWER(WynikiScenariusza1!O4-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="Q16">
-        <f>POWER(WynikiScenariusza1!P4-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="R16">
-        <f>POWER(WynikiScenariusza1!Q4-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="S16">
-        <f>POWER(WynikiScenariusza1!R4-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="T16">
-        <f>POWER(WynikiScenariusza1!S4-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="U16">
-        <f>POWER(WynikiScenariusza1!T4-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="V16">
-        <f>POWER(WynikiScenariusza1!U4-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="W16">
-        <f>POWER(WynikiScenariusza1!V4-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="X16">
-        <f>POWER(WynikiScenariusza1!W4-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="Y16">
-        <f>POWER(WynikiScenariusza1!X4-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <f>POWER(WynikiScenariusza1!B5-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="D17">
-        <f>POWER(WynikiScenariusza1!C5-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="E17">
-        <f>POWER(WynikiScenariusza1!D5-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="F17">
-        <f>POWER(WynikiScenariusza1!E5-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="G17">
-        <f>POWER(WynikiScenariusza1!F5-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="H17">
-        <f>POWER(WynikiScenariusza1!G5-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="I17">
-        <f>POWER(WynikiScenariusza1!H5-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="J17">
-        <f>POWER(WynikiScenariusza1!I5-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="K17">
-        <f>POWER(WynikiScenariusza1!J5-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="L17">
-        <f>POWER(WynikiScenariusza1!K5-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="M17">
-        <f>POWER(WynikiScenariusza1!L5-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="N17">
-        <f>POWER(WynikiScenariusza1!M5-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="O17">
-        <f>POWER(WynikiScenariusza1!N5-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="P17">
-        <f>POWER(WynikiScenariusza1!O5-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="Q17">
-        <f>POWER(WynikiScenariusza1!P5-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="R17">
-        <f>POWER(WynikiScenariusza1!Q5-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="S17">
-        <f>POWER(WynikiScenariusza1!R5-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="T17">
-        <f>POWER(WynikiScenariusza1!S5-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="U17">
-        <f>POWER(WynikiScenariusza1!T5-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="V17">
-        <f>POWER(WynikiScenariusza1!U5-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="W17">
-        <f>POWER(WynikiScenariusza1!V5-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="X17">
-        <f>POWER(WynikiScenariusza1!W5-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="Y17">
-        <f>POWER(WynikiScenariusza1!X5-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <f>POWER(WynikiScenariusza1!B6-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="D18">
-        <f>POWER(WynikiScenariusza1!C6-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="E18">
-        <f>POWER(WynikiScenariusza1!D6-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="F18">
-        <f>POWER(WynikiScenariusza1!E6-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="G18">
-        <f>POWER(WynikiScenariusza1!F6-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="H18">
-        <f>POWER(WynikiScenariusza1!G6-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="I18">
-        <f>POWER(WynikiScenariusza1!H6-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="J18">
-        <f>POWER(WynikiScenariusza1!I6-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="K18">
-        <f>POWER(WynikiScenariusza1!J6-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="L18">
-        <f>POWER(WynikiScenariusza1!K6-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="M18">
-        <f>POWER(WynikiScenariusza1!L6-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="N18">
-        <f>POWER(WynikiScenariusza1!M6-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="O18">
-        <f>POWER(WynikiScenariusza1!N6-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="P18">
-        <f>POWER(WynikiScenariusza1!O6-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="Q18">
-        <f>POWER(WynikiScenariusza1!P6-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="R18">
-        <f>POWER(WynikiScenariusza1!Q6-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="S18">
-        <f>POWER(WynikiScenariusza1!R6-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="T18">
-        <f>POWER(WynikiScenariusza1!S6-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="U18">
-        <f>POWER(WynikiScenariusza1!T6-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="V18">
-        <f>POWER(WynikiScenariusza1!U6-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="W18">
-        <f>POWER(WynikiScenariusza1!V6-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="X18">
-        <f>POWER(WynikiScenariusza1!W6-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="Y18">
-        <f>POWER(WynikiScenariusza1!X6-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <f>POWER(WynikiScenariusza1!B7-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="D19">
-        <f>POWER(WynikiScenariusza1!C7-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="E19">
-        <f>POWER(WynikiScenariusza1!D7-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="F19">
-        <f>POWER(WynikiScenariusza1!E7-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="G19">
-        <f>POWER(WynikiScenariusza1!F7-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="H19">
-        <f>POWER(WynikiScenariusza1!G7-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="I19">
-        <f>POWER(WynikiScenariusza1!H7-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="J19">
-        <f>POWER(WynikiScenariusza1!I7-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="K19">
-        <f>POWER(WynikiScenariusza1!J7-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="L19">
-        <f>POWER(WynikiScenariusza1!K7-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="M19">
-        <f>POWER(WynikiScenariusza1!L7-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="N19">
-        <f>POWER(WynikiScenariusza1!M7-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="O19">
-        <f>POWER(WynikiScenariusza1!N7-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="P19">
-        <f>POWER(WynikiScenariusza1!O7-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="Q19">
-        <f>POWER(WynikiScenariusza1!P7-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="R19">
-        <f>POWER(WynikiScenariusza1!Q7-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="S19">
-        <f>POWER(WynikiScenariusza1!R7-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="T19">
-        <f>POWER(WynikiScenariusza1!S7-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="U19">
-        <f>POWER(WynikiScenariusza1!T7-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="V19">
-        <f>POWER(WynikiScenariusza1!U7-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="W19">
-        <f>POWER(WynikiScenariusza1!V7-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="X19">
-        <f>POWER(WynikiScenariusza1!W7-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="Y19">
-        <f>POWER(WynikiScenariusza1!X7-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <f>POWER(WynikiScenariusza1!B8-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="D20">
-        <f>POWER(WynikiScenariusza1!C8-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="E20">
-        <f>POWER(WynikiScenariusza1!D8-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="F20">
-        <f>POWER(WynikiScenariusza1!E8-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="G20">
-        <f>POWER(WynikiScenariusza1!F8-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="H20">
-        <f>POWER(WynikiScenariusza1!G8-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="I20">
-        <f>POWER(WynikiScenariusza1!H8-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="J20">
-        <f>POWER(WynikiScenariusza1!I8-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="K20">
-        <f>POWER(WynikiScenariusza1!J8-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="L20">
-        <f>POWER(WynikiScenariusza1!K8-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="M20">
-        <f>POWER(WynikiScenariusza1!L8-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="N20">
-        <f>POWER(WynikiScenariusza1!M8-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="O20">
-        <f>POWER(WynikiScenariusza1!N8-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="P20">
-        <f>POWER(WynikiScenariusza1!O8-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="Q20">
-        <f>POWER(WynikiScenariusza1!P8-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="R20">
-        <f>POWER(WynikiScenariusza1!Q8-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="S20">
-        <f>POWER(WynikiScenariusza1!R8-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="T20">
-        <f>POWER(WynikiScenariusza1!S8-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="U20">
-        <f>POWER(WynikiScenariusza1!T8-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="V20">
-        <f>POWER(WynikiScenariusza1!U8-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="W20">
-        <f>POWER(WynikiScenariusza1!V8-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="X20">
-        <f>POWER(WynikiScenariusza1!W8-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="Y20">
-        <f>POWER(WynikiScenariusza1!X8-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <f>POWER(WynikiScenariusza1!B9-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="D21">
-        <f>POWER(WynikiScenariusza1!C9-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="E21">
-        <f>POWER(WynikiScenariusza1!D9-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="F21">
-        <f>POWER(WynikiScenariusza1!E9-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="G21">
-        <f>POWER(WynikiScenariusza1!F9-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="H21">
-        <f>POWER(WynikiScenariusza1!G9-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="I21">
-        <f>POWER(WynikiScenariusza1!H9-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="J21">
-        <f>POWER(WynikiScenariusza1!I9-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="K21">
-        <f>POWER(WynikiScenariusza1!J9-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="L21">
-        <f>POWER(WynikiScenariusza1!K9-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="M21">
-        <f>POWER(WynikiScenariusza1!L9-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="N21">
-        <f>POWER(WynikiScenariusza1!M9-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="O21">
-        <f>POWER(WynikiScenariusza1!N9-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="P21">
-        <f>POWER(WynikiScenariusza1!O9-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="Q21">
-        <f>POWER(WynikiScenariusza1!P9-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="R21">
-        <f>POWER(WynikiScenariusza1!Q9-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="S21">
-        <f>POWER(WynikiScenariusza1!R9-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="T21">
-        <f>POWER(WynikiScenariusza1!S9-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="U21">
-        <f>POWER(WynikiScenariusza1!T9-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="V21">
-        <f>POWER(WynikiScenariusza1!U9-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="W21">
-        <f>POWER(WynikiScenariusza1!V9-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="X21">
-        <f>POWER(WynikiScenariusza1!W9-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="Y21">
-        <f>POWER(WynikiScenariusza1!X9-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <f>POWER(WynikiScenariusza1!B10-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="D22">
-        <f>POWER(WynikiScenariusza1!C10-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="E22">
-        <f>POWER(WynikiScenariusza1!D10-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="F22">
-        <f>POWER(WynikiScenariusza1!E10-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="G22">
-        <f>POWER(WynikiScenariusza1!F10-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="H22">
-        <f>POWER(WynikiScenariusza1!G10-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="I22">
-        <f>POWER(WynikiScenariusza1!H10-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="J22">
-        <f>POWER(WynikiScenariusza1!I10-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="K22">
-        <f>POWER(WynikiScenariusza1!J10-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="L22">
-        <f>POWER(WynikiScenariusza1!K10-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="M22">
-        <f>POWER(WynikiScenariusza1!L10-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="N22">
-        <f>POWER(WynikiScenariusza1!M10-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="O22">
-        <f>POWER(WynikiScenariusza1!N10-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="P22">
-        <f>POWER(WynikiScenariusza1!O10-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="Q22">
-        <f>POWER(WynikiScenariusza1!P10-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="R22">
-        <f>POWER(WynikiScenariusza1!Q10-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="S22">
-        <f>POWER(WynikiScenariusza1!R10-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="T22">
-        <f>POWER(WynikiScenariusza1!S10-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="U22">
-        <f>POWER(WynikiScenariusza1!T10-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="V22">
-        <f>POWER(WynikiScenariusza1!U10-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="W22">
-        <f>POWER(WynikiScenariusza1!V10-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="X22">
-        <f>POWER(WynikiScenariusza1!W10-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="Y22">
-        <f>POWER(WynikiScenariusza1!X10-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <f>POWER(WynikiScenariusza1!B11-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="D23">
-        <f>POWER(WynikiScenariusza1!C11-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="E23">
-        <f>POWER(WynikiScenariusza1!D11-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="F23">
-        <f>POWER(WynikiScenariusza1!E11-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="G23">
-        <f>POWER(WynikiScenariusza1!F11-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="H23">
-        <f>POWER(WynikiScenariusza1!G11-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="I23">
-        <f>POWER(WynikiScenariusza1!H11-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="J23">
-        <f>POWER(WynikiScenariusza1!I11-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="K23">
-        <f>POWER(WynikiScenariusza1!J11-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="L23">
-        <f>POWER(WynikiScenariusza1!K11-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="M23">
-        <f>POWER(WynikiScenariusza1!L11-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="N23">
-        <f>POWER(WynikiScenariusza1!M11-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="O23">
-        <f>POWER(WynikiScenariusza1!N11-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="P23">
-        <f>POWER(WynikiScenariusza1!O11-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="Q23">
-        <f>POWER(WynikiScenariusza1!P11-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="R23">
-        <f>POWER(WynikiScenariusza1!Q11-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="S23">
-        <f>POWER(WynikiScenariusza1!R11-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="T23">
-        <f>POWER(WynikiScenariusza1!S11-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="U23">
-        <f>POWER(WynikiScenariusza1!T11-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="V23">
-        <f>POWER(WynikiScenariusza1!U11-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="W23">
-        <f>POWER(WynikiScenariusza1!V11-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="X23">
-        <f>POWER(WynikiScenariusza1!W11-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="Y23">
-        <f>POWER(WynikiScenariusza1!X11-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <f>POWER(WynikiScenariusza1!B12-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="D24">
-        <f>POWER(WynikiScenariusza1!C12-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="E24">
-        <f>POWER(WynikiScenariusza1!D12-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="F24">
-        <f>POWER(WynikiScenariusza1!E12-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="G24">
-        <f>POWER(WynikiScenariusza1!F12-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="H24">
-        <f>POWER(WynikiScenariusza1!G12-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="I24">
-        <f>POWER(WynikiScenariusza1!H12-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="J24">
-        <f>POWER(WynikiScenariusza1!I12-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="K24">
-        <f>POWER(WynikiScenariusza1!J12-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="L24">
-        <f>POWER(WynikiScenariusza1!K12-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="M24">
-        <f>POWER(WynikiScenariusza1!L12-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="N24">
-        <f>POWER(WynikiScenariusza1!M12-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="O24">
-        <f>POWER(WynikiScenariusza1!N12-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="P24">
-        <f>POWER(WynikiScenariusza1!O12-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="Q24">
-        <f>POWER(WynikiScenariusza1!P12-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="R24">
-        <f>POWER(WynikiScenariusza1!Q12-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="S24">
-        <f>POWER(WynikiScenariusza1!R12-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="T24">
-        <f>POWER(WynikiScenariusza1!S12-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="U24">
-        <f>POWER(WynikiScenariusza1!T12-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="V24">
-        <f>POWER(WynikiScenariusza1!U12-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="W24">
-        <f>POWER(WynikiScenariusza1!V12-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="X24">
-        <f>POWER(WynikiScenariusza1!W12-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="Y24">
-        <f>POWER(WynikiScenariusza1!X12-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <f>POWER(WynikiScenariusza1!B13-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="D25">
-        <f>POWER(WynikiScenariusza1!C13-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="E25">
-        <f>POWER(WynikiScenariusza1!D13-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="F25">
-        <f>POWER(WynikiScenariusza1!E13-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="G25">
-        <f>POWER(WynikiScenariusza1!F13-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="H25">
-        <f>POWER(WynikiScenariusza1!G13-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="I25">
-        <f>POWER(WynikiScenariusza1!H13-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="J25">
-        <f>POWER(WynikiScenariusza1!I13-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="K25">
-        <f>POWER(WynikiScenariusza1!J13-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="L25">
-        <f>POWER(WynikiScenariusza1!K13-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="M25">
-        <f>POWER(WynikiScenariusza1!L13-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="N25">
-        <f>POWER(WynikiScenariusza1!M13-ANOVA!$B3,2)</f>
-        <v>0.46549814879028195</v>
-      </c>
-      <c r="O25">
-        <f>POWER(WynikiScenariusza1!N13-ANOVA!$B3,2)</f>
-        <v>2.8300466437735596</v>
-      </c>
-      <c r="P25">
-        <f>POWER(WynikiScenariusza1!O13-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="Q25">
-        <f>POWER(WynikiScenariusza1!P13-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="R25">
-        <f>POWER(WynikiScenariusza1!Q13-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="S25">
-        <f>POWER(WynikiScenariusza1!R13-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="T25">
-        <f>POWER(WynikiScenariusza1!S13-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="U25">
-        <f>POWER(WynikiScenariusza1!T13-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="V25">
-        <f>POWER(WynikiScenariusza1!U13-ANOVA!$B3,2)</f>
-        <v>5.3718526638404489</v>
-      </c>
-      <c r="W25">
-        <f>POWER(WynikiScenariusza1!V13-ANOVA!$B3,2)</f>
-        <v>0.10094965380700441</v>
-      </c>
-      <c r="X25">
-        <f>POWER(WynikiScenariusza1!W13-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-      <c r="Y25">
-        <f>POWER(WynikiScenariusza1!X13-ANOVA!$B3,2)</f>
-        <v>1.7364011588237269</v>
-      </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <f>POWER(WynikiScenariusza2!B1-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="D29">
-        <f>POWER(WynikiScenariusza2!C1-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="E29">
-        <f>POWER(WynikiScenariusza2!D1-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="F29">
-        <f>POWER(WynikiScenariusza2!E1-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="G29">
-        <f>POWER(WynikiScenariusza2!F1-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="H29">
-        <f>POWER(WynikiScenariusza2!G1-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="I29">
-        <f>POWER(WynikiScenariusza2!H1-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="J29">
-        <f>POWER(WynikiScenariusza2!I1-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="K29">
-        <f>POWER(WynikiScenariusza2!J1-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="L29">
-        <f>POWER(WynikiScenariusza2!K1-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="M29">
-        <f>POWER(WynikiScenariusza2!L1-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="N29">
-        <f>POWER(WynikiScenariusza2!M1-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="O29">
-        <f>POWER(WynikiScenariusza2!N1-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="P29">
-        <f>POWER(WynikiScenariusza2!O1-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="Q29">
-        <f>POWER(WynikiScenariusza2!P1-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="R29">
-        <f>POWER(WynikiScenariusza2!Q1-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="S29">
-        <f>POWER(WynikiScenariusza2!R1-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="T29">
-        <f>POWER(WynikiScenariusza2!S1-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="U29">
-        <f>POWER(WynikiScenariusza2!T1-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="V29">
-        <f>POWER(WynikiScenariusza2!U1-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="W29">
-        <f>POWER(WynikiScenariusza2!V1-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="X29">
-        <f>POWER(WynikiScenariusza2!W1-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="Y29">
-        <f>POWER(WynikiScenariusza2!X1-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <f>POWER(WynikiScenariusza2!B2-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="D30">
-        <f>POWER(WynikiScenariusza2!C2-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="E30">
-        <f>POWER(WynikiScenariusza2!D2-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="F30">
-        <f>POWER(WynikiScenariusza2!E2-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="G30">
-        <f>POWER(WynikiScenariusza2!F2-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="H30">
-        <f>POWER(WynikiScenariusza2!G2-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="I30">
-        <f>POWER(WynikiScenariusza2!H2-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="J30">
-        <f>POWER(WynikiScenariusza2!I2-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="K30">
-        <f>POWER(WynikiScenariusza2!J2-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="L30">
-        <f>POWER(WynikiScenariusza2!K2-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="M30">
-        <f>POWER(WynikiScenariusza2!L2-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="N30">
-        <f>POWER(WynikiScenariusza2!M2-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="O30">
-        <f>POWER(WynikiScenariusza2!N2-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="P30">
-        <f>POWER(WynikiScenariusza2!O2-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="Q30">
-        <f>POWER(WynikiScenariusza2!P2-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="R30">
-        <f>POWER(WynikiScenariusza2!Q2-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="S30">
-        <f>POWER(WynikiScenariusza2!R2-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="T30">
-        <f>POWER(WynikiScenariusza2!S2-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="U30">
-        <f>POWER(WynikiScenariusza2!T2-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="V30">
-        <f>POWER(WynikiScenariusza2!U2-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="W30">
-        <f>POWER(WynikiScenariusza2!V2-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="X30">
-        <f>POWER(WynikiScenariusza2!W2-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="Y30">
-        <f>POWER(WynikiScenariusza2!X2-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <f>POWER(WynikiScenariusza2!B3-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="D31">
-        <f>POWER(WynikiScenariusza2!C3-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="E31">
-        <f>POWER(WynikiScenariusza2!D3-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="F31">
-        <f>POWER(WynikiScenariusza2!E3-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="G31">
-        <f>POWER(WynikiScenariusza2!F3-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="H31">
-        <f>POWER(WynikiScenariusza2!G3-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="I31">
-        <f>POWER(WynikiScenariusza2!H3-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="J31">
-        <f>POWER(WynikiScenariusza2!I3-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="K31">
-        <f>POWER(WynikiScenariusza2!J3-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="L31">
-        <f>POWER(WynikiScenariusza2!K3-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="M31">
-        <f>POWER(WynikiScenariusza2!L3-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="N31">
-        <f>POWER(WynikiScenariusza2!M3-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="O31">
-        <f>POWER(WynikiScenariusza2!N3-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="P31">
-        <f>POWER(WynikiScenariusza2!O3-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="Q31">
-        <f>POWER(WynikiScenariusza2!P3-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="R31">
-        <f>POWER(WynikiScenariusza2!Q3-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="S31">
-        <f>POWER(WynikiScenariusza2!R3-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="T31">
-        <f>POWER(WynikiScenariusza2!S3-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="U31">
-        <f>POWER(WynikiScenariusza2!T3-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="V31">
-        <f>POWER(WynikiScenariusza2!U3-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="W31">
-        <f>POWER(WynikiScenariusza2!V3-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="X31">
-        <f>POWER(WynikiScenariusza2!W3-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="Y31">
-        <f>POWER(WynikiScenariusza2!X3-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <f>POWER(WynikiScenariusza2!B4-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="D32">
-        <f>POWER(WynikiScenariusza2!C4-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="E32">
-        <f>POWER(WynikiScenariusza2!D4-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="F32">
-        <f>POWER(WynikiScenariusza2!E4-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="G32">
-        <f>POWER(WynikiScenariusza2!F4-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="H32">
-        <f>POWER(WynikiScenariusza2!G4-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="I32">
-        <f>POWER(WynikiScenariusza2!H4-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="J32">
-        <f>POWER(WynikiScenariusza2!I4-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="K32">
-        <f>POWER(WynikiScenariusza2!J4-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="L32">
-        <f>POWER(WynikiScenariusza2!K4-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="M32">
-        <f>POWER(WynikiScenariusza2!L4-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="N32">
-        <f>POWER(WynikiScenariusza2!M4-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="O32">
-        <f>POWER(WynikiScenariusza2!N4-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="P32">
-        <f>POWER(WynikiScenariusza2!O4-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="Q32">
-        <f>POWER(WynikiScenariusza2!P4-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="R32">
-        <f>POWER(WynikiScenariusza2!Q4-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="S32">
-        <f>POWER(WynikiScenariusza2!R4-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="T32">
-        <f>POWER(WynikiScenariusza2!S4-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="U32">
-        <f>POWER(WynikiScenariusza2!T4-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="V32">
-        <f>POWER(WynikiScenariusza2!U4-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="W32">
-        <f>POWER(WynikiScenariusza2!V4-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="X32">
-        <f>POWER(WynikiScenariusza2!W4-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="Y32">
-        <f>POWER(WynikiScenariusza2!X4-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <f>POWER(WynikiScenariusza2!B5-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="D33">
-        <f>POWER(WynikiScenariusza2!C5-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="E33">
-        <f>POWER(WynikiScenariusza2!D5-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="F33">
-        <f>POWER(WynikiScenariusza2!E5-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="G33">
-        <f>POWER(WynikiScenariusza2!F5-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="H33">
-        <f>POWER(WynikiScenariusza2!G5-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="I33">
-        <f>POWER(WynikiScenariusza2!H5-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="J33">
-        <f>POWER(WynikiScenariusza2!I5-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="K33">
-        <f>POWER(WynikiScenariusza2!J5-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="L33">
-        <f>POWER(WynikiScenariusza2!K5-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="M33">
-        <f>POWER(WynikiScenariusza2!L5-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="N33">
-        <f>POWER(WynikiScenariusza2!M5-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="O33">
-        <f>POWER(WynikiScenariusza2!N5-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="P33">
-        <f>POWER(WynikiScenariusza2!O5-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="Q33">
-        <f>POWER(WynikiScenariusza2!P5-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="R33">
-        <f>POWER(WynikiScenariusza2!Q5-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="S33">
-        <f>POWER(WynikiScenariusza2!R5-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="T33">
-        <f>POWER(WynikiScenariusza2!S5-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="U33">
-        <f>POWER(WynikiScenariusza2!T5-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="V33">
-        <f>POWER(WynikiScenariusza2!U5-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="W33">
-        <f>POWER(WynikiScenariusza2!V5-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="X33">
-        <f>POWER(WynikiScenariusza2!W5-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="Y33">
-        <f>POWER(WynikiScenariusza2!X5-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <f>POWER(WynikiScenariusza2!B6-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="D34">
-        <f>POWER(WynikiScenariusza2!C6-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="E34">
-        <f>POWER(WynikiScenariusza2!D6-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="F34">
-        <f>POWER(WynikiScenariusza2!E6-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="G34">
-        <f>POWER(WynikiScenariusza2!F6-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="H34">
-        <f>POWER(WynikiScenariusza2!G6-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="I34">
-        <f>POWER(WynikiScenariusza2!H6-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="J34">
-        <f>POWER(WynikiScenariusza2!I6-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="K34">
-        <f>POWER(WynikiScenariusza2!J6-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="L34">
-        <f>POWER(WynikiScenariusza2!K6-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="M34">
-        <f>POWER(WynikiScenariusza2!L6-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="N34">
-        <f>POWER(WynikiScenariusza2!M6-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="O34">
-        <f>POWER(WynikiScenariusza2!N6-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="P34">
-        <f>POWER(WynikiScenariusza2!O6-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="Q34">
-        <f>POWER(WynikiScenariusza2!P6-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="R34">
-        <f>POWER(WynikiScenariusza2!Q6-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="S34">
-        <f>POWER(WynikiScenariusza2!R6-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="T34">
-        <f>POWER(WynikiScenariusza2!S6-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="U34">
-        <f>POWER(WynikiScenariusza2!T6-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="V34">
-        <f>POWER(WynikiScenariusza2!U6-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="W34">
-        <f>POWER(WynikiScenariusza2!V6-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="X34">
-        <f>POWER(WynikiScenariusza2!W6-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="Y34">
-        <f>POWER(WynikiScenariusza2!X6-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <f>POWER(WynikiScenariusza2!B7-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="D35">
-        <f>POWER(WynikiScenariusza2!C7-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="E35">
-        <f>POWER(WynikiScenariusza2!D7-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="F35">
-        <f>POWER(WynikiScenariusza2!E7-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="G35">
-        <f>POWER(WynikiScenariusza2!F7-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="H35">
-        <f>POWER(WynikiScenariusza2!G7-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="I35">
-        <f>POWER(WynikiScenariusza2!H7-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="J35">
-        <f>POWER(WynikiScenariusza2!I7-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="K35">
-        <f>POWER(WynikiScenariusza2!J7-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="L35">
-        <f>POWER(WynikiScenariusza2!K7-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="M35">
-        <f>POWER(WynikiScenariusza2!L7-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="N35">
-        <f>POWER(WynikiScenariusza2!M7-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="O35">
-        <f>POWER(WynikiScenariusza2!N7-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="P35">
-        <f>POWER(WynikiScenariusza2!O7-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="Q35">
-        <f>POWER(WynikiScenariusza2!P7-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="R35">
-        <f>POWER(WynikiScenariusza2!Q7-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="S35">
-        <f>POWER(WynikiScenariusza2!R7-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="T35">
-        <f>POWER(WynikiScenariusza2!S7-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="U35">
-        <f>POWER(WynikiScenariusza2!T7-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="V35">
-        <f>POWER(WynikiScenariusza2!U7-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="W35">
-        <f>POWER(WynikiScenariusza2!V7-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="X35">
-        <f>POWER(WynikiScenariusza2!W7-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="Y35">
-        <f>POWER(WynikiScenariusza2!X7-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C36">
-        <f>POWER(WynikiScenariusza2!B8-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="D36">
-        <f>POWER(WynikiScenariusza2!C8-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="E36">
-        <f>POWER(WynikiScenariusza2!D8-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="F36">
-        <f>POWER(WynikiScenariusza2!E8-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="G36">
-        <f>POWER(WynikiScenariusza2!F8-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="H36">
-        <f>POWER(WynikiScenariusza2!G8-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="I36">
-        <f>POWER(WynikiScenariusza2!H8-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="J36">
-        <f>POWER(WynikiScenariusza2!I8-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="K36">
-        <f>POWER(WynikiScenariusza2!J8-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="L36">
-        <f>POWER(WynikiScenariusza2!K8-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="M36">
-        <f>POWER(WynikiScenariusza2!L8-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="N36">
-        <f>POWER(WynikiScenariusza2!M8-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="O36">
-        <f>POWER(WynikiScenariusza2!N8-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="P36">
-        <f>POWER(WynikiScenariusza2!O8-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="Q36">
-        <f>POWER(WynikiScenariusza2!P8-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="R36">
-        <f>POWER(WynikiScenariusza2!Q8-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="S36">
-        <f>POWER(WynikiScenariusza2!R8-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="T36">
-        <f>POWER(WynikiScenariusza2!S8-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="U36">
-        <f>POWER(WynikiScenariusza2!T8-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="V36">
-        <f>POWER(WynikiScenariusza2!U8-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="W36">
-        <f>POWER(WynikiScenariusza2!V8-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="X36">
-        <f>POWER(WynikiScenariusza2!W8-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="Y36">
-        <f>POWER(WynikiScenariusza2!X8-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C37">
-        <f>POWER(WynikiScenariusza2!B9-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="D37">
-        <f>POWER(WynikiScenariusza2!C9-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="E37">
-        <f>POWER(WynikiScenariusza2!D9-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="F37">
-        <f>POWER(WynikiScenariusza2!E9-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="G37">
-        <f>POWER(WynikiScenariusza2!F9-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="H37">
-        <f>POWER(WynikiScenariusza2!G9-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="I37">
-        <f>POWER(WynikiScenariusza2!H9-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="J37">
-        <f>POWER(WynikiScenariusza2!I9-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="K37">
-        <f>POWER(WynikiScenariusza2!J9-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="L37">
-        <f>POWER(WynikiScenariusza2!K9-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="M37">
-        <f>POWER(WynikiScenariusza2!L9-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="N37">
-        <f>POWER(WynikiScenariusza2!M9-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="O37">
-        <f>POWER(WynikiScenariusza2!N9-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="P37">
-        <f>POWER(WynikiScenariusza2!O9-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="Q37">
-        <f>POWER(WynikiScenariusza2!P9-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="R37">
-        <f>POWER(WynikiScenariusza2!Q9-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="S37">
-        <f>POWER(WynikiScenariusza2!R9-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="T37">
-        <f>POWER(WynikiScenariusza2!S9-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="U37">
-        <f>POWER(WynikiScenariusza2!T9-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="V37">
-        <f>POWER(WynikiScenariusza2!U9-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="W37">
-        <f>POWER(WynikiScenariusza2!V9-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="X37">
-        <f>POWER(WynikiScenariusza2!W9-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="Y37">
-        <f>POWER(WynikiScenariusza2!X9-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C38">
-        <f>POWER(WynikiScenariusza2!B10-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="D38">
-        <f>POWER(WynikiScenariusza2!C10-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="E38">
-        <f>POWER(WynikiScenariusza2!D10-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="F38">
-        <f>POWER(WynikiScenariusza2!E10-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="G38">
-        <f>POWER(WynikiScenariusza2!F10-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="H38">
-        <f>POWER(WynikiScenariusza2!G10-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="I38">
-        <f>POWER(WynikiScenariusza2!H10-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="J38">
-        <f>POWER(WynikiScenariusza2!I10-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="K38">
-        <f>POWER(WynikiScenariusza2!J10-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="L38">
-        <f>POWER(WynikiScenariusza2!K10-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="M38">
-        <f>POWER(WynikiScenariusza2!L10-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="N38">
-        <f>POWER(WynikiScenariusza2!M10-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="O38">
-        <f>POWER(WynikiScenariusza2!N10-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="P38">
-        <f>POWER(WynikiScenariusza2!O10-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="Q38">
-        <f>POWER(WynikiScenariusza2!P10-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="R38">
-        <f>POWER(WynikiScenariusza2!Q10-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="S38">
-        <f>POWER(WynikiScenariusza2!R10-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="T38">
-        <f>POWER(WynikiScenariusza2!S10-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="U38">
-        <f>POWER(WynikiScenariusza2!T10-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="V38">
-        <f>POWER(WynikiScenariusza2!U10-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="W38">
-        <f>POWER(WynikiScenariusza2!V10-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="X38">
-        <f>POWER(WynikiScenariusza2!W10-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="Y38">
-        <f>POWER(WynikiScenariusza2!X10-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <f>POWER(WynikiScenariusza2!B11-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="D39">
-        <f>POWER(WynikiScenariusza2!C11-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="E39">
-        <f>POWER(WynikiScenariusza2!D11-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="F39">
-        <f>POWER(WynikiScenariusza2!E11-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="G39">
-        <f>POWER(WynikiScenariusza2!F11-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="H39">
-        <f>POWER(WynikiScenariusza2!G11-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="I39">
-        <f>POWER(WynikiScenariusza2!H11-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="J39">
-        <f>POWER(WynikiScenariusza2!I11-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="K39">
-        <f>POWER(WynikiScenariusza2!J11-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="L39">
-        <f>POWER(WynikiScenariusza2!K11-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="M39">
-        <f>POWER(WynikiScenariusza2!L11-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="N39">
-        <f>POWER(WynikiScenariusza2!M11-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="O39">
-        <f>POWER(WynikiScenariusza2!N11-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="P39">
-        <f>POWER(WynikiScenariusza2!O11-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="Q39">
-        <f>POWER(WynikiScenariusza2!P11-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="R39">
-        <f>POWER(WynikiScenariusza2!Q11-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="S39">
-        <f>POWER(WynikiScenariusza2!R11-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="T39">
-        <f>POWER(WynikiScenariusza2!S11-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="U39">
-        <f>POWER(WynikiScenariusza2!T11-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="V39">
-        <f>POWER(WynikiScenariusza2!U11-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="W39">
-        <f>POWER(WynikiScenariusza2!V11-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="X39">
-        <f>POWER(WynikiScenariusza2!W11-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="Y39">
-        <f>POWER(WynikiScenariusza2!X11-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C40">
-        <f>POWER(WynikiScenariusza2!B12-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="D40">
-        <f>POWER(WynikiScenariusza2!C12-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="E40">
-        <f>POWER(WynikiScenariusza2!D12-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="F40">
-        <f>POWER(WynikiScenariusza2!E12-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="G40">
-        <f>POWER(WynikiScenariusza2!F12-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="H40">
-        <f>POWER(WynikiScenariusza2!G12-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="I40">
-        <f>POWER(WynikiScenariusza2!H12-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="J40">
-        <f>POWER(WynikiScenariusza2!I12-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="K40">
-        <f>POWER(WynikiScenariusza2!J12-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="L40">
-        <f>POWER(WynikiScenariusza2!K12-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="M40">
-        <f>POWER(WynikiScenariusza2!L12-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="N40">
-        <f>POWER(WynikiScenariusza2!M12-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="O40">
-        <f>POWER(WynikiScenariusza2!N12-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="P40">
-        <f>POWER(WynikiScenariusza2!O12-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="Q40">
-        <f>POWER(WynikiScenariusza2!P12-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="R40">
-        <f>POWER(WynikiScenariusza2!Q12-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="S40">
-        <f>POWER(WynikiScenariusza2!R12-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="T40">
-        <f>POWER(WynikiScenariusza2!S12-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="U40">
-        <f>POWER(WynikiScenariusza2!T12-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="V40">
-        <f>POWER(WynikiScenariusza2!U12-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="W40">
-        <f>POWER(WynikiScenariusza2!V12-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="X40">
-        <f>POWER(WynikiScenariusza2!W12-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="Y40">
-        <f>POWER(WynikiScenariusza2!X12-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C41">
-        <f>POWER(WynikiScenariusza2!B13-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="D41">
-        <f>POWER(WynikiScenariusza2!C13-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="E41">
-        <f>POWER(WynikiScenariusza2!D13-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="F41">
-        <f>POWER(WynikiScenariusza2!E13-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="G41">
-        <f>POWER(WynikiScenariusza2!F13-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="H41">
-        <f>POWER(WynikiScenariusza2!G13-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="I41">
-        <f>POWER(WynikiScenariusza2!H13-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="J41">
-        <f>POWER(WynikiScenariusza2!I13-ANOVA!$C3,2)</f>
-        <v>0.51225377792194715</v>
-      </c>
-      <c r="K41">
-        <f>POWER(WynikiScenariusza2!J13-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="L41">
-        <f>POWER(WynikiScenariusza2!K13-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="M41">
-        <f>POWER(WynikiScenariusza2!L13-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="N41">
-        <f>POWER(WynikiScenariusza2!M13-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="O41">
-        <f>POWER(WynikiScenariusza2!N13-ANOVA!$C3,2)</f>
-        <v>2.9436919050122481</v>
-      </c>
-      <c r="P41">
-        <f>POWER(WynikiScenariusza2!O13-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="Q41">
-        <f>POWER(WynikiScenariusza2!P13-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="R41">
-        <f>POWER(WynikiScenariusza2!Q13-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="S41">
-        <f>POWER(WynikiScenariusza2!R13-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="T41">
-        <f>POWER(WynikiScenariusza2!S13-ANOVA!$C3,2)</f>
-        <v>8.0815650831646199E-2</v>
-      </c>
-      <c r="U41">
-        <f>POWER(WynikiScenariusza2!T13-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="V41">
-        <f>POWER(WynikiScenariusza2!U13-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="W41">
-        <f>POWER(WynikiScenariusza2!V13-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-      <c r="X41">
-        <f>POWER(WynikiScenariusza2!W13-ANOVA!$C3,2)</f>
-        <v>5.2179393966510439</v>
-      </c>
-      <c r="Y41">
-        <f>POWER(WynikiScenariusza2!X13-ANOVA!$C3,2)</f>
-        <v>1.6493775237413453</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C44">
-        <f>SUM(C13:C25,C29:C41)</f>
-        <v>40.192380398429556</v>
-      </c>
-      <c r="D44">
-        <f t="shared" ref="D44:Y44" si="1">SUM(D13:D25,D29:D41)</f>
-        <v>123.19238039842959</v>
-      </c>
-      <c r="E44">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <f>POWER(WynikiScenariusza1!B1-ANOVA!B9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="C19" s="3">
+        <f>POWER(WynikiScenariusza1!C1-ANOVA!C9,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="D19" s="3">
+        <f>POWER(WynikiScenariusza1!D1-ANOVA!D9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <f>POWER(WynikiScenariusza1!E1-ANOVA!E9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="F19" s="3">
+        <f>POWER(WynikiScenariusza1!F1-ANOVA!F9,2)</f>
+        <v>0.3786982248520705</v>
+      </c>
+      <c r="G19" s="3">
+        <f>POWER(WynikiScenariusza1!G1-ANOVA!G9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="H19" s="3">
+        <f>POWER(WynikiScenariusza1!H1-ANOVA!H9,2)</f>
+        <v>1.9171597633136093</v>
+      </c>
+      <c r="I19" s="3">
+        <f>POWER(WynikiScenariusza1!I1-ANOVA!I9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="J19" s="3">
+        <f>POWER(WynikiScenariusza1!J1-ANOVA!J9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="K19" s="3">
+        <f>POWER(WynikiScenariusza1!K1-ANOVA!K9,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="L19" s="3">
+        <f>POWER(WynikiScenariusza1!L1-ANOVA!L9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="M19" s="3">
+        <f>POWER(WynikiScenariusza1!M1-ANOVA!M9,2)</f>
+        <v>0.85207100591715945</v>
+      </c>
+      <c r="N19" s="3">
+        <f>POWER(WynikiScenariusza1!N1-ANOVA!N9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="O19" s="3">
+        <f>POWER(WynikiScenariusza1!O1-ANOVA!O9,2)</f>
+        <v>1.1597633136094678</v>
+      </c>
+      <c r="P19" s="3">
+        <f>POWER(WynikiScenariusza1!P1-ANOVA!P9,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="Q19" s="3">
+        <f>POWER(WynikiScenariusza1!Q1-ANOVA!Q9,2)</f>
+        <v>0.14792899408284055</v>
+      </c>
+      <c r="R19" s="3">
+        <f>POWER(WynikiScenariusza1!R1-ANOVA!R9,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="S19" s="3">
+        <f>POWER(WynikiScenariusza1!S1-ANOVA!S9,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="T19" s="3">
+        <f>POWER(WynikiScenariusza1!T1-ANOVA!T9,2)</f>
+        <v>1.5147928994082842</v>
+      </c>
+      <c r="U19" s="3">
+        <f>POWER(WynikiScenariusza1!U1-ANOVA!U9,2)</f>
+        <v>0.71597633136094696</v>
+      </c>
+      <c r="V19" s="3">
+        <f>POWER(WynikiScenariusza1!V1-ANOVA!V9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="W19" s="3">
+        <f>POWER(WynikiScenariusza1!W1-ANOVA!W9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="X19" s="3">
+        <f>POWER(WynikiScenariusza1!X1-ANOVA!X9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <f>POWER(WynikiScenariusza1!B2-ANOVA!B9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="C20" s="3">
+        <f>POWER(WynikiScenariusza1!C2-ANOVA!C9,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="D20" s="3">
+        <f>POWER(WynikiScenariusza1!D2-ANOVA!D9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <f>POWER(WynikiScenariusza1!E2-ANOVA!E9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="F20" s="3">
+        <f>POWER(WynikiScenariusza1!F2-ANOVA!F9,2)</f>
+        <v>0.3786982248520705</v>
+      </c>
+      <c r="G20" s="3">
+        <f>POWER(WynikiScenariusza1!G2-ANOVA!G9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="H20" s="3">
+        <f>POWER(WynikiScenariusza1!H2-ANOVA!H9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="I20" s="3">
+        <f>POWER(WynikiScenariusza1!I2-ANOVA!I9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="J20" s="3">
+        <f>POWER(WynikiScenariusza1!J2-ANOVA!J9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="K20" s="3">
+        <f>POWER(WynikiScenariusza1!K2-ANOVA!K9,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="L20" s="3">
+        <f>POWER(WynikiScenariusza1!L2-ANOVA!L9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="M20" s="3">
+        <f>POWER(WynikiScenariusza1!M2-ANOVA!M9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="N20" s="3">
+        <f>POWER(WynikiScenariusza1!N2-ANOVA!N9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="O20" s="3">
+        <f>POWER(WynikiScenariusza1!O2-ANOVA!O9,2)</f>
+        <v>1.1597633136094678</v>
+      </c>
+      <c r="P20" s="3">
+        <f>POWER(WynikiScenariusza1!P2-ANOVA!P9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="Q20" s="3">
+        <f>POWER(WynikiScenariusza1!Q2-ANOVA!Q9,2)</f>
+        <v>0.3786982248520705</v>
+      </c>
+      <c r="R20" s="3">
+        <f>POWER(WynikiScenariusza1!R2-ANOVA!R9,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="S20" s="3">
+        <f>POWER(WynikiScenariusza1!S2-ANOVA!S9,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="T20" s="3">
+        <f>POWER(WynikiScenariusza1!T2-ANOVA!T9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="U20" s="3">
+        <f>POWER(WynikiScenariusza1!U2-ANOVA!U9,2)</f>
+        <v>0.71597633136094696</v>
+      </c>
+      <c r="V20" s="3">
+        <f>POWER(WynikiScenariusza1!V2-ANOVA!V9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="W20" s="3">
+        <f>POWER(WynikiScenariusza1!W2-ANOVA!W9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="X20" s="3">
+        <f>POWER(WynikiScenariusza1!X2-ANOVA!X9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <f>POWER(WynikiScenariusza1!B3-ANOVA!B9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="C21" s="3">
+        <f>POWER(WynikiScenariusza1!C3-ANOVA!C9,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="D21" s="3">
+        <f>POWER(WynikiScenariusza1!D3-ANOVA!D9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="E21" s="3">
+        <f>POWER(WynikiScenariusza1!E3-ANOVA!E9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="F21" s="3">
+        <f>POWER(WynikiScenariusza1!F3-ANOVA!F9,2)</f>
+        <v>0.3786982248520705</v>
+      </c>
+      <c r="G21" s="3">
+        <f>POWER(WynikiScenariusza1!G3-ANOVA!G9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="H21" s="3">
+        <f>POWER(WynikiScenariusza1!H3-ANOVA!H9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="I21" s="3">
+        <f>POWER(WynikiScenariusza1!I3-ANOVA!I9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="J21" s="3">
+        <f>POWER(WynikiScenariusza1!J3-ANOVA!J9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="K21" s="3">
+        <f>POWER(WynikiScenariusza1!K3-ANOVA!K9,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="L21" s="3">
+        <f>POWER(WynikiScenariusza1!L3-ANOVA!L9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="M21" s="3">
+        <f>POWER(WynikiScenariusza1!M3-ANOVA!M9,2)</f>
+        <v>1.1597633136094678</v>
+      </c>
+      <c r="N21" s="3">
+        <f>POWER(WynikiScenariusza1!N3-ANOVA!N9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="O21" s="3">
+        <f>POWER(WynikiScenariusza1!O3-ANOVA!O9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="P21" s="3">
+        <f>POWER(WynikiScenariusza1!P3-ANOVA!P9,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>POWER(WynikiScenariusza1!Q3-ANOVA!Q9,2)</f>
+        <v>0.3786982248520705</v>
+      </c>
+      <c r="R21" s="3">
+        <f>POWER(WynikiScenariusza1!R3-ANOVA!R9,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="S21" s="3">
+        <f>POWER(WynikiScenariusza1!S3-ANOVA!S9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="T21" s="3">
+        <f>POWER(WynikiScenariusza1!T3-ANOVA!T9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="U21" s="3">
+        <f>POWER(WynikiScenariusza1!U3-ANOVA!U9,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="V21" s="3">
+        <f>POWER(WynikiScenariusza1!V3-ANOVA!V9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="W21" s="3">
+        <f>POWER(WynikiScenariusza1!W3-ANOVA!W9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="X21" s="3">
+        <f>POWER(WynikiScenariusza1!X3-ANOVA!X9,2)</f>
+        <v>1.9171597633136093</v>
+      </c>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <f>POWER(WynikiScenariusza1!B4-ANOVA!B9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="C22" s="3">
+        <f>POWER(WynikiScenariusza1!C4-ANOVA!C9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="D22" s="3">
+        <f>POWER(WynikiScenariusza1!D4-ANOVA!D9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="E22" s="3">
+        <f>POWER(WynikiScenariusza1!E4-ANOVA!E9,2)</f>
+        <v>1.9171597633136093</v>
+      </c>
+      <c r="F22" s="3">
+        <f>POWER(WynikiScenariusza1!F4-ANOVA!F9,2)</f>
+        <v>0.14792899408284055</v>
+      </c>
+      <c r="G22" s="3">
+        <f>POWER(WynikiScenariusza1!G4-ANOVA!G9,2)</f>
+        <v>1.9171597633136093</v>
+      </c>
+      <c r="H22" s="3">
+        <f>POWER(WynikiScenariusza1!H4-ANOVA!H9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="I22" s="3">
+        <f>POWER(WynikiScenariusza1!I4-ANOVA!I9,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="J22" s="3">
+        <f>POWER(WynikiScenariusza1!J4-ANOVA!J9,2)</f>
+        <v>1.1597633136094678</v>
+      </c>
+      <c r="K22" s="3">
+        <f>POWER(WynikiScenariusza1!K4-ANOVA!K9,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="L22" s="3">
+        <f>POWER(WynikiScenariusza1!L4-ANOVA!L9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="M22" s="3">
+        <f>POWER(WynikiScenariusza1!M4-ANOVA!M9,2)</f>
+        <v>1.1597633136094678</v>
+      </c>
+      <c r="N22" s="3">
+        <f>POWER(WynikiScenariusza1!N4-ANOVA!N9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="O22" s="3">
+        <f>POWER(WynikiScenariusza1!O4-ANOVA!O9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="P22" s="3">
+        <f>POWER(WynikiScenariusza1!P4-ANOVA!P9,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>POWER(WynikiScenariusza1!Q4-ANOVA!Q9,2)</f>
+        <v>0.3786982248520705</v>
+      </c>
+      <c r="R22" s="3">
+        <f>POWER(WynikiScenariusza1!R4-ANOVA!R9,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="S22" s="3">
+        <f>POWER(WynikiScenariusza1!S4-ANOVA!S9,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="T22" s="3">
+        <f>POWER(WynikiScenariusza1!T4-ANOVA!T9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="U22" s="3">
+        <f>POWER(WynikiScenariusza1!U4-ANOVA!U9,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="V22" s="3">
+        <f>POWER(WynikiScenariusza1!V4-ANOVA!V9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="W22" s="3">
+        <f>POWER(WynikiScenariusza1!W4-ANOVA!W9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="X22" s="3">
+        <f>POWER(WynikiScenariusza1!X4-ANOVA!X9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <f>POWER(WynikiScenariusza1!B5-ANOVA!B9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="C23" s="3">
+        <f>POWER(WynikiScenariusza1!C5-ANOVA!C9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="D23" s="3">
+        <f>POWER(WynikiScenariusza1!D5-ANOVA!D9,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="E23" s="3">
+        <f>POWER(WynikiScenariusza1!E5-ANOVA!E9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="F23" s="3">
+        <f>POWER(WynikiScenariusza1!F5-ANOVA!F9,2)</f>
+        <v>0.14792899408284055</v>
+      </c>
+      <c r="G23" s="3">
+        <f>POWER(WynikiScenariusza1!G5-ANOVA!G9,2)</f>
+        <v>2.609467455621302</v>
+      </c>
+      <c r="H23" s="3">
+        <f>POWER(WynikiScenariusza1!H5-ANOVA!H9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="I23" s="3">
+        <f>POWER(WynikiScenariusza1!I5-ANOVA!I9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="J23" s="3">
+        <f>POWER(WynikiScenariusza1!J5-ANOVA!J9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="K23" s="3">
+        <f>POWER(WynikiScenariusza1!K5-ANOVA!K9,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="L23" s="3">
+        <f>POWER(WynikiScenariusza1!L5-ANOVA!L9,2)</f>
+        <v>2.3668639053254434</v>
+      </c>
+      <c r="M23" s="3">
+        <f>POWER(WynikiScenariusza1!M5-ANOVA!M9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="N23" s="3">
+        <f>POWER(WynikiScenariusza1!N5-ANOVA!N9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="O23" s="3">
+        <f>POWER(WynikiScenariusza1!O5-ANOVA!O9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="P23" s="3">
+        <f>POWER(WynikiScenariusza1!P5-ANOVA!P9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="Q23" s="3">
+        <f>POWER(WynikiScenariusza1!Q5-ANOVA!Q9,2)</f>
+        <v>0.14792899408284055</v>
+      </c>
+      <c r="R23" s="3">
+        <f>POWER(WynikiScenariusza1!R5-ANOVA!R9,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="S23" s="3">
+        <f>POWER(WynikiScenariusza1!S5-ANOVA!S9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="T23" s="3">
+        <f>POWER(WynikiScenariusza1!T5-ANOVA!T9,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="U23" s="3">
+        <f>POWER(WynikiScenariusza1!U5-ANOVA!U9,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="V23" s="3">
+        <f>POWER(WynikiScenariusza1!V5-ANOVA!V9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="W23" s="3">
+        <f>POWER(WynikiScenariusza1!W5-ANOVA!W9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="X23" s="3">
+        <f>POWER(WynikiScenariusza1!X5-ANOVA!X9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <f>POWER(WynikiScenariusza1!B6-ANOVA!B9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="C24" s="3">
+        <f>POWER(WynikiScenariusza1!C6-ANOVA!C9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="D24" s="3">
+        <f>POWER(WynikiScenariusza1!D6-ANOVA!D9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="E24" s="3">
+        <f>POWER(WynikiScenariusza1!E6-ANOVA!E9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="F24" s="3">
+        <f>POWER(WynikiScenariusza1!F6-ANOVA!F9,2)</f>
+        <v>0.14792899408284055</v>
+      </c>
+      <c r="G24" s="3">
+        <f>POWER(WynikiScenariusza1!G6-ANOVA!G9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="H24" s="3">
+        <f>POWER(WynikiScenariusza1!H6-ANOVA!H9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="I24" s="3">
+        <f>POWER(WynikiScenariusza1!I6-ANOVA!I9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="J24" s="3">
+        <f>POWER(WynikiScenariusza1!J6-ANOVA!J9,2)</f>
+        <v>0.85207100591715945</v>
+      </c>
+      <c r="K24" s="3">
+        <f>POWER(WynikiScenariusza1!K6-ANOVA!K9,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="L24" s="3">
+        <f>POWER(WynikiScenariusza1!L6-ANOVA!L9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="M24" s="3">
+        <f>POWER(WynikiScenariusza1!M6-ANOVA!M9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="N24" s="3">
+        <f>POWER(WynikiScenariusza1!N6-ANOVA!N9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="O24" s="3">
+        <f>POWER(WynikiScenariusza1!O6-ANOVA!O9,2)</f>
+        <v>0.85207100591715945</v>
+      </c>
+      <c r="P24" s="3">
+        <f>POWER(WynikiScenariusza1!P6-ANOVA!P9,2)</f>
+        <v>1.3313609467455629</v>
+      </c>
+      <c r="Q24" s="3">
+        <f>POWER(WynikiScenariusza1!Q6-ANOVA!Q9,2)</f>
+        <v>0.14792899408284055</v>
+      </c>
+      <c r="R24" s="3">
+        <f>POWER(WynikiScenariusza1!R6-ANOVA!R9,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="S24" s="3">
+        <f>POWER(WynikiScenariusza1!S6-ANOVA!S9,2)</f>
+        <v>1.5147928994082842</v>
+      </c>
+      <c r="T24" s="3">
+        <f>POWER(WynikiScenariusza1!T6-ANOVA!T9,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="U24" s="3">
+        <f>POWER(WynikiScenariusza1!U6-ANOVA!U9,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="V24" s="3">
+        <f>POWER(WynikiScenariusza1!V6-ANOVA!V9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="W24" s="3">
+        <f>POWER(WynikiScenariusza1!W6-ANOVA!W9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="X24" s="3">
+        <f>POWER(WynikiScenariusza1!X6-ANOVA!X9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <f>POWER(WynikiScenariusza1!B7-ANOVA!B9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="C25" s="3">
+        <f>POWER(WynikiScenariusza1!C7-ANOVA!C9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="D25" s="3">
+        <f>POWER(WynikiScenariusza1!D7-ANOVA!D9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="E25" s="3">
+        <f>POWER(WynikiScenariusza1!E7-ANOVA!E9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="F25" s="3">
+        <f>POWER(WynikiScenariusza1!F7-ANOVA!F9,2)</f>
+        <v>0.14792899408284055</v>
+      </c>
+      <c r="G25" s="3">
+        <f>POWER(WynikiScenariusza1!G7-ANOVA!G9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="H25" s="3">
+        <f>POWER(WynikiScenariusza1!H7-ANOVA!H9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="I25" s="3">
+        <f>POWER(WynikiScenariusza1!I7-ANOVA!I9,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="J25" s="3">
+        <f>POWER(WynikiScenariusza1!J7-ANOVA!J9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="K25" s="3">
+        <f>POWER(WynikiScenariusza1!K7-ANOVA!K9,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="L25" s="3">
+        <f>POWER(WynikiScenariusza1!L7-ANOVA!L9,2)</f>
+        <v>2.3668639053254434</v>
+      </c>
+      <c r="M25" s="3">
+        <f>POWER(WynikiScenariusza1!M7-ANOVA!M9,2)</f>
+        <v>1.1597633136094678</v>
+      </c>
+      <c r="N25" s="3">
+        <f>POWER(WynikiScenariusza1!N7-ANOVA!N9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="O25" s="3">
+        <f>POWER(WynikiScenariusza1!O7-ANOVA!O9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="P25" s="3">
+        <f>POWER(WynikiScenariusza1!P7-ANOVA!P9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>POWER(WynikiScenariusza1!Q7-ANOVA!Q9,2)</f>
+        <v>0.14792899408284055</v>
+      </c>
+      <c r="R25" s="3">
+        <f>POWER(WynikiScenariusza1!R7-ANOVA!R9,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="S25" s="3">
+        <f>POWER(WynikiScenariusza1!S7-ANOVA!S9,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="T25" s="3">
+        <f>POWER(WynikiScenariusza1!T7-ANOVA!T9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="U25" s="3">
+        <f>POWER(WynikiScenariusza1!U7-ANOVA!U9,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="V25" s="3">
+        <f>POWER(WynikiScenariusza1!V7-ANOVA!V9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="W25" s="3">
+        <f>POWER(WynikiScenariusza1!W7-ANOVA!W9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="X25" s="3">
+        <f>POWER(WynikiScenariusza1!X7-ANOVA!X9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <f>POWER(WynikiScenariusza1!B8-ANOVA!B9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="C26" s="3">
+        <f>POWER(WynikiScenariusza1!C8-ANOVA!C9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="D26" s="3">
+        <f>POWER(WynikiScenariusza1!D8-ANOVA!D9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="E26" s="3">
+        <f>POWER(WynikiScenariusza1!E8-ANOVA!E9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="F26" s="3">
+        <f>POWER(WynikiScenariusza1!F8-ANOVA!F9,2)</f>
+        <v>1.9171597633136106</v>
+      </c>
+      <c r="G26" s="3">
+        <f>POWER(WynikiScenariusza1!G8-ANOVA!G9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="H26" s="3">
+        <f>POWER(WynikiScenariusza1!H8-ANOVA!H9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="I26" s="3">
+        <f>POWER(WynikiScenariusza1!I8-ANOVA!I9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="J26" s="3">
+        <f>POWER(WynikiScenariusza1!J8-ANOVA!J9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="K26" s="3">
+        <f>POWER(WynikiScenariusza1!K8-ANOVA!K9,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="L26" s="3">
+        <f>POWER(WynikiScenariusza1!L8-ANOVA!L9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="M26" s="3">
+        <f>POWER(WynikiScenariusza1!M8-ANOVA!M9,2)</f>
+        <v>0.85207100591715945</v>
+      </c>
+      <c r="N26" s="3">
+        <f>POWER(WynikiScenariusza1!N8-ANOVA!N9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="O26" s="3">
+        <f>POWER(WynikiScenariusza1!O8-ANOVA!O9,2)</f>
+        <v>3.698224852071005</v>
+      </c>
+      <c r="P26" s="3">
+        <f>POWER(WynikiScenariusza1!P8-ANOVA!P9,2)</f>
+        <v>1.3313609467455629</v>
+      </c>
+      <c r="Q26" s="3">
+        <f>POWER(WynikiScenariusza1!Q8-ANOVA!Q9,2)</f>
+        <v>0.14792899408284055</v>
+      </c>
+      <c r="R26" s="3">
+        <f>POWER(WynikiScenariusza1!R8-ANOVA!R9,2)</f>
+        <v>1.1597633136094669</v>
+      </c>
+      <c r="S26" s="3">
+        <f>POWER(WynikiScenariusza1!S8-ANOVA!S9,2)</f>
+        <v>1.5147928994082842</v>
+      </c>
+      <c r="T26" s="3">
+        <f>POWER(WynikiScenariusza1!T8-ANOVA!T9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="U26" s="3">
+        <f>POWER(WynikiScenariusza1!U8-ANOVA!U9,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="V26" s="3">
+        <f>POWER(WynikiScenariusza1!V8-ANOVA!V9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="W26" s="3">
+        <f>POWER(WynikiScenariusza1!W8-ANOVA!W9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="X26" s="3">
+        <f>POWER(WynikiScenariusza1!X8-ANOVA!X9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <f>POWER(WynikiScenariusza1!B9-ANOVA!B9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="C27" s="3">
+        <f>POWER(WynikiScenariusza1!C9-ANOVA!C9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="D27" s="3">
+        <f>POWER(WynikiScenariusza1!D9-ANOVA!D9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <f>POWER(WynikiScenariusza1!E9-ANOVA!E9,2)</f>
+        <v>2.609467455621302</v>
+      </c>
+      <c r="F27" s="3">
+        <f>POWER(WynikiScenariusza1!F9-ANOVA!F9,2)</f>
+        <v>0.3786982248520705</v>
+      </c>
+      <c r="G27" s="3">
+        <f>POWER(WynikiScenariusza1!G9-ANOVA!G9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="H27" s="3">
+        <f>POWER(WynikiScenariusza1!H9-ANOVA!H9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="I27" s="3">
+        <f>POWER(WynikiScenariusza1!I9-ANOVA!I9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="J27" s="3">
+        <f>POWER(WynikiScenariusza1!J9-ANOVA!J9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="K27" s="3">
+        <f>POWER(WynikiScenariusza1!K9-ANOVA!K9,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="L27" s="3">
+        <f>POWER(WynikiScenariusza1!L9-ANOVA!L9,2)</f>
+        <v>2.1360946745562135</v>
+      </c>
+      <c r="M27" s="3">
+        <f>POWER(WynikiScenariusza1!M9-ANOVA!M9,2)</f>
+        <v>0.85207100591715945</v>
+      </c>
+      <c r="N27" s="3">
+        <f>POWER(WynikiScenariusza1!N9-ANOVA!N9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="O27" s="3">
+        <f>POWER(WynikiScenariusza1!O9-ANOVA!O9,2)</f>
+        <v>0.85207100591715945</v>
+      </c>
+      <c r="P27" s="3">
+        <f>POWER(WynikiScenariusza1!P9-ANOVA!P9,2)</f>
+        <v>1.3313609467455629</v>
+      </c>
+      <c r="Q27" s="3">
+        <f>POWER(WynikiScenariusza1!Q9-ANOVA!Q9,2)</f>
+        <v>0.14792899408284055</v>
+      </c>
+      <c r="R27" s="3">
+        <f>POWER(WynikiScenariusza1!R9-ANOVA!R9,2)</f>
+        <v>1.1597633136094669</v>
+      </c>
+      <c r="S27" s="3">
+        <f>POWER(WynikiScenariusza1!S9-ANOVA!S9,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="T27" s="3">
+        <f>POWER(WynikiScenariusza1!T9-ANOVA!T9,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="U27" s="3">
+        <f>POWER(WynikiScenariusza1!U9-ANOVA!U9,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="V27" s="3">
+        <f>POWER(WynikiScenariusza1!V9-ANOVA!V9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="W27" s="3">
+        <f>POWER(WynikiScenariusza1!W9-ANOVA!W9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="X27" s="3">
+        <f>POWER(WynikiScenariusza1!X9-ANOVA!X9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <f>POWER(WynikiScenariusza1!B10-ANOVA!B9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="C28" s="3">
+        <f>POWER(WynikiScenariusza1!C10-ANOVA!C9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <f>POWER(WynikiScenariusza1!D10-ANOVA!D9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="E28" s="3">
+        <f>POWER(WynikiScenariusza1!E10-ANOVA!E9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="F28" s="3">
+        <f>POWER(WynikiScenariusza1!F10-ANOVA!F9,2)</f>
+        <v>0.3786982248520705</v>
+      </c>
+      <c r="G28" s="3">
+        <f>POWER(WynikiScenariusza1!G10-ANOVA!G9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="H28" s="3">
+        <f>POWER(WynikiScenariusza1!H10-ANOVA!H9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="I28" s="3">
+        <f>POWER(WynikiScenariusza1!I10-ANOVA!I9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="J28" s="3">
+        <f>POWER(WynikiScenariusza1!J10-ANOVA!J9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="K28" s="3">
+        <f>POWER(WynikiScenariusza1!K10-ANOVA!K9,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="L28" s="3">
+        <f>POWER(WynikiScenariusza1!L10-ANOVA!L9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="M28" s="3">
+        <f>POWER(WynikiScenariusza1!M10-ANOVA!M9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="N28" s="3">
+        <f>POWER(WynikiScenariusza1!N10-ANOVA!N9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="O28" s="3">
+        <f>POWER(WynikiScenariusza1!O10-ANOVA!O9,2)</f>
+        <v>1.1597633136094678</v>
+      </c>
+      <c r="P28" s="3">
+        <f>POWER(WynikiScenariusza1!P10-ANOVA!P9,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="Q28" s="3">
+        <f>POWER(WynikiScenariusza1!Q10-ANOVA!Q9,2)</f>
+        <v>0.3786982248520705</v>
+      </c>
+      <c r="R28" s="3">
+        <f>POWER(WynikiScenariusza1!R10-ANOVA!R9,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="S28" s="3">
+        <f>POWER(WynikiScenariusza1!S10-ANOVA!S9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="T28" s="3">
+        <f>POWER(WynikiScenariusza1!T10-ANOVA!T9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="U28" s="3">
+        <f>POWER(WynikiScenariusza1!U10-ANOVA!U9,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="V28" s="3">
+        <f>POWER(WynikiScenariusza1!V10-ANOVA!V9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="W28" s="3">
+        <f>POWER(WynikiScenariusza1!W10-ANOVA!W9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="X28" s="3">
+        <f>POWER(WynikiScenariusza1!X10-ANOVA!X9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <f>POWER(WynikiScenariusza1!B11-ANOVA!B9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="C29" s="3">
+        <f>POWER(WynikiScenariusza1!C11-ANOVA!C9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <f>POWER(WynikiScenariusza1!D11-ANOVA!D9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="E29" s="3">
+        <f>POWER(WynikiScenariusza1!E11-ANOVA!E9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="F29" s="3">
+        <f>POWER(WynikiScenariusza1!F11-ANOVA!F9,2)</f>
+        <v>0.14792899408284055</v>
+      </c>
+      <c r="G29" s="3">
+        <f>POWER(WynikiScenariusza1!G11-ANOVA!G9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="H29" s="3">
+        <f>POWER(WynikiScenariusza1!H11-ANOVA!H9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="I29" s="3">
+        <f>POWER(WynikiScenariusza1!I11-ANOVA!I9,2)</f>
+        <v>1.3313609467455629</v>
+      </c>
+      <c r="J29" s="3">
+        <f>POWER(WynikiScenariusza1!J11-ANOVA!J9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="K29" s="3">
+        <f>POWER(WynikiScenariusza1!K11-ANOVA!K9,2)</f>
+        <v>1.7100591715976325</v>
+      </c>
+      <c r="L29" s="3">
+        <f>POWER(WynikiScenariusza1!L11-ANOVA!L9,2)</f>
+        <v>2.1360946745562135</v>
+      </c>
+      <c r="M29" s="3">
+        <f>POWER(WynikiScenariusza1!M11-ANOVA!M9,2)</f>
+        <v>0.85207100591715945</v>
+      </c>
+      <c r="N29" s="3">
+        <f>POWER(WynikiScenariusza1!N11-ANOVA!N9,2)</f>
+        <v>2.3668639053254434</v>
+      </c>
+      <c r="O29" s="3">
+        <f>POWER(WynikiScenariusza1!O11-ANOVA!O9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="P29" s="3">
+        <f>POWER(WynikiScenariusza1!P11-ANOVA!P9,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="Q29" s="3">
+        <f>POWER(WynikiScenariusza1!Q11-ANOVA!Q9,2)</f>
+        <v>0.3786982248520705</v>
+      </c>
+      <c r="R29" s="3">
+        <f>POWER(WynikiScenariusza1!R11-ANOVA!R9,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="S29" s="3">
+        <f>POWER(WynikiScenariusza1!S11-ANOVA!S9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="T29" s="3">
+        <f>POWER(WynikiScenariusza1!T11-ANOVA!T9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="U29" s="3">
+        <f>POWER(WynikiScenariusza1!U11-ANOVA!U9,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="V29" s="3">
+        <f>POWER(WynikiScenariusza1!V11-ANOVA!V9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="W29" s="3">
+        <f>POWER(WynikiScenariusza1!W11-ANOVA!W9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="X29" s="3">
+        <f>POWER(WynikiScenariusza1!X11-ANOVA!X9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <f>POWER(WynikiScenariusza1!B12-ANOVA!B9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="C30" s="3">
+        <f>POWER(WynikiScenariusza1!C12-ANOVA!C9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="D30" s="3">
+        <f>POWER(WynikiScenariusza1!D12-ANOVA!D9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="E30" s="3">
+        <f>POWER(WynikiScenariusza1!E12-ANOVA!E9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="F30" s="3">
+        <f>POWER(WynikiScenariusza1!F12-ANOVA!F9,2)</f>
+        <v>0.14792899408284055</v>
+      </c>
+      <c r="G30" s="3">
+        <f>POWER(WynikiScenariusza1!G12-ANOVA!G9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="H30" s="3">
+        <f>POWER(WynikiScenariusza1!H12-ANOVA!H9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="I30" s="3">
+        <f>POWER(WynikiScenariusza1!I12-ANOVA!I9,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="J30" s="3">
+        <f>POWER(WynikiScenariusza1!J12-ANOVA!J9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="K30" s="3">
+        <f>POWER(WynikiScenariusza1!K12-ANOVA!K9,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="L30" s="3">
+        <f>POWER(WynikiScenariusza1!L12-ANOVA!L9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="M30" s="3">
+        <f>POWER(WynikiScenariusza1!M12-ANOVA!M9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="N30" s="3">
+        <f>POWER(WynikiScenariusza1!N12-ANOVA!N9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="O30" s="3">
+        <f>POWER(WynikiScenariusza1!O12-ANOVA!O9,2)</f>
+        <v>1.1597633136094678</v>
+      </c>
+      <c r="P30" s="3">
+        <f>POWER(WynikiScenariusza1!P12-ANOVA!P9,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="Q30" s="3">
+        <f>POWER(WynikiScenariusza1!Q12-ANOVA!Q9,2)</f>
+        <v>0.3786982248520705</v>
+      </c>
+      <c r="R30" s="3">
+        <f>POWER(WynikiScenariusza1!R12-ANOVA!R9,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="S30" s="3">
+        <f>POWER(WynikiScenariusza1!S12-ANOVA!S9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="T30" s="3">
+        <f>POWER(WynikiScenariusza1!T12-ANOVA!T9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="U30" s="3">
+        <f>POWER(WynikiScenariusza1!U12-ANOVA!U9,2)</f>
+        <v>0.71597633136094696</v>
+      </c>
+      <c r="V30" s="3">
+        <f>POWER(WynikiScenariusza1!V12-ANOVA!V9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="W30" s="3">
+        <f>POWER(WynikiScenariusza1!W12-ANOVA!W9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="X30" s="3">
+        <f>POWER(WynikiScenariusza1!X12-ANOVA!X9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <f>POWER(WynikiScenariusza1!B13-ANOVA!B9,2)</f>
+        <v>2.1360946745562135</v>
+      </c>
+      <c r="C31" s="3">
+        <f>POWER(WynikiScenariusza1!C13-ANOVA!C9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="D31" s="3">
+        <f>POWER(WynikiScenariusza1!D13-ANOVA!D9,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="E31" s="3">
+        <f>POWER(WynikiScenariusza1!E13-ANOVA!E9,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="F31" s="3">
+        <f>POWER(WynikiScenariusza1!F13-ANOVA!F9,2)</f>
+        <v>0.3786982248520705</v>
+      </c>
+      <c r="G31" s="3">
+        <f>POWER(WynikiScenariusza1!G13-ANOVA!G9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="H31" s="3">
+        <f>POWER(WynikiScenariusza1!H13-ANOVA!H9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="I31" s="3">
+        <f>POWER(WynikiScenariusza1!I13-ANOVA!I9,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="J31" s="3">
+        <f>POWER(WynikiScenariusza1!J13-ANOVA!J9,2)</f>
+        <v>0.85207100591715945</v>
+      </c>
+      <c r="K31" s="3">
+        <f>POWER(WynikiScenariusza1!K13-ANOVA!K9,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="L31" s="3">
+        <f>POWER(WynikiScenariusza1!L13-ANOVA!L9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="M31" s="3">
+        <f>POWER(WynikiScenariusza1!M13-ANOVA!M9,2)</f>
+        <v>5.9171597633136353E-3</v>
+      </c>
+      <c r="N31" s="3">
+        <f>POWER(WynikiScenariusza1!N13-ANOVA!N9,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="O31" s="3">
+        <f>POWER(WynikiScenariusza1!O13-ANOVA!O9,2)</f>
+        <v>0.85207100591715945</v>
+      </c>
+      <c r="P31" s="3">
+        <f>POWER(WynikiScenariusza1!P13-ANOVA!P9,2)</f>
+        <v>1.3313609467455629</v>
+      </c>
+      <c r="Q31" s="3">
+        <f>POWER(WynikiScenariusza1!Q13-ANOVA!Q9,2)</f>
+        <v>1.9171597633136106</v>
+      </c>
+      <c r="R31" s="3">
+        <f>POWER(WynikiScenariusza1!R13-ANOVA!R9,2)</f>
+        <v>1.1597633136094669</v>
+      </c>
+      <c r="S31" s="3">
+        <f>POWER(WynikiScenariusza1!S13-ANOVA!S9,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="T31" s="3">
+        <f>POWER(WynikiScenariusza1!T13-ANOVA!T9,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="U31" s="3">
+        <f>POWER(WynikiScenariusza1!U13-ANOVA!U9,2)</f>
+        <v>1.3313609467455618</v>
+      </c>
+      <c r="V31" s="3">
+        <f>POWER(WynikiScenariusza1!V13-ANOVA!V9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="W31" s="3">
+        <f>POWER(WynikiScenariusza1!W13-ANOVA!W9,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="X31" s="3">
+        <f>POWER(WynikiScenariusza1!X13-ANOVA!X9,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <f>POWER(WynikiScenariusza2!B1-ANOVA!B10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="C34" s="3">
+        <f>POWER(WynikiScenariusza2!C1-ANOVA!C10,2)</f>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="D34" s="3">
+        <f>POWER(WynikiScenariusza2!D1-ANOVA!D10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="E34" s="3">
+        <f>POWER(WynikiScenariusza2!E1-ANOVA!E10,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="F34" s="3">
+        <f>POWER(WynikiScenariusza2!F1-ANOVA!F10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <f>POWER(WynikiScenariusza2!G1-ANOVA!G10,2)</f>
+        <v>1.5147928994082842</v>
+      </c>
+      <c r="H34" s="3">
+        <f>POWER(WynikiScenariusza2!H1-ANOVA!H10,2)</f>
+        <v>0.28994082840236696</v>
+      </c>
+      <c r="I34" s="3">
+        <f>POWER(WynikiScenariusza2!I1-ANOVA!I10,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="J34" s="3">
+        <f>POWER(WynikiScenariusza2!J1-ANOVA!J10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <f>POWER(WynikiScenariusza2!K1-ANOVA!K10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="L34" s="3">
+        <f>POWER(WynikiScenariusza2!L1-ANOVA!L10,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="M34" s="3">
+        <f>POWER(WynikiScenariusza2!M1-ANOVA!M10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="N34" s="3">
+        <f>POWER(WynikiScenariusza2!N1-ANOVA!N10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="O34" s="3">
+        <f>POWER(WynikiScenariusza2!O1-ANOVA!O10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="P34" s="3">
+        <f>POWER(WynikiScenariusza2!P1-ANOVA!P10,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="Q34" s="3">
+        <f>POWER(WynikiScenariusza2!Q1-ANOVA!Q10,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="R34" s="3">
+        <f>POWER(WynikiScenariusza2!R1-ANOVA!R10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="S34" s="3">
+        <f>POWER(WynikiScenariusza2!S1-ANOVA!S10,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="T34" s="3">
+        <f>POWER(WynikiScenariusza2!T1-ANOVA!T10,2)</f>
+        <v>0.21301775147928986</v>
+      </c>
+      <c r="U34" s="3">
+        <f>POWER(WynikiScenariusza2!U1-ANOVA!U10,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="V34" s="3">
+        <f>POWER(WynikiScenariusza2!V1-ANOVA!V10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="W34" s="3">
+        <f>POWER(WynikiScenariusza2!W1-ANOVA!W10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="X34" s="3">
+        <f>POWER(WynikiScenariusza2!X1-ANOVA!X10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <f>POWER(WynikiScenariusza2!B2-ANOVA!B10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="C35" s="3">
+        <f>POWER(WynikiScenariusza2!C2-ANOVA!C10,2)</f>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="D35" s="3">
+        <f>POWER(WynikiScenariusza2!D2-ANOVA!D10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="E35" s="3">
+        <f>POWER(WynikiScenariusza2!E2-ANOVA!E10,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="F35" s="3">
+        <f>POWER(WynikiScenariusza2!F2-ANOVA!F10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <f>POWER(WynikiScenariusza2!G2-ANOVA!G10,2)</f>
+        <v>1.5147928994082842</v>
+      </c>
+      <c r="H35" s="3">
+        <f>POWER(WynikiScenariusza2!H2-ANOVA!H10,2)</f>
+        <v>0.28994082840236696</v>
+      </c>
+      <c r="I35" s="3">
+        <f>POWER(WynikiScenariusza2!I2-ANOVA!I10,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="J35" s="3">
+        <f>POWER(WynikiScenariusza2!J2-ANOVA!J10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K35" s="3">
+        <f>POWER(WynikiScenariusza2!K2-ANOVA!K10,2)</f>
+        <v>2.1360946745562135</v>
+      </c>
+      <c r="L35" s="3">
+        <f>POWER(WynikiScenariusza2!L2-ANOVA!L10,2)</f>
+        <v>1.3313609467455618</v>
+      </c>
+      <c r="M35" s="3">
+        <f>POWER(WynikiScenariusza2!M2-ANOVA!M10,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="N35" s="3">
+        <f>POWER(WynikiScenariusza2!N2-ANOVA!N10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="O35" s="3">
+        <f>POWER(WynikiScenariusza2!O2-ANOVA!O10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="P35" s="3">
+        <f>POWER(WynikiScenariusza2!P2-ANOVA!P10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="Q35" s="3">
+        <f>POWER(WynikiScenariusza2!Q2-ANOVA!Q10,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="R35" s="3">
+        <f>POWER(WynikiScenariusza2!R2-ANOVA!R10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="S35" s="3">
+        <f>POWER(WynikiScenariusza2!S2-ANOVA!S10,2)</f>
+        <v>0.71597633136094696</v>
+      </c>
+      <c r="T35" s="3">
+        <f>POWER(WynikiScenariusza2!T2-ANOVA!T10,2)</f>
+        <v>0.21301775147928986</v>
+      </c>
+      <c r="U35" s="3">
+        <f>POWER(WynikiScenariusza2!U2-ANOVA!U10,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="V35" s="3">
+        <f>POWER(WynikiScenariusza2!V2-ANOVA!V10,2)</f>
+        <v>1.7100591715976325</v>
+      </c>
+      <c r="W35" s="3">
+        <f>POWER(WynikiScenariusza2!W2-ANOVA!W10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="X35" s="3">
+        <f>POWER(WynikiScenariusza2!X2-ANOVA!X10,2)</f>
+        <v>2.3668639053254434</v>
+      </c>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <f>POWER(WynikiScenariusza2!B3-ANOVA!B10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="C36" s="3">
+        <f>POWER(WynikiScenariusza2!C3-ANOVA!C10,2)</f>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="D36" s="3">
+        <f>POWER(WynikiScenariusza2!D3-ANOVA!D10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="E36" s="3">
+        <f>POWER(WynikiScenariusza2!E3-ANOVA!E10,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="F36" s="3">
+        <f>POWER(WynikiScenariusza2!F3-ANOVA!F10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <f>POWER(WynikiScenariusza2!G3-ANOVA!G10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="H36" s="3">
+        <f>POWER(WynikiScenariusza2!H3-ANOVA!H10,2)</f>
+        <v>0.21301775147928986</v>
+      </c>
+      <c r="I36" s="3">
+        <f>POWER(WynikiScenariusza2!I3-ANOVA!I10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="J36" s="3">
+        <f>POWER(WynikiScenariusza2!J3-ANOVA!J10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
+        <f>POWER(WynikiScenariusza2!K3-ANOVA!K10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="L36" s="3">
+        <f>POWER(WynikiScenariusza2!L3-ANOVA!L10,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="M36" s="3">
+        <f>POWER(WynikiScenariusza2!M3-ANOVA!M10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="N36" s="3">
+        <f>POWER(WynikiScenariusza2!N3-ANOVA!N10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="O36" s="3">
+        <f>POWER(WynikiScenariusza2!O3-ANOVA!O10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="P36" s="3">
+        <f>POWER(WynikiScenariusza2!P3-ANOVA!P10,2)</f>
+        <v>1.1597633136094669</v>
+      </c>
+      <c r="Q36" s="3">
+        <f>POWER(WynikiScenariusza2!Q3-ANOVA!Q10,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="R36" s="3">
+        <f>POWER(WynikiScenariusza2!R3-ANOVA!R10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="S36" s="3">
+        <f>POWER(WynikiScenariusza2!S3-ANOVA!S10,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="T36" s="3">
+        <f>POWER(WynikiScenariusza2!T3-ANOVA!T10,2)</f>
+        <v>0.28994082840236696</v>
+      </c>
+      <c r="U36" s="3">
+        <f>POWER(WynikiScenariusza2!U3-ANOVA!U10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="V36" s="3">
+        <f>POWER(WynikiScenariusza2!V3-ANOVA!V10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="W36" s="3">
+        <f>POWER(WynikiScenariusza2!W3-ANOVA!W10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="X36" s="3">
+        <f>POWER(WynikiScenariusza2!X3-ANOVA!X10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <f>POWER(WynikiScenariusza2!B4-ANOVA!B10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="C37" s="3">
+        <f>POWER(WynikiScenariusza2!C4-ANOVA!C10,2)</f>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="D37" s="3">
+        <f>POWER(WynikiScenariusza2!D4-ANOVA!D10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="E37" s="3">
+        <f>POWER(WynikiScenariusza2!E4-ANOVA!E10,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="F37" s="3">
+        <f>POWER(WynikiScenariusza2!F4-ANOVA!F10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <f>POWER(WynikiScenariusza2!G4-ANOVA!G10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="H37" s="3">
+        <f>POWER(WynikiScenariusza2!H4-ANOVA!H10,2)</f>
+        <v>0.21301775147928986</v>
+      </c>
+      <c r="I37" s="3">
+        <f>POWER(WynikiScenariusza2!I4-ANOVA!I10,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="J37" s="3">
+        <f>POWER(WynikiScenariusza2!J4-ANOVA!J10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K37" s="3">
+        <f>POWER(WynikiScenariusza2!K4-ANOVA!K10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="L37" s="3">
+        <f>POWER(WynikiScenariusza2!L4-ANOVA!L10,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="M37" s="3">
+        <f>POWER(WynikiScenariusza2!M4-ANOVA!M10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="N37" s="3">
+        <f>POWER(WynikiScenariusza2!N4-ANOVA!N10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="O37" s="3">
+        <f>POWER(WynikiScenariusza2!O4-ANOVA!O10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="P37" s="3">
+        <f>POWER(WynikiScenariusza2!P4-ANOVA!P10,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="Q37" s="3">
+        <f>POWER(WynikiScenariusza2!Q4-ANOVA!Q10,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="R37" s="3">
+        <f>POWER(WynikiScenariusza2!R4-ANOVA!R10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="S37" s="3">
+        <f>POWER(WynikiScenariusza2!S4-ANOVA!S10,2)</f>
+        <v>0.71597633136094696</v>
+      </c>
+      <c r="T37" s="3">
+        <f>POWER(WynikiScenariusza2!T4-ANOVA!T10,2)</f>
+        <v>0.21301775147928986</v>
+      </c>
+      <c r="U37" s="3">
+        <f>POWER(WynikiScenariusza2!U4-ANOVA!U10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="V37" s="3">
+        <f>POWER(WynikiScenariusza2!V4-ANOVA!V10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="W37" s="3">
+        <f>POWER(WynikiScenariusza2!W4-ANOVA!W10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="X37" s="3">
+        <f>POWER(WynikiScenariusza2!X4-ANOVA!X10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <f>POWER(WynikiScenariusza2!B5-ANOVA!B10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="C38" s="3">
+        <f>POWER(WynikiScenariusza2!C5-ANOVA!C10,2)</f>
+        <v>0.8520710059171599</v>
+      </c>
+      <c r="D38" s="3">
+        <f>POWER(WynikiScenariusza2!D5-ANOVA!D10,2)</f>
+        <v>2.8639053254437878</v>
+      </c>
+      <c r="E38" s="3">
+        <f>POWER(WynikiScenariusza2!E5-ANOVA!E10,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="F38" s="3">
+        <f>POWER(WynikiScenariusza2!F5-ANOVA!F10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <f>POWER(WynikiScenariusza2!G5-ANOVA!G10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="H38" s="3">
+        <f>POWER(WynikiScenariusza2!H5-ANOVA!H10,2)</f>
+        <v>0.28994082840236696</v>
+      </c>
+      <c r="I38" s="3">
+        <f>POWER(WynikiScenariusza2!I5-ANOVA!I10,2)</f>
+        <v>1.1597633136094669</v>
+      </c>
+      <c r="J38" s="3">
+        <f>POWER(WynikiScenariusza2!J5-ANOVA!J10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K38" s="3">
+        <f>POWER(WynikiScenariusza2!K5-ANOVA!K10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="L38" s="3">
+        <f>POWER(WynikiScenariusza2!L5-ANOVA!L10,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="M38" s="3">
+        <f>POWER(WynikiScenariusza2!M5-ANOVA!M10,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="N38" s="3">
+        <f>POWER(WynikiScenariusza2!N5-ANOVA!N10,2)</f>
+        <v>2.1360946745562135</v>
+      </c>
+      <c r="O38" s="3">
+        <f>POWER(WynikiScenariusza2!O5-ANOVA!O10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="P38" s="3">
+        <f>POWER(WynikiScenariusza2!P5-ANOVA!P10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="Q38" s="3">
+        <f>POWER(WynikiScenariusza2!Q5-ANOVA!Q10,2)</f>
+        <v>1.3313609467455629</v>
+      </c>
+      <c r="R38" s="3">
+        <f>POWER(WynikiScenariusza2!R5-ANOVA!R10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="S38" s="3">
+        <f>POWER(WynikiScenariusza2!S5-ANOVA!S10,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="T38" s="3">
+        <f>POWER(WynikiScenariusza2!T5-ANOVA!T10,2)</f>
+        <v>0.28994082840236696</v>
+      </c>
+      <c r="U38" s="3">
+        <f>POWER(WynikiScenariusza2!U5-ANOVA!U10,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="V38" s="3">
+        <f>POWER(WynikiScenariusza2!V5-ANOVA!V10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="W38" s="3">
+        <f>POWER(WynikiScenariusza2!W5-ANOVA!W10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="X38" s="3">
+        <f>POWER(WynikiScenariusza2!X5-ANOVA!X10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <f>POWER(WynikiScenariusza2!B6-ANOVA!B10,2)</f>
+        <v>1.5147928994082842</v>
+      </c>
+      <c r="C39" s="3">
+        <f>POWER(WynikiScenariusza2!C6-ANOVA!C10,2)</f>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="D39" s="3">
+        <f>POWER(WynikiScenariusza2!D6-ANOVA!D10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="E39" s="3">
+        <f>POWER(WynikiScenariusza2!E6-ANOVA!E10,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="F39" s="3">
+        <f>POWER(WynikiScenariusza2!F6-ANOVA!F10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <f>POWER(WynikiScenariusza2!G6-ANOVA!G10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="H39" s="3">
+        <f>POWER(WynikiScenariusza2!H6-ANOVA!H10,2)</f>
+        <v>0.21301775147928986</v>
+      </c>
+      <c r="I39" s="3">
+        <f>POWER(WynikiScenariusza2!I6-ANOVA!I10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="J39" s="3">
+        <f>POWER(WynikiScenariusza2!J6-ANOVA!J10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
+        <f>POWER(WynikiScenariusza2!K6-ANOVA!K10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="L39" s="3">
+        <f>POWER(WynikiScenariusza2!L6-ANOVA!L10,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="M39" s="3">
+        <f>POWER(WynikiScenariusza2!M6-ANOVA!M10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="N39" s="3">
+        <f>POWER(WynikiScenariusza2!N6-ANOVA!N10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="O39" s="3">
+        <f>POWER(WynikiScenariusza2!O6-ANOVA!O10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="P39" s="3">
+        <f>POWER(WynikiScenariusza2!P6-ANOVA!P10,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="Q39" s="3">
+        <f>POWER(WynikiScenariusza2!Q6-ANOVA!Q10,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="R39" s="3">
+        <f>POWER(WynikiScenariusza2!R6-ANOVA!R10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="S39" s="3">
+        <f>POWER(WynikiScenariusza2!S6-ANOVA!S10,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="T39" s="3">
+        <f>POWER(WynikiScenariusza2!T6-ANOVA!T10,2)</f>
+        <v>0.28994082840236696</v>
+      </c>
+      <c r="U39" s="3">
+        <f>POWER(WynikiScenariusza2!U6-ANOVA!U10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="V39" s="3">
+        <f>POWER(WynikiScenariusza2!V6-ANOVA!V10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="W39" s="3">
+        <f>POWER(WynikiScenariusza2!W6-ANOVA!W10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="X39" s="3">
+        <f>POWER(WynikiScenariusza2!X6-ANOVA!X10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
+        <f>POWER(WynikiScenariusza2!B7-ANOVA!B10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="C40" s="3">
+        <f>POWER(WynikiScenariusza2!C7-ANOVA!C10,2)</f>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="D40" s="3">
+        <f>POWER(WynikiScenariusza2!D7-ANOVA!D10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="E40" s="3">
+        <f>POWER(WynikiScenariusza2!E7-ANOVA!E10,2)</f>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="F40" s="3">
+        <f>POWER(WynikiScenariusza2!F7-ANOVA!F10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <f>POWER(WynikiScenariusza2!G7-ANOVA!G10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="H40" s="3">
+        <f>POWER(WynikiScenariusza2!H7-ANOVA!H10,2)</f>
+        <v>0.28994082840236696</v>
+      </c>
+      <c r="I40" s="3">
+        <f>POWER(WynikiScenariusza2!I7-ANOVA!I10,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="J40" s="3">
+        <f>POWER(WynikiScenariusza2!J7-ANOVA!J10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <f>POWER(WynikiScenariusza2!K7-ANOVA!K10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="L40" s="3">
+        <f>POWER(WynikiScenariusza2!L7-ANOVA!L10,2)</f>
+        <v>1.3313609467455618</v>
+      </c>
+      <c r="M40" s="3">
+        <f>POWER(WynikiScenariusza2!M7-ANOVA!M10,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="N40" s="3">
+        <f>POWER(WynikiScenariusza2!N7-ANOVA!N10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="O40" s="3">
+        <f>POWER(WynikiScenariusza2!O7-ANOVA!O10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="P40" s="3">
+        <f>POWER(WynikiScenariusza2!P7-ANOVA!P10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="Q40" s="3">
+        <f>POWER(WynikiScenariusza2!Q7-ANOVA!Q10,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="R40" s="3">
+        <f>POWER(WynikiScenariusza2!R7-ANOVA!R10,2)</f>
+        <v>1.5147928994082842</v>
+      </c>
+      <c r="S40" s="3">
+        <f>POWER(WynikiScenariusza2!S7-ANOVA!S10,2)</f>
+        <v>0.71597633136094696</v>
+      </c>
+      <c r="T40" s="3">
+        <f>POWER(WynikiScenariusza2!T7-ANOVA!T10,2)</f>
+        <v>0.21301775147928986</v>
+      </c>
+      <c r="U40" s="3">
+        <f>POWER(WynikiScenariusza2!U7-ANOVA!U10,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="V40" s="3">
+        <f>POWER(WynikiScenariusza2!V7-ANOVA!V10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="W40" s="3">
+        <f>POWER(WynikiScenariusza2!W7-ANOVA!W10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="X40" s="3">
+        <f>POWER(WynikiScenariusza2!X7-ANOVA!X10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <f>POWER(WynikiScenariusza2!B8-ANOVA!B10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="C41" s="3">
+        <f>POWER(WynikiScenariusza2!C8-ANOVA!C10,2)</f>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="D41" s="3">
+        <f>POWER(WynikiScenariusza2!D8-ANOVA!D10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="E41" s="3">
+        <f>POWER(WynikiScenariusza2!E8-ANOVA!E10,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="F41" s="3">
+        <f>POWER(WynikiScenariusza2!F8-ANOVA!F10,2)</f>
+        <v>4</v>
+      </c>
+      <c r="G41" s="3">
+        <f>POWER(WynikiScenariusza2!G8-ANOVA!G10,2)</f>
+        <v>7.6686390532544371</v>
+      </c>
+      <c r="H41" s="3">
+        <f>POWER(WynikiScenariusza2!H8-ANOVA!H10,2)</f>
+        <v>0.21301775147928986</v>
+      </c>
+      <c r="I41" s="3">
+        <f>POWER(WynikiScenariusza2!I8-ANOVA!I10,2)</f>
+        <v>4.3136094674556205</v>
+      </c>
+      <c r="J41" s="3">
+        <f>POWER(WynikiScenariusza2!J8-ANOVA!J10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K41" s="3">
+        <f>POWER(WynikiScenariusza2!K8-ANOVA!K10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="L41" s="3">
+        <f>POWER(WynikiScenariusza2!L8-ANOVA!L10,2)</f>
+        <v>0.71597633136094696</v>
+      </c>
+      <c r="M41" s="3">
+        <f>POWER(WynikiScenariusza2!M8-ANOVA!M10,2)</f>
+        <v>1.1597633136094669</v>
+      </c>
+      <c r="N41" s="3">
+        <f>POWER(WynikiScenariusza2!N8-ANOVA!N10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="O41" s="3">
+        <f>POWER(WynikiScenariusza2!O8-ANOVA!O10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="P41" s="3">
+        <f>POWER(WynikiScenariusza2!P8-ANOVA!P10,2)</f>
+        <v>1.1597633136094669</v>
+      </c>
+      <c r="Q41" s="3">
+        <f>POWER(WynikiScenariusza2!Q8-ANOVA!Q10,2)</f>
+        <v>4.6390532544378713</v>
+      </c>
+      <c r="R41" s="3">
+        <f>POWER(WynikiScenariusza2!R8-ANOVA!R10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="S41" s="3">
+        <f>POWER(WynikiScenariusza2!S8-ANOVA!S10,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="T41" s="3">
+        <f>POWER(WynikiScenariusza2!T8-ANOVA!T10,2)</f>
+        <v>0.21301775147928986</v>
+      </c>
+      <c r="U41" s="3">
+        <f>POWER(WynikiScenariusza2!U8-ANOVA!U10,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="V41" s="3">
+        <f>POWER(WynikiScenariusza2!V8-ANOVA!V10,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="W41" s="3">
+        <f>POWER(WynikiScenariusza2!W8-ANOVA!W10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="X41" s="3">
+        <f>POWER(WynikiScenariusza2!X8-ANOVA!X10,2)</f>
+        <v>2.1360946745562135</v>
+      </c>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <f>POWER(WynikiScenariusza2!B9-ANOVA!B10,2)</f>
+        <v>1.5147928994082842</v>
+      </c>
+      <c r="C42" s="3">
+        <f>POWER(WynikiScenariusza2!C9-ANOVA!C10,2)</f>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="D42" s="3">
+        <f>POWER(WynikiScenariusza2!D9-ANOVA!D10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="E42" s="3">
+        <f>POWER(WynikiScenariusza2!E9-ANOVA!E10,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="F42" s="3">
+        <f>POWER(WynikiScenariusza2!F9-ANOVA!F10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <f>POWER(WynikiScenariusza2!G9-ANOVA!G10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="H42" s="3">
+        <f>POWER(WynikiScenariusza2!H9-ANOVA!H10,2)</f>
+        <v>0.21301775147928986</v>
+      </c>
+      <c r="I42" s="3">
+        <f>POWER(WynikiScenariusza2!I9-ANOVA!I10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="J42" s="3">
+        <f>POWER(WynikiScenariusza2!J9-ANOVA!J10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K42" s="3">
+        <f>POWER(WynikiScenariusza2!K9-ANOVA!K10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="L42" s="3">
+        <f>POWER(WynikiScenariusza2!L9-ANOVA!L10,2)</f>
+        <v>0.71597633136094696</v>
+      </c>
+      <c r="M42" s="3">
+        <f>POWER(WynikiScenariusza2!M9-ANOVA!M10,2)</f>
+        <v>1.1597633136094669</v>
+      </c>
+      <c r="N42" s="3">
+        <f>POWER(WynikiScenariusza2!N9-ANOVA!N10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="O42" s="3">
+        <f>POWER(WynikiScenariusza2!O9-ANOVA!O10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="P42" s="3">
+        <f>POWER(WynikiScenariusza2!P9-ANOVA!P10,2)</f>
+        <v>1.1597633136094669</v>
+      </c>
+      <c r="Q42" s="3">
+        <f>POWER(WynikiScenariusza2!Q9-ANOVA!Q10,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="R42" s="3">
+        <f>POWER(WynikiScenariusza2!R9-ANOVA!R10,2)</f>
+        <v>1.5147928994082842</v>
+      </c>
+      <c r="S42" s="3">
+        <f>POWER(WynikiScenariusza2!S9-ANOVA!S10,2)</f>
+        <v>1.3313609467455618</v>
+      </c>
+      <c r="T42" s="3">
+        <f>POWER(WynikiScenariusza2!T9-ANOVA!T10,2)</f>
+        <v>0.28994082840236696</v>
+      </c>
+      <c r="U42" s="3">
+        <f>POWER(WynikiScenariusza2!U9-ANOVA!U10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="V42" s="3">
+        <f>POWER(WynikiScenariusza2!V9-ANOVA!V10,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="W42" s="3">
+        <f>POWER(WynikiScenariusza2!W9-ANOVA!W10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="X42" s="3">
+        <f>POWER(WynikiScenariusza2!X9-ANOVA!X10,2)</f>
+        <v>2.1360946745562135</v>
+      </c>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <f>POWER(WynikiScenariusza2!B10-ANOVA!B10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="C43" s="3">
+        <f>POWER(WynikiScenariusza2!C10-ANOVA!C10,2)</f>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="D43" s="3">
+        <f>POWER(WynikiScenariusza2!D10-ANOVA!D10,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="E43" s="3">
+        <f>POWER(WynikiScenariusza2!E10-ANOVA!E10,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="F43" s="3">
+        <f>POWER(WynikiScenariusza2!F10-ANOVA!F10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <f>POWER(WynikiScenariusza2!G10-ANOVA!G10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="H43" s="3">
+        <f>POWER(WynikiScenariusza2!H10-ANOVA!H10,2)</f>
+        <v>0.28994082840236696</v>
+      </c>
+      <c r="I43" s="3">
+        <f>POWER(WynikiScenariusza2!I10-ANOVA!I10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="J43" s="3">
+        <f>POWER(WynikiScenariusza2!J10-ANOVA!J10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K43" s="3">
+        <f>POWER(WynikiScenariusza2!K10-ANOVA!K10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="L43" s="3">
+        <f>POWER(WynikiScenariusza2!L10-ANOVA!L10,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="M43" s="3">
+        <f>POWER(WynikiScenariusza2!M10-ANOVA!M10,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="N43" s="3">
+        <f>POWER(WynikiScenariusza2!N10-ANOVA!N10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="O43" s="3">
+        <f>POWER(WynikiScenariusza2!O10-ANOVA!O10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="P43" s="3">
+        <f>POWER(WynikiScenariusza2!P10-ANOVA!P10,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="Q43" s="3">
+        <f>POWER(WynikiScenariusza2!Q10-ANOVA!Q10,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="R43" s="3">
+        <f>POWER(WynikiScenariusza2!R10-ANOVA!R10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="S43" s="3">
+        <f>POWER(WynikiScenariusza2!S10-ANOVA!S10,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="T43" s="3">
+        <f>POWER(WynikiScenariusza2!T10-ANOVA!T10,2)</f>
+        <v>0.21301775147928986</v>
+      </c>
+      <c r="U43" s="3">
+        <f>POWER(WynikiScenariusza2!U10-ANOVA!U10,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="V43" s="3">
+        <f>POWER(WynikiScenariusza2!V10-ANOVA!V10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="W43" s="3">
+        <f>POWER(WynikiScenariusza2!W10-ANOVA!W10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="X43" s="3">
+        <f>POWER(WynikiScenariusza2!X10-ANOVA!X10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B44" s="3">
+        <f>POWER(WynikiScenariusza2!B11-ANOVA!B10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="C44" s="3">
+        <f>POWER(WynikiScenariusza2!C11-ANOVA!C10,2)</f>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="D44" s="3">
+        <f>POWER(WynikiScenariusza2!D11-ANOVA!D10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="E44" s="3">
+        <f>POWER(WynikiScenariusza2!E11-ANOVA!E10,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="F44" s="3">
+        <f>POWER(WynikiScenariusza2!F11-ANOVA!F10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <f>POWER(WynikiScenariusza2!G11-ANOVA!G10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="H44" s="3">
+        <f>POWER(WynikiScenariusza2!H11-ANOVA!H10,2)</f>
+        <v>0.28994082840236696</v>
+      </c>
+      <c r="I44" s="3">
+        <f>POWER(WynikiScenariusza2!I11-ANOVA!I10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="J44" s="3">
+        <f>POWER(WynikiScenariusza2!J11-ANOVA!J10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <f>POWER(WynikiScenariusza2!K11-ANOVA!K10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="L44" s="3">
+        <f>POWER(WynikiScenariusza2!L11-ANOVA!L10,2)</f>
+        <v>0.71597633136094696</v>
+      </c>
+      <c r="M44" s="3">
+        <f>POWER(WynikiScenariusza2!M11-ANOVA!M10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="N44" s="3">
+        <f>POWER(WynikiScenariusza2!N11-ANOVA!N10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="O44" s="3">
+        <f>POWER(WynikiScenariusza2!O11-ANOVA!O10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="P44" s="3">
+        <f>POWER(WynikiScenariusza2!P11-ANOVA!P10,2)</f>
+        <v>0.85207100591716023</v>
+      </c>
+      <c r="Q44" s="3">
+        <f>POWER(WynikiScenariusza2!Q11-ANOVA!Q10,2)</f>
+        <v>0.71597633136094618</v>
+      </c>
+      <c r="R44" s="3">
+        <f>POWER(WynikiScenariusza2!R11-ANOVA!R10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="S44" s="3">
+        <f>POWER(WynikiScenariusza2!S11-ANOVA!S10,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="T44" s="3">
+        <f>POWER(WynikiScenariusza2!T11-ANOVA!T10,2)</f>
+        <v>0.21301775147928986</v>
+      </c>
+      <c r="U44" s="3">
+        <f>POWER(WynikiScenariusza2!U11-ANOVA!U10,2)</f>
+        <v>1.7100591715976325</v>
+      </c>
+      <c r="V44" s="3">
+        <f>POWER(WynikiScenariusza2!V11-ANOVA!V10,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="W44" s="3">
+        <f>POWER(WynikiScenariusza2!W11-ANOVA!W10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="X44" s="3">
+        <f>POWER(WynikiScenariusza2!X11-ANOVA!X10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <f>POWER(WynikiScenariusza2!B12-ANOVA!B10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="C45" s="3">
+        <f>POWER(WynikiScenariusza2!C12-ANOVA!C10,2)</f>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="D45" s="3">
+        <f>POWER(WynikiScenariusza2!D12-ANOVA!D10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="E45" s="3">
+        <f>POWER(WynikiScenariusza2!E12-ANOVA!E10,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="F45" s="3">
+        <f>POWER(WynikiScenariusza2!F12-ANOVA!F10,2)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <f>POWER(WynikiScenariusza2!G12-ANOVA!G10,2)</f>
+        <v>1.5147928994082842</v>
+      </c>
+      <c r="H45" s="3">
+        <f>POWER(WynikiScenariusza2!H12-ANOVA!H10,2)</f>
+        <v>0.21301775147928986</v>
+      </c>
+      <c r="I45" s="3">
+        <f>POWER(WynikiScenariusza2!I12-ANOVA!I10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="J45" s="3">
+        <f>POWER(WynikiScenariusza2!J12-ANOVA!J10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K45" s="3">
+        <f>POWER(WynikiScenariusza2!K12-ANOVA!K10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="L45" s="3">
+        <f>POWER(WynikiScenariusza2!L12-ANOVA!L10,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="M45" s="3">
+        <f>POWER(WynikiScenariusza2!M12-ANOVA!M10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="N45" s="3">
+        <f>POWER(WynikiScenariusza2!N12-ANOVA!N10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="O45" s="3">
+        <f>POWER(WynikiScenariusza2!O12-ANOVA!O10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="P45" s="3">
+        <f>POWER(WynikiScenariusza2!P12-ANOVA!P10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="Q45" s="3">
+        <f>POWER(WynikiScenariusza2!Q12-ANOVA!Q10,2)</f>
+        <v>2.3668639053254541E-2</v>
+      </c>
+      <c r="R45" s="3">
+        <f>POWER(WynikiScenariusza2!R12-ANOVA!R10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="S45" s="3">
+        <f>POWER(WynikiScenariusza2!S12-ANOVA!S10,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="T45" s="3">
+        <f>POWER(WynikiScenariusza2!T12-ANOVA!T10,2)</f>
+        <v>0.28994082840236696</v>
+      </c>
+      <c r="U45" s="3">
+        <f>POWER(WynikiScenariusza2!U12-ANOVA!U10,2)</f>
+        <v>9.4674556213017624E-2</v>
+      </c>
+      <c r="V45" s="3">
+        <f>POWER(WynikiScenariusza2!V12-ANOVA!V10,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="W45" s="3">
+        <f>POWER(WynikiScenariusza2!W12-ANOVA!W10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="X45" s="3">
+        <f>POWER(WynikiScenariusza2!X12-ANOVA!X10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B46" s="3">
+        <f>POWER(WynikiScenariusza2!B13-ANOVA!B10,2)</f>
+        <v>5.3254437869822514E-2</v>
+      </c>
+      <c r="C46" s="3">
+        <f>POWER(WynikiScenariusza2!C13-ANOVA!C10,2)</f>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="D46" s="3">
+        <f>POWER(WynikiScenariusza2!D13-ANOVA!D10,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="E46" s="3">
+        <f>POWER(WynikiScenariusza2!E13-ANOVA!E10,2)</f>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="F46" s="3">
+        <f>POWER(WynikiScenariusza2!F13-ANOVA!F10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <f>POWER(WynikiScenariusza2!G13-ANOVA!G10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="H46" s="3">
+        <f>POWER(WynikiScenariusza2!H13-ANOVA!H10,2)</f>
+        <v>0.21301775147928986</v>
+      </c>
+      <c r="I46" s="3">
+        <f>POWER(WynikiScenariusza2!I13-ANOVA!I10,2)</f>
+        <v>5.9171597633135677E-3</v>
+      </c>
+      <c r="J46" s="3">
+        <f>POWER(WynikiScenariusza2!J13-ANOVA!J10,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K46" s="3">
+        <f>POWER(WynikiScenariusza2!K13-ANOVA!K10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="L46" s="3">
+        <f>POWER(WynikiScenariusza2!L13-ANOVA!L10,2)</f>
+        <v>0.71597633136094696</v>
+      </c>
+      <c r="M46" s="3">
+        <f>POWER(WynikiScenariusza2!M13-ANOVA!M10,2)</f>
+        <v>1.1597633136094669</v>
+      </c>
+      <c r="N46" s="3">
+        <f>POWER(WynikiScenariusza2!N13-ANOVA!N10,2)</f>
+        <v>0.28994082840236673</v>
+      </c>
+      <c r="O46" s="3">
+        <f>POWER(WynikiScenariusza2!O13-ANOVA!O10,2)</f>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="P46" s="3">
+        <f>POWER(WynikiScenariusza2!P13-ANOVA!P10,2)</f>
+        <v>1.1597633136094669</v>
+      </c>
+      <c r="Q46" s="3">
+        <f>POWER(WynikiScenariusza2!Q13-ANOVA!Q10,2)</f>
+        <v>1.3313609467455629</v>
+      </c>
+      <c r="R46" s="3">
+        <f>POWER(WynikiScenariusza2!R13-ANOVA!R10,2)</f>
+        <v>1.5147928994082842</v>
+      </c>
+      <c r="S46" s="3">
+        <f>POWER(WynikiScenariusza2!S13-ANOVA!S10,2)</f>
+        <v>2.3668639053254406E-2</v>
+      </c>
+      <c r="T46" s="3">
+        <f>POWER(WynikiScenariusza2!T13-ANOVA!T10,2)</f>
+        <v>0.28994082840236696</v>
+      </c>
+      <c r="U46" s="3">
+        <f>POWER(WynikiScenariusza2!U13-ANOVA!U10,2)</f>
+        <v>1.7100591715976325</v>
+      </c>
+      <c r="V46" s="3">
+        <f>POWER(WynikiScenariusza2!V13-ANOVA!V10,2)</f>
+        <v>0.47928994082840265</v>
+      </c>
+      <c r="W46" s="3">
+        <f>POWER(WynikiScenariusza2!W13-ANOVA!W10,2)</f>
+        <v>2.3668639053254434</v>
+      </c>
+      <c r="X46" s="3">
+        <f>POWER(WynikiScenariusza2!X13-ANOVA!X10,2)</f>
+        <v>0.21301775147929006</v>
+      </c>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B48" s="8">
+        <f>SUM(B19:B31,B34:B46)</f>
+        <v>11.538461538461544</v>
+      </c>
+      <c r="C48" s="8">
+        <f t="shared" ref="C48:X48" si="1">SUM(C19:C31,C34:C46)</f>
+        <v>3.2307692307692291</v>
+      </c>
+      <c r="D48" s="8">
         <f t="shared" si="1"/>
-        <v>62.603751635887775</v>
-      </c>
-      <c r="F44">
+        <v>6.4615384615384599</v>
+      </c>
+      <c r="E48" s="8">
         <f t="shared" si="1"/>
-        <v>27.088701468663668</v>
-      </c>
-      <c r="G44">
+        <v>10.15384615384615</v>
+      </c>
+      <c r="F48" s="8">
         <f t="shared" si="1"/>
-        <v>36.533517522175366</v>
-      </c>
-      <c r="H44">
+        <v>15.076923076923077</v>
+      </c>
+      <c r="G48" s="8">
         <f t="shared" si="1"/>
-        <v>25.593718191071684</v>
-      </c>
-      <c r="I44">
+        <v>21.38461538461539</v>
+      </c>
+      <c r="H48" s="8">
         <f t="shared" si="1"/>
-        <v>89.172313508797458</v>
-      </c>
-      <c r="J44">
+        <v>8.3076923076923084</v>
+      </c>
+      <c r="I48" s="8">
         <f t="shared" si="1"/>
-        <v>29.871310164315844</v>
-      </c>
-      <c r="K44">
+        <v>12.615384615384619</v>
+      </c>
+      <c r="J48" s="8">
         <f t="shared" si="1"/>
-        <v>17.998400465319179</v>
-      </c>
-      <c r="L44">
+        <v>14.923076923076922</v>
+      </c>
+      <c r="K48" s="8">
         <f t="shared" si="1"/>
-        <v>10.841209829867669</v>
-      </c>
-      <c r="M44">
+        <v>10</v>
+      </c>
+      <c r="L48" s="8">
         <f t="shared" si="1"/>
-        <v>21.296059328195433</v>
-      </c>
-      <c r="N44">
+        <v>16.92307692307692</v>
+      </c>
+      <c r="M48" s="8">
         <f t="shared" si="1"/>
-        <v>26.777664679366001</v>
-      </c>
-      <c r="O44">
+        <v>13.84615384615385</v>
+      </c>
+      <c r="N48" s="8">
         <f t="shared" si="1"/>
-        <v>47.851243274683746</v>
-      </c>
-      <c r="P44">
+        <v>10.461538461538463</v>
+      </c>
+      <c r="O48" s="8">
         <f t="shared" si="1"/>
-        <v>21.051912171004808</v>
-      </c>
-      <c r="Q44">
+        <v>13.230769230769235</v>
+      </c>
+      <c r="P48" s="8">
         <f t="shared" si="1"/>
-        <v>35.871310164315844</v>
-      </c>
-      <c r="R44">
+        <v>18.61538461538462</v>
+      </c>
+      <c r="Q48" s="8">
         <f t="shared" si="1"/>
-        <v>41.396393776355978</v>
-      </c>
-      <c r="S44">
+        <v>16.769230769230763</v>
+      </c>
+      <c r="R48" s="8">
         <f t="shared" si="1"/>
-        <v>34.36963792351316</v>
-      </c>
-      <c r="T44">
+        <v>15.230769230769239</v>
+      </c>
+      <c r="S48" s="8">
         <f t="shared" si="1"/>
-        <v>10.319470699432886</v>
-      </c>
-      <c r="U44">
+        <v>9.9999999999999964</v>
+      </c>
+      <c r="T48" s="8">
         <f t="shared" si="1"/>
-        <v>78.332848625854311</v>
-      </c>
-      <c r="V44">
+        <v>7.5384615384615401</v>
+      </c>
+      <c r="U48" s="8">
         <f t="shared" si="1"/>
-        <v>40.469972371673691</v>
-      </c>
-      <c r="W44">
+        <v>10.46153846153846</v>
+      </c>
+      <c r="V48" s="8">
         <f t="shared" si="1"/>
-        <v>18.814453977024865</v>
-      </c>
-      <c r="X44">
+        <v>7.846153846153844</v>
+      </c>
+      <c r="W48" s="8">
         <f t="shared" si="1"/>
-        <v>23.587029227860985</v>
-      </c>
-      <c r="Y44">
+        <v>8.4615384615384635</v>
+      </c>
+      <c r="X48" s="8">
         <f t="shared" si="1"/>
-        <v>34.426494110804128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C49">
+        <v>14.307692307692308</v>
+      </c>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B52" s="3">
         <f>2-1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <f>26-2</f>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B53" s="3">
+        <f>2*C2-2</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C54">
-        <f>C10/$C49</f>
-        <v>28.746982695942989</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ref="D54:Y54" si="2">D10/$C49</f>
-        <v>120.02123018758184</v>
-      </c>
-      <c r="E54">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B57" s="8">
+        <f>B15/$B52</f>
+        <v>0.34615384615384637</v>
+      </c>
+      <c r="C57" s="8">
+        <f t="shared" ref="C57:X57" si="2">C15/$B52</f>
+        <v>0.15384615384615408</v>
+      </c>
+      <c r="D57" s="8">
         <f t="shared" si="2"/>
-        <v>56.201832194270736</v>
-      </c>
-      <c r="F54">
+        <v>0.15384615384615277</v>
+      </c>
+      <c r="E57" s="8">
         <f t="shared" si="2"/>
-        <v>17.027919150792506</v>
-      </c>
-      <c r="G54">
+        <v>0.34615384615384637</v>
+      </c>
+      <c r="F57" s="8">
         <f t="shared" si="2"/>
-        <v>21.616547913334305</v>
-      </c>
-      <c r="H54">
+        <v>0.96153846153846356</v>
+      </c>
+      <c r="G57" s="8">
         <f t="shared" si="2"/>
-        <v>4.1349425621637286</v>
-      </c>
-      <c r="I54">
+        <v>0.15384615384615363</v>
+      </c>
+      <c r="H57" s="8">
         <f t="shared" si="2"/>
-        <v>80.924240221026636</v>
-      </c>
-      <c r="J54">
+        <v>0.15384615384615408</v>
+      </c>
+      <c r="I57" s="8">
         <f t="shared" si="2"/>
-        <v>17.282099752799176</v>
-      </c>
-      <c r="K54">
+        <v>3.8461538461539074E-2</v>
+      </c>
+      <c r="J57" s="8">
         <f t="shared" si="2"/>
-        <v>3.0346081140032051</v>
-      </c>
-      <c r="L54">
+        <v>3.846153846153863E-2</v>
+      </c>
+      <c r="K57" s="8">
         <f t="shared" si="2"/>
-        <v>0.73360476952159126</v>
-      </c>
-      <c r="M54">
+        <v>0.34615384615384637</v>
+      </c>
+      <c r="L57" s="8">
         <f t="shared" si="2"/>
-        <v>4.1984877126654041</v>
-      </c>
-      <c r="N54">
+        <v>0.96153846153846145</v>
+      </c>
+      <c r="M57" s="8">
         <f t="shared" si="2"/>
-        <v>12.857350588919569</v>
-      </c>
-      <c r="O54">
+        <v>0.15384615384615363</v>
+      </c>
+      <c r="N57" s="8">
         <f t="shared" si="2"/>
-        <v>37.415879017013211</v>
-      </c>
-      <c r="P54">
+        <v>3.8461538461538193E-2</v>
+      </c>
+      <c r="O57" s="8">
         <f t="shared" si="2"/>
-        <v>7.8807619601570345</v>
-      </c>
-      <c r="Q54">
+        <v>0.15384615384615363</v>
+      </c>
+      <c r="P57" s="8">
         <f t="shared" si="2"/>
-        <v>17.282099752799176</v>
-      </c>
-      <c r="R54">
+        <v>3.8461538461539074E-2</v>
+      </c>
+      <c r="Q57" s="8">
         <f t="shared" si="2"/>
-        <v>24.720226843100196</v>
-      </c>
-      <c r="S54">
+        <v>0.34615384615384637</v>
+      </c>
+      <c r="R57" s="8">
         <f t="shared" si="2"/>
-        <v>19.064708448451345</v>
-      </c>
-      <c r="T54">
+        <v>0.15384615384615452</v>
+      </c>
+      <c r="S57" s="8">
         <f t="shared" si="2"/>
-        <v>0.34564490330085956</v>
-      </c>
-      <c r="U54">
+        <v>3.846153846153863E-2</v>
+      </c>
+      <c r="T57" s="8">
         <f t="shared" si="2"/>
-        <v>70.887450923367766</v>
-      </c>
-      <c r="V54">
+        <v>0.3461538461538457</v>
+      </c>
+      <c r="U57" s="8">
         <f t="shared" si="2"/>
-        <v>29.934273665842689</v>
-      </c>
-      <c r="W54">
+        <v>0.15384615384615363</v>
+      </c>
+      <c r="V57" s="8">
         <f t="shared" si="2"/>
-        <v>10.927584702631966</v>
-      </c>
-      <c r="X54">
+        <v>3.846153846153863E-2</v>
+      </c>
+      <c r="W57" s="8">
         <f t="shared" si="2"/>
-        <v>15.118220154136992</v>
-      </c>
-      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="X57" s="8">
         <f t="shared" si="2"/>
-        <v>20.078086374872775</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C55">
-        <f>C44/$C50</f>
-        <v>1.6746825166012316</v>
-      </c>
-      <c r="D55">
-        <f t="shared" ref="D55:Y55" si="3">D44/$C50</f>
-        <v>5.1330158499345666</v>
-      </c>
-      <c r="E55">
+        <v>3.846153846153863E-2</v>
+      </c>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B59" s="8">
+        <f>B48/$B53</f>
+        <v>0.480769230769231</v>
+      </c>
+      <c r="C59" s="8">
+        <f t="shared" ref="C59:X59" si="3">C48/$B53</f>
+        <v>0.13461538461538455</v>
+      </c>
+      <c r="D59" s="8">
         <f t="shared" si="3"/>
-        <v>2.608489651495324</v>
-      </c>
-      <c r="F55">
+        <v>0.26923076923076916</v>
+      </c>
+      <c r="E59" s="8">
         <f t="shared" si="3"/>
-        <v>1.1286958945276528</v>
-      </c>
-      <c r="G55">
+        <v>0.42307692307692291</v>
+      </c>
+      <c r="F59" s="8">
         <f t="shared" si="3"/>
-        <v>1.5222298967573069</v>
-      </c>
-      <c r="H55">
+        <v>0.62820512820512819</v>
+      </c>
+      <c r="G59" s="8">
         <f t="shared" si="3"/>
-        <v>1.0664049246279867</v>
-      </c>
-      <c r="I55">
+        <v>0.8910256410256413</v>
+      </c>
+      <c r="H59" s="8">
         <f t="shared" si="3"/>
-        <v>3.7155130628665609</v>
-      </c>
-      <c r="J55">
+        <v>0.3461538461538462</v>
+      </c>
+      <c r="I59" s="8">
         <f t="shared" si="3"/>
-        <v>1.2446379235131602</v>
-      </c>
-      <c r="K55">
+        <v>0.52564102564102577</v>
+      </c>
+      <c r="J59" s="8">
         <f t="shared" si="3"/>
-        <v>0.74993335272163242</v>
-      </c>
-      <c r="L55">
+        <v>0.6217948717948717</v>
+      </c>
+      <c r="K59" s="8">
         <f t="shared" si="3"/>
-        <v>0.4517170762444862</v>
-      </c>
-      <c r="M55">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L59" s="8">
         <f t="shared" si="3"/>
-        <v>0.88733580534147638</v>
-      </c>
-      <c r="N55">
+        <v>0.70512820512820495</v>
+      </c>
+      <c r="M59" s="8">
         <f t="shared" si="3"/>
-        <v>1.1157360283069166</v>
-      </c>
-      <c r="O55">
+        <v>0.57692307692307709</v>
+      </c>
+      <c r="N59" s="8">
         <f t="shared" si="3"/>
-        <v>1.9938018031118228</v>
-      </c>
-      <c r="P55">
+        <v>0.43589743589743596</v>
+      </c>
+      <c r="O59" s="8">
         <f t="shared" si="3"/>
-        <v>0.87716300712520034</v>
-      </c>
-      <c r="Q55">
+        <v>0.55128205128205143</v>
+      </c>
+      <c r="P59" s="8">
         <f t="shared" si="3"/>
-        <v>1.4946379235131602</v>
-      </c>
-      <c r="R55">
+        <v>0.77564102564102588</v>
+      </c>
+      <c r="Q59" s="8">
         <f t="shared" si="3"/>
-        <v>1.7248497406814991</v>
-      </c>
-      <c r="S55">
+        <v>0.69871794871794846</v>
+      </c>
+      <c r="R59" s="8">
         <f t="shared" si="3"/>
-        <v>1.4320682468130483</v>
-      </c>
-      <c r="T55">
+        <v>0.63461538461538491</v>
+      </c>
+      <c r="S59" s="8">
         <f t="shared" si="3"/>
-        <v>0.42997794580970355</v>
-      </c>
-      <c r="U55">
+        <v>0.41666666666666652</v>
+      </c>
+      <c r="T59" s="8">
         <f t="shared" si="3"/>
-        <v>3.2638686927439298</v>
-      </c>
-      <c r="V55">
+        <v>0.31410256410256415</v>
+      </c>
+      <c r="U59" s="8">
         <f t="shared" si="3"/>
-        <v>1.6862488488197371</v>
-      </c>
-      <c r="W55">
+        <v>0.43589743589743585</v>
+      </c>
+      <c r="V59" s="8">
         <f t="shared" si="3"/>
-        <v>0.783935582376036</v>
-      </c>
-      <c r="X55">
+        <v>0.32692307692307682</v>
+      </c>
+      <c r="W59" s="8">
         <f t="shared" si="3"/>
-        <v>0.98279288449420765</v>
-      </c>
-      <c r="Y55">
+        <v>0.35256410256410264</v>
+      </c>
+      <c r="X59" s="8">
         <f t="shared" si="3"/>
-        <v>1.4344372546168387</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C58">
-        <f>C54/C55</f>
-        <v>17.165631342640989</v>
-      </c>
-      <c r="D58">
-        <f t="shared" ref="D58:Y58" si="4">D54/D55</f>
-        <v>23.382205256411162</v>
-      </c>
-      <c r="E58">
+        <v>0.59615384615384615</v>
+      </c>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B63" s="8">
+        <f>B57/B59</f>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="C63" s="8">
+        <f t="shared" ref="C63:X63" si="4">C57/C59</f>
+        <v>1.142857142857145</v>
+      </c>
+      <c r="D63" s="8">
         <f t="shared" si="4"/>
-        <v>21.545737075112751</v>
-      </c>
-      <c r="F58">
+        <v>0.57142857142856762</v>
+      </c>
+      <c r="E63" s="8">
         <f t="shared" si="4"/>
-        <v>15.086365807965048</v>
-      </c>
-      <c r="G58">
+        <v>0.81818181818181901</v>
+      </c>
+      <c r="F63" s="8">
         <f t="shared" si="4"/>
-        <v>14.200580319295021</v>
-      </c>
-      <c r="H58">
+        <v>1.5306122448979624</v>
+      </c>
+      <c r="G63" s="8">
         <f t="shared" si="4"/>
-        <v>3.8774601154492934</v>
-      </c>
-      <c r="I58">
+        <v>0.17266187050359683</v>
+      </c>
+      <c r="H63" s="8">
         <f t="shared" si="4"/>
-        <v>21.780098428342669</v>
-      </c>
-      <c r="J58">
+        <v>0.44444444444444503</v>
+      </c>
+      <c r="I63" s="8">
         <f t="shared" si="4"/>
-        <v>13.885242789339163</v>
-      </c>
-      <c r="K58">
+        <v>7.3170731707318221E-2</v>
+      </c>
+      <c r="J63" s="8">
         <f t="shared" si="4"/>
-        <v>4.046503736618873</v>
-      </c>
-      <c r="L58">
+        <v>6.1855670103093063E-2</v>
+      </c>
+      <c r="K63" s="8">
         <f t="shared" si="4"/>
-        <v>1.6240359466165872</v>
-      </c>
-      <c r="M58">
+        <v>0.83076923076923126</v>
+      </c>
+      <c r="L63" s="8">
         <f t="shared" si="4"/>
-        <v>4.7315657582978812</v>
-      </c>
-      <c r="N58">
+        <v>1.3636363636363638</v>
+      </c>
+      <c r="M63" s="8">
         <f t="shared" si="4"/>
-        <v>11.523649199022522</v>
-      </c>
-      <c r="O58">
+        <v>0.26666666666666622</v>
+      </c>
+      <c r="N63" s="8">
         <f t="shared" si="4"/>
-        <v>18.766097492045819</v>
-      </c>
-      <c r="P58">
+        <v>8.8235294117646426E-2</v>
+      </c>
+      <c r="O63" s="8">
         <f t="shared" si="4"/>
-        <v>8.9843756475610093</v>
-      </c>
-      <c r="Q58">
+        <v>0.27906976744186002</v>
+      </c>
+      <c r="P63" s="8">
         <f t="shared" si="4"/>
-        <v>11.562733342251509</v>
-      </c>
-      <c r="R58">
+        <v>4.9586776859504904E-2</v>
+      </c>
+      <c r="Q63" s="8">
         <f t="shared" si="4"/>
-        <v>14.33181468510589</v>
-      </c>
-      <c r="S58">
+        <v>0.49541284403669772</v>
+      </c>
+      <c r="R63" s="8">
         <f t="shared" si="4"/>
-        <v>13.312709426298856</v>
-      </c>
-      <c r="T58">
+        <v>0.24242424242424337</v>
+      </c>
+      <c r="S63" s="8">
         <f t="shared" si="4"/>
-        <v>0.80386658587794757</v>
-      </c>
-      <c r="U58">
+        <v>9.2307692307692743E-2</v>
+      </c>
+      <c r="T63" s="8">
         <f t="shared" si="4"/>
-        <v>21.71884275888954</v>
-      </c>
-      <c r="V58">
+        <v>1.1020408163265289</v>
+      </c>
+      <c r="U63" s="8">
         <f t="shared" si="4"/>
-        <v>17.75199057173246</v>
-      </c>
-      <c r="W58">
+        <v>0.35294117647058776</v>
+      </c>
+      <c r="V63" s="8">
         <f t="shared" si="4"/>
-        <v>13.939391128938773</v>
-      </c>
-      <c r="X58">
+        <v>0.11764705882352997</v>
+      </c>
+      <c r="W63" s="8">
         <f t="shared" si="4"/>
-        <v>15.382915762477822</v>
-      </c>
-      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="X63" s="8">
         <f t="shared" si="4"/>
-        <v>13.997186917901095</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>54</v>
+        <v>6.4516129032258354E-2</v>
+      </c>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <dataConsolidate/>
+  <hyperlinks>
+    <hyperlink ref="A67" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="WynikiScenariusza1" sheetId="3" r:id="rId2"/>
     <sheet name="WynikiScenariusza2" sheetId="4" r:id="rId3"/>
     <sheet name="ANOVA" sheetId="5" r:id="rId4"/>
+    <sheet name="t-Student" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="67">
   <si>
     <t>Bartek_2</t>
   </si>
@@ -196,6 +197,39 @@
   <si>
     <t>https://brownmath.com/stat/anova1.htm</t>
   </si>
+  <si>
+    <t>osoba1</t>
+  </si>
+  <si>
+    <t>osoba2</t>
+  </si>
+  <si>
+    <t>roznica pomiarow</t>
+  </si>
+  <si>
+    <t>film1</t>
+  </si>
+  <si>
+    <t>film2</t>
+  </si>
+  <si>
+    <t>średnia różnica</t>
+  </si>
+  <si>
+    <t>Różnica pomiarów minus średnia różnica</t>
+  </si>
+  <si>
+    <t>Kwadrat różnic</t>
+  </si>
+  <si>
+    <t>Suma kwadratów</t>
+  </si>
+  <si>
+    <t>Pierwiastek sumy kwadratow</t>
+  </si>
+  <si>
+    <t>Pierwiastek liczby obserwacji</t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +298,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -278,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -288,6 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -5120,7 +5161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
@@ -9286,4 +9327,4307 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <f>ABS(WynikiScenariusza1!B1-WynikiScenariusza2!B1)</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>ABS(WynikiScenariusza1!C1-WynikiScenariusza2!C1)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>ABS(WynikiScenariusza1!D1-WynikiScenariusza2!D1)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>ABS(WynikiScenariusza1!E1-WynikiScenariusza2!E1)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>ABS(WynikiScenariusza1!F1-WynikiScenariusza2!F1)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>ABS(WynikiScenariusza1!G1-WynikiScenariusza2!G1)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>ABS(WynikiScenariusza1!H1-WynikiScenariusza2!H1)</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>ABS(WynikiScenariusza1!I1-WynikiScenariusza2!I1)</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>ABS(WynikiScenariusza1!J1-WynikiScenariusza2!J1)</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>ABS(WynikiScenariusza1!K1-WynikiScenariusza2!K1)</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>ABS(WynikiScenariusza1!L1-WynikiScenariusza2!L1)</f>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>ABS(WynikiScenariusza1!M1-WynikiScenariusza2!M1)</f>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f>ABS(WynikiScenariusza1!N1-WynikiScenariusza2!N1)</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>ABS(WynikiScenariusza1!O1-WynikiScenariusza2!O1)</f>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>ABS(WynikiScenariusza1!P1-WynikiScenariusza2!P1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>ABS(WynikiScenariusza1!Q1-WynikiScenariusza2!Q1)</f>
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <f>ABS(WynikiScenariusza1!R1-WynikiScenariusza2!R1)</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>ABS(WynikiScenariusza1!S1-WynikiScenariusza2!S1)</f>
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <f>ABS(WynikiScenariusza1!T1-WynikiScenariusza2!T1)</f>
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <f>ABS(WynikiScenariusza1!U1-WynikiScenariusza2!U1)</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>ABS(WynikiScenariusza1!V1-WynikiScenariusza2!V1)</f>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f>ABS(WynikiScenariusza1!W1-WynikiScenariusza2!W1)</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>ABS(WynikiScenariusza1!X1-WynikiScenariusza2!X1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <f>ABS(WynikiScenariusza1!B2-WynikiScenariusza2!B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>ABS(WynikiScenariusza1!C2-WynikiScenariusza2!C2)</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>ABS(WynikiScenariusza1!D2-WynikiScenariusza2!D2)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>ABS(WynikiScenariusza1!E2-WynikiScenariusza2!E2)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>ABS(WynikiScenariusza1!F2-WynikiScenariusza2!F2)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>ABS(WynikiScenariusza1!G2-WynikiScenariusza2!G2)</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>ABS(WynikiScenariusza1!H2-WynikiScenariusza2!H2)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>ABS(WynikiScenariusza1!I2-WynikiScenariusza2!I2)</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>ABS(WynikiScenariusza1!J2-WynikiScenariusza2!J2)</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>ABS(WynikiScenariusza1!K2-WynikiScenariusza2!K2)</f>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f>ABS(WynikiScenariusza1!L2-WynikiScenariusza2!L2)</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f>ABS(WynikiScenariusza1!M2-WynikiScenariusza2!M2)</f>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f>ABS(WynikiScenariusza1!N2-WynikiScenariusza2!N2)</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>ABS(WynikiScenariusza1!O2-WynikiScenariusza2!O2)</f>
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f>ABS(WynikiScenariusza1!P2-WynikiScenariusza2!P2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>ABS(WynikiScenariusza1!Q2-WynikiScenariusza2!Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>ABS(WynikiScenariusza1!R2-WynikiScenariusza2!R2)</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>ABS(WynikiScenariusza1!S2-WynikiScenariusza2!S2)</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>ABS(WynikiScenariusza1!T2-WynikiScenariusza2!T2)</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>ABS(WynikiScenariusza1!U2-WynikiScenariusza2!U2)</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>ABS(WynikiScenariusza1!V2-WynikiScenariusza2!V2)</f>
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <f>ABS(WynikiScenariusza1!W2-WynikiScenariusza2!W2)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>ABS(WynikiScenariusza1!X2-WynikiScenariusza2!X2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <f>ABS(WynikiScenariusza1!B3-WynikiScenariusza2!B3)</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>ABS(WynikiScenariusza1!C3-WynikiScenariusza2!C3)</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>ABS(WynikiScenariusza1!D3-WynikiScenariusza2!D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>ABS(WynikiScenariusza1!E3-WynikiScenariusza2!E3)</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>ABS(WynikiScenariusza1!F3-WynikiScenariusza2!F3)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>ABS(WynikiScenariusza1!G3-WynikiScenariusza2!G3)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>ABS(WynikiScenariusza1!H3-WynikiScenariusza2!H3)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>ABS(WynikiScenariusza1!I3-WynikiScenariusza2!I3)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>ABS(WynikiScenariusza1!J3-WynikiScenariusza2!J3)</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <f>ABS(WynikiScenariusza1!K3-WynikiScenariusza2!K3)</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>ABS(WynikiScenariusza1!L3-WynikiScenariusza2!L3)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>ABS(WynikiScenariusza1!M3-WynikiScenariusza2!M3)</f>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <f>ABS(WynikiScenariusza1!N3-WynikiScenariusza2!N3)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>ABS(WynikiScenariusza1!O3-WynikiScenariusza2!O3)</f>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f>ABS(WynikiScenariusza1!P3-WynikiScenariusza2!P3)</f>
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <f>ABS(WynikiScenariusza1!Q3-WynikiScenariusza2!Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <f>ABS(WynikiScenariusza1!R3-WynikiScenariusza2!R3)</f>
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f>ABS(WynikiScenariusza1!S3-WynikiScenariusza2!S3)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>ABS(WynikiScenariusza1!T3-WynikiScenariusza2!T3)</f>
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <f>ABS(WynikiScenariusza1!U3-WynikiScenariusza2!U3)</f>
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <f>ABS(WynikiScenariusza1!V3-WynikiScenariusza2!V3)</f>
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f>ABS(WynikiScenariusza1!W3-WynikiScenariusza2!W3)</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f>ABS(WynikiScenariusza1!X3-WynikiScenariusza2!X3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>ABS(WynikiScenariusza1!B4-WynikiScenariusza2!B4)</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>ABS(WynikiScenariusza1!C4-WynikiScenariusza2!C4)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>ABS(WynikiScenariusza1!D4-WynikiScenariusza2!D4)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>ABS(WynikiScenariusza1!E4-WynikiScenariusza2!E4)</f>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>ABS(WynikiScenariusza1!F4-WynikiScenariusza2!F4)</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>ABS(WynikiScenariusza1!G4-WynikiScenariusza2!G4)</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f>ABS(WynikiScenariusza1!H4-WynikiScenariusza2!H4)</f>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f>ABS(WynikiScenariusza1!I4-WynikiScenariusza2!I4)</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>ABS(WynikiScenariusza1!J4-WynikiScenariusza2!J4)</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>ABS(WynikiScenariusza1!K4-WynikiScenariusza2!K4)</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>ABS(WynikiScenariusza1!L4-WynikiScenariusza2!L4)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>ABS(WynikiScenariusza1!M4-WynikiScenariusza2!M4)</f>
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <f>ABS(WynikiScenariusza1!N4-WynikiScenariusza2!N4)</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>ABS(WynikiScenariusza1!O4-WynikiScenariusza2!O4)</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>ABS(WynikiScenariusza1!P4-WynikiScenariusza2!P4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>ABS(WynikiScenariusza1!Q4-WynikiScenariusza2!Q4)</f>
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f>ABS(WynikiScenariusza1!R4-WynikiScenariusza2!R4)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>ABS(WynikiScenariusza1!S4-WynikiScenariusza2!S4)</f>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>ABS(WynikiScenariusza1!T4-WynikiScenariusza2!T4)</f>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f>ABS(WynikiScenariusza1!U4-WynikiScenariusza2!U4)</f>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f>ABS(WynikiScenariusza1!V4-WynikiScenariusza2!V4)</f>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f>ABS(WynikiScenariusza1!W4-WynikiScenariusza2!W4)</f>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f>ABS(WynikiScenariusza1!X4-WynikiScenariusza2!X4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>ABS(WynikiScenariusza1!B5-WynikiScenariusza2!B5)</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>ABS(WynikiScenariusza1!C5-WynikiScenariusza2!C5)</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>ABS(WynikiScenariusza1!D5-WynikiScenariusza2!D5)</f>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f>ABS(WynikiScenariusza1!E5-WynikiScenariusza2!E5)</f>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>ABS(WynikiScenariusza1!F5-WynikiScenariusza2!F5)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>ABS(WynikiScenariusza1!G5-WynikiScenariusza2!G5)</f>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f>ABS(WynikiScenariusza1!H5-WynikiScenariusza2!H5)</f>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f>ABS(WynikiScenariusza1!I5-WynikiScenariusza2!I5)</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>ABS(WynikiScenariusza1!J5-WynikiScenariusza2!J5)</f>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f>ABS(WynikiScenariusza1!K5-WynikiScenariusza2!K5)</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>ABS(WynikiScenariusza1!L5-WynikiScenariusza2!L5)</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f>ABS(WynikiScenariusza1!M5-WynikiScenariusza2!M5)</f>
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <f>ABS(WynikiScenariusza1!N5-WynikiScenariusza2!N5)</f>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>ABS(WynikiScenariusza1!O5-WynikiScenariusza2!O5)</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>ABS(WynikiScenariusza1!P5-WynikiScenariusza2!P5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f>ABS(WynikiScenariusza1!Q5-WynikiScenariusza2!Q5)</f>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f>ABS(WynikiScenariusza1!R5-WynikiScenariusza2!R5)</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>ABS(WynikiScenariusza1!S5-WynikiScenariusza2!S5)</f>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>ABS(WynikiScenariusza1!T5-WynikiScenariusza2!T5)</f>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f>ABS(WynikiScenariusza1!U5-WynikiScenariusza2!U5)</f>
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <f>ABS(WynikiScenariusza1!V5-WynikiScenariusza2!V5)</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f>ABS(WynikiScenariusza1!W5-WynikiScenariusza2!W5)</f>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f>ABS(WynikiScenariusza1!X5-WynikiScenariusza2!X5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>ABS(WynikiScenariusza1!B6-WynikiScenariusza2!B6)</f>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f>ABS(WynikiScenariusza1!C6-WynikiScenariusza2!C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>ABS(WynikiScenariusza1!D6-WynikiScenariusza2!D6)</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>ABS(WynikiScenariusza1!E6-WynikiScenariusza2!E6)</f>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>ABS(WynikiScenariusza1!F6-WynikiScenariusza2!F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>ABS(WynikiScenariusza1!G6-WynikiScenariusza2!G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>ABS(WynikiScenariusza1!H6-WynikiScenariusza2!H6)</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>ABS(WynikiScenariusza1!I6-WynikiScenariusza2!I6)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>ABS(WynikiScenariusza1!J6-WynikiScenariusza2!J6)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>ABS(WynikiScenariusza1!K6-WynikiScenariusza2!K6)</f>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f>ABS(WynikiScenariusza1!L6-WynikiScenariusza2!L6)</f>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>ABS(WynikiScenariusza1!M6-WynikiScenariusza2!M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>ABS(WynikiScenariusza1!N6-WynikiScenariusza2!N6)</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>ABS(WynikiScenariusza1!O6-WynikiScenariusza2!O6)</f>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f>ABS(WynikiScenariusza1!P6-WynikiScenariusza2!P6)</f>
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <f>ABS(WynikiScenariusza1!Q6-WynikiScenariusza2!Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f>ABS(WynikiScenariusza1!R6-WynikiScenariusza2!R6)</f>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f>ABS(WynikiScenariusza1!S6-WynikiScenariusza2!S6)</f>
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <f>ABS(WynikiScenariusza1!T6-WynikiScenariusza2!T6)</f>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f>ABS(WynikiScenariusza1!U6-WynikiScenariusza2!U6)</f>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f>ABS(WynikiScenariusza1!V6-WynikiScenariusza2!V6)</f>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f>ABS(WynikiScenariusza1!W6-WynikiScenariusza2!W6)</f>
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <f>ABS(WynikiScenariusza1!X6-WynikiScenariusza2!X6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>ABS(WynikiScenariusza1!B7-WynikiScenariusza2!B7)</f>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>ABS(WynikiScenariusza1!C7-WynikiScenariusza2!C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>ABS(WynikiScenariusza1!D7-WynikiScenariusza2!D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>ABS(WynikiScenariusza1!E7-WynikiScenariusza2!E7)</f>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>ABS(WynikiScenariusza1!F7-WynikiScenariusza2!F7)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>ABS(WynikiScenariusza1!G7-WynikiScenariusza2!G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>ABS(WynikiScenariusza1!H7-WynikiScenariusza2!H7)</f>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f>ABS(WynikiScenariusza1!I7-WynikiScenariusza2!I7)</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>ABS(WynikiScenariusza1!J7-WynikiScenariusza2!J7)</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>ABS(WynikiScenariusza1!K7-WynikiScenariusza2!K7)</f>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f>ABS(WynikiScenariusza1!L7-WynikiScenariusza2!L7)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>ABS(WynikiScenariusza1!M7-WynikiScenariusza2!M7)</f>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>ABS(WynikiScenariusza1!N7-WynikiScenariusza2!N7)</f>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f>ABS(WynikiScenariusza1!O7-WynikiScenariusza2!O7)</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>ABS(WynikiScenariusza1!P7-WynikiScenariusza2!P7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f>ABS(WynikiScenariusza1!Q7-WynikiScenariusza2!Q7)</f>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f>ABS(WynikiScenariusza1!R7-WynikiScenariusza2!R7)</f>
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <f>ABS(WynikiScenariusza1!S7-WynikiScenariusza2!S7)</f>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f>ABS(WynikiScenariusza1!T7-WynikiScenariusza2!T7)</f>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f>ABS(WynikiScenariusza1!U7-WynikiScenariusza2!U7)</f>
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <f>ABS(WynikiScenariusza1!V7-WynikiScenariusza2!V7)</f>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f>ABS(WynikiScenariusza1!W7-WynikiScenariusza2!W7)</f>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f>ABS(WynikiScenariusza1!X7-WynikiScenariusza2!X7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>ABS(WynikiScenariusza1!B8-WynikiScenariusza2!B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>ABS(WynikiScenariusza1!C8-WynikiScenariusza2!C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>ABS(WynikiScenariusza1!D8-WynikiScenariusza2!D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>ABS(WynikiScenariusza1!E8-WynikiScenariusza2!E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>ABS(WynikiScenariusza1!F8-WynikiScenariusza2!F8)</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>ABS(WynikiScenariusza1!G8-WynikiScenariusza2!G8)</f>
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f>ABS(WynikiScenariusza1!H8-WynikiScenariusza2!H8)</f>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f>ABS(WynikiScenariusza1!I8-WynikiScenariusza2!I8)</f>
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f>ABS(WynikiScenariusza1!J8-WynikiScenariusza2!J8)</f>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f>ABS(WynikiScenariusza1!K8-WynikiScenariusza2!K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>ABS(WynikiScenariusza1!L8-WynikiScenariusza2!L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>ABS(WynikiScenariusza1!M8-WynikiScenariusza2!M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>ABS(WynikiScenariusza1!N8-WynikiScenariusza2!N8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>ABS(WynikiScenariusza1!O8-WynikiScenariusza2!O8)</f>
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <f>ABS(WynikiScenariusza1!P8-WynikiScenariusza2!P8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>ABS(WynikiScenariusza1!Q8-WynikiScenariusza2!Q8)</f>
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <f>ABS(WynikiScenariusza1!R8-WynikiScenariusza2!R8)</f>
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f>ABS(WynikiScenariusza1!S8-WynikiScenariusza2!S8)</f>
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <f>ABS(WynikiScenariusza1!T8-WynikiScenariusza2!T8)</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f>ABS(WynikiScenariusza1!U8-WynikiScenariusza2!U8)</f>
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <f>ABS(WynikiScenariusza1!V8-WynikiScenariusza2!V8)</f>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f>ABS(WynikiScenariusza1!W8-WynikiScenariusza2!W8)</f>
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <f>ABS(WynikiScenariusza1!X8-WynikiScenariusza2!X8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>ABS(WynikiScenariusza1!B9-WynikiScenariusza2!B9)</f>
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>ABS(WynikiScenariusza1!C9-WynikiScenariusza2!C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>ABS(WynikiScenariusza1!D9-WynikiScenariusza2!D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>ABS(WynikiScenariusza1!E9-WynikiScenariusza2!E9)</f>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f>ABS(WynikiScenariusza1!F9-WynikiScenariusza2!F9)</f>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f>ABS(WynikiScenariusza1!G9-WynikiScenariusza2!G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>ABS(WynikiScenariusza1!H9-WynikiScenariusza2!H9)</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>ABS(WynikiScenariusza1!I9-WynikiScenariusza2!I9)</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>ABS(WynikiScenariusza1!J9-WynikiScenariusza2!J9)</f>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f>ABS(WynikiScenariusza1!K9-WynikiScenariusza2!K9)</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>ABS(WynikiScenariusza1!L9-WynikiScenariusza2!L9)</f>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f>ABS(WynikiScenariusza1!M9-WynikiScenariusza2!M9)</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>ABS(WynikiScenariusza1!N9-WynikiScenariusza2!N9)</f>
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <f>ABS(WynikiScenariusza1!O9-WynikiScenariusza2!O9)</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>ABS(WynikiScenariusza1!P9-WynikiScenariusza2!P9)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>ABS(WynikiScenariusza1!Q9-WynikiScenariusza2!Q9)</f>
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <f>ABS(WynikiScenariusza1!R9-WynikiScenariusza2!R9)</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>ABS(WynikiScenariusza1!S9-WynikiScenariusza2!S9)</f>
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <f>ABS(WynikiScenariusza1!T9-WynikiScenariusza2!T9)</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>ABS(WynikiScenariusza1!U9-WynikiScenariusza2!U9)</f>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f>ABS(WynikiScenariusza1!V9-WynikiScenariusza2!V9)</f>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f>ABS(WynikiScenariusza1!W9-WynikiScenariusza2!W9)</f>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f>ABS(WynikiScenariusza1!X9-WynikiScenariusza2!X9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>ABS(WynikiScenariusza1!B10-WynikiScenariusza2!B10)</f>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f>ABS(WynikiScenariusza1!C10-WynikiScenariusza2!C10)</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>ABS(WynikiScenariusza1!D10-WynikiScenariusza2!D10)</f>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f>ABS(WynikiScenariusza1!E10-WynikiScenariusza2!E10)</f>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>ABS(WynikiScenariusza1!F10-WynikiScenariusza2!F10)</f>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f>ABS(WynikiScenariusza1!G10-WynikiScenariusza2!G10)</f>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f>ABS(WynikiScenariusza1!H10-WynikiScenariusza2!H10)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>ABS(WynikiScenariusza1!I10-WynikiScenariusza2!I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>ABS(WynikiScenariusza1!J10-WynikiScenariusza2!J10)</f>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f>ABS(WynikiScenariusza1!K10-WynikiScenariusza2!K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>ABS(WynikiScenariusza1!L10-WynikiScenariusza2!L10)</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>ABS(WynikiScenariusza1!M10-WynikiScenariusza2!M10)</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f>ABS(WynikiScenariusza1!N10-WynikiScenariusza2!N10)</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>ABS(WynikiScenariusza1!O10-WynikiScenariusza2!O10)</f>
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f>ABS(WynikiScenariusza1!P10-WynikiScenariusza2!P10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>ABS(WynikiScenariusza1!Q10-WynikiScenariusza2!Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f>ABS(WynikiScenariusza1!R10-WynikiScenariusza2!R10)</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>ABS(WynikiScenariusza1!S10-WynikiScenariusza2!S10)</f>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f>ABS(WynikiScenariusza1!T10-WynikiScenariusza2!T10)</f>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f>ABS(WynikiScenariusza1!U10-WynikiScenariusza2!U10)</f>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <f>ABS(WynikiScenariusza1!V10-WynikiScenariusza2!V10)</f>
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <f>ABS(WynikiScenariusza1!W10-WynikiScenariusza2!W10)</f>
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <f>ABS(WynikiScenariusza1!X10-WynikiScenariusza2!X10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>ABS(WynikiScenariusza1!B11-WynikiScenariusza2!B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>ABS(WynikiScenariusza1!C11-WynikiScenariusza2!C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>ABS(WynikiScenariusza1!D11-WynikiScenariusza2!D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>ABS(WynikiScenariusza1!E11-WynikiScenariusza2!E11)</f>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f>ABS(WynikiScenariusza1!F11-WynikiScenariusza2!F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>ABS(WynikiScenariusza1!G11-WynikiScenariusza2!G11)</f>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f>ABS(WynikiScenariusza1!H11-WynikiScenariusza2!H11)</f>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f>ABS(WynikiScenariusza1!I11-WynikiScenariusza2!I11)</f>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f>ABS(WynikiScenariusza1!J11-WynikiScenariusza2!J11)</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>ABS(WynikiScenariusza1!K11-WynikiScenariusza2!K11)</f>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <f>ABS(WynikiScenariusza1!L11-WynikiScenariusza2!L11)</f>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <f>ABS(WynikiScenariusza1!M11-WynikiScenariusza2!M11)</f>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f>ABS(WynikiScenariusza1!N11-WynikiScenariusza2!N11)</f>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f>ABS(WynikiScenariusza1!O11-WynikiScenariusza2!O11)</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>ABS(WynikiScenariusza1!P11-WynikiScenariusza2!P11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f>ABS(WynikiScenariusza1!Q11-WynikiScenariusza2!Q11)</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f>ABS(WynikiScenariusza1!R11-WynikiScenariusza2!R11)</f>
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f>ABS(WynikiScenariusza1!S11-WynikiScenariusza2!S11)</f>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f>ABS(WynikiScenariusza1!T11-WynikiScenariusza2!T11)</f>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f>ABS(WynikiScenariusza1!U11-WynikiScenariusza2!U11)</f>
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <f>ABS(WynikiScenariusza1!V11-WynikiScenariusza2!V11)</f>
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <f>ABS(WynikiScenariusza1!W11-WynikiScenariusza2!W11)</f>
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <f>ABS(WynikiScenariusza1!X11-WynikiScenariusza2!X11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>ABS(WynikiScenariusza1!B12-WynikiScenariusza2!B12)</f>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>ABS(WynikiScenariusza1!C12-WynikiScenariusza2!C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>ABS(WynikiScenariusza1!D12-WynikiScenariusza2!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>ABS(WynikiScenariusza1!E12-WynikiScenariusza2!E12)</f>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f>ABS(WynikiScenariusza1!F12-WynikiScenariusza2!F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>ABS(WynikiScenariusza1!G12-WynikiScenariusza2!G12)</f>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f>ABS(WynikiScenariusza1!H12-WynikiScenariusza2!H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>ABS(WynikiScenariusza1!I12-WynikiScenariusza2!I12)</f>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f>ABS(WynikiScenariusza1!J12-WynikiScenariusza2!J12)</f>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <f>ABS(WynikiScenariusza1!K12-WynikiScenariusza2!K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>ABS(WynikiScenariusza1!L12-WynikiScenariusza2!L12)</f>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f>ABS(WynikiScenariusza1!M12-WynikiScenariusza2!M12)</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f>ABS(WynikiScenariusza1!N12-WynikiScenariusza2!N12)</f>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>ABS(WynikiScenariusza1!O12-WynikiScenariusza2!O12)</f>
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f>ABS(WynikiScenariusza1!P12-WynikiScenariusza2!P12)</f>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f>ABS(WynikiScenariusza1!Q12-WynikiScenariusza2!Q12)</f>
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f>ABS(WynikiScenariusza1!R12-WynikiScenariusza2!R12)</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f>ABS(WynikiScenariusza1!S12-WynikiScenariusza2!S12)</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f>ABS(WynikiScenariusza1!T12-WynikiScenariusza2!T12)</f>
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <f>ABS(WynikiScenariusza1!U12-WynikiScenariusza2!U12)</f>
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <f>ABS(WynikiScenariusza1!V12-WynikiScenariusza2!V12)</f>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f>ABS(WynikiScenariusza1!W12-WynikiScenariusza2!W12)</f>
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <f>ABS(WynikiScenariusza1!X12-WynikiScenariusza2!X12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>ABS(WynikiScenariusza1!B13-WynikiScenariusza2!B13)</f>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f>ABS(WynikiScenariusza1!C13-WynikiScenariusza2!C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>ABS(WynikiScenariusza1!D13-WynikiScenariusza2!D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>ABS(WynikiScenariusza1!E13-WynikiScenariusza2!E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>ABS(WynikiScenariusza1!F13-WynikiScenariusza2!F13)</f>
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f>ABS(WynikiScenariusza1!G13-WynikiScenariusza2!G13)</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>ABS(WynikiScenariusza1!H13-WynikiScenariusza2!H13)</f>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>ABS(WynikiScenariusza1!I13-WynikiScenariusza2!I13)</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>ABS(WynikiScenariusza1!J13-WynikiScenariusza2!J13)</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>ABS(WynikiScenariusza1!K13-WynikiScenariusza2!K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>ABS(WynikiScenariusza1!L13-WynikiScenariusza2!L13)</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>ABS(WynikiScenariusza1!M13-WynikiScenariusza2!M13)</f>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f>ABS(WynikiScenariusza1!N13-WynikiScenariusza2!N13)</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>ABS(WynikiScenariusza1!O13-WynikiScenariusza2!O13)</f>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f>ABS(WynikiScenariusza1!P13-WynikiScenariusza2!P13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f>ABS(WynikiScenariusza1!Q13-WynikiScenariusza2!Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f>ABS(WynikiScenariusza1!R13-WynikiScenariusza2!R13)</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f>ABS(WynikiScenariusza1!S13-WynikiScenariusza2!S13)</f>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f>ABS(WynikiScenariusza1!T13-WynikiScenariusza2!T13)</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>ABS(WynikiScenariusza1!U13-WynikiScenariusza2!U13)</f>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f>ABS(WynikiScenariusza1!V13-WynikiScenariusza2!V13)</f>
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f>ABS(WynikiScenariusza1!W13-WynikiScenariusza2!W13)</f>
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <f>ABS(WynikiScenariusza1!X13-WynikiScenariusza2!X13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>AVERAGE(B2:B14)</f>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:X18" si="0">AVERAGE(C2:C14)</f>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="0"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="0"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>B2-B18</f>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:X22" si="1">C2-C18</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>-0.15384615384615385</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>-0.69230769230769229</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="1"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="1"/>
+        <v>-0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>B3-B18</f>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:X23" si="2">C3-C18</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>-0.15384615384615385</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>-0.69230769230769229</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>1.4615384615384617</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>-0.23076923076923078</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="2"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="2"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="2"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="2"/>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>B4-B18</f>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:X24" si="3">C4-C18</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>-0.15384615384615385</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>-0.92307692307692313</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="3"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="3"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="3"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="3"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="3"/>
+        <v>1.4615384615384617</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f>B5-B18</f>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:X25" si="4">C5-C18</f>
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>-0.15384615384615385</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>-0.69230769230769229</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="4"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="4"/>
+        <v>-0.23076923076923078</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="4"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="4"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="4"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="4"/>
+        <v>-0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>B6-B18</f>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:X26" si="5">C6-C18</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="5"/>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="5"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="5"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="5"/>
+        <v>-0.23076923076923078</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="5"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="5"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="5"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="5"/>
+        <v>-0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>B7-B18</f>
+        <v>1.4615384615384617</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:X27" si="6">C7-C18</f>
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="6"/>
+        <v>-0.15384615384615385</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="6"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="6"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>-0.92307692307692313</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="6"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="6"/>
+        <v>-0.69230769230769229</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="6"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="6"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="6"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="6"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="6"/>
+        <v>-0.23076923076923078</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="6"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="6"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="6"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="6"/>
+        <v>-0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>B8-B18</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:X28" si="7">C8-C18</f>
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="7"/>
+        <v>-0.15384615384615385</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="7"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="7"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="7"/>
+        <v>-0.92307692307692313</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="7"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="7"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="7"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="7"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="7"/>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="7"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="7"/>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="7"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="7"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="7"/>
+        <v>1.5384615384615383</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="7"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="7"/>
+        <v>-0.23076923076923078</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="7"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="7"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="7"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="7"/>
+        <v>-0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>B9-B18</f>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:X29" si="8">C9-C18</f>
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="8"/>
+        <v>-0.15384615384615385</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="8"/>
+        <v>-0.69230769230769229</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="8"/>
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="8"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="8"/>
+        <v>1.4615384615384617</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="8"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="8"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="8"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="8"/>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="8"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="8"/>
+        <v>1.3846153846153846</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="8"/>
+        <v>1.4615384615384617</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="8"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="8"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="8"/>
+        <v>-0.23076923076923078</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="8"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="8"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="8"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="8"/>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>B10-B18</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:X30" si="9">C10-C18</f>
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="9"/>
+        <v>-0.15384615384615385</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="9"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="9"/>
+        <v>1.4615384615384617</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="9"/>
+        <v>-0.92307692307692313</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="9"/>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="9"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="9"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="9"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="9"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="9"/>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="9"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="9"/>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="9"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="9"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="9"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="9"/>
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="9"/>
+        <v>-0.23076923076923078</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="9"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="9"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="9"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="9"/>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>B11-B18</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:X31" si="10">C11-C18</f>
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="10"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="10"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="10"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="10"/>
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="10"/>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="10"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="10"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="10"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="10"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="10"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="10"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="10"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="10"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="10"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="10"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="10"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="10"/>
+        <v>-0.23076923076923078</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="10"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="10"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="10"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="10"/>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>B12-B18</f>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:X32" si="11">C12-C18</f>
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="11"/>
+        <v>-0.15384615384615385</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="11"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="11"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="11"/>
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="11"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="11"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="11"/>
+        <v>-0.69230769230769229</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="11"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="11"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="11"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="11"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="11"/>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="11"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="11"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="11"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="11"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="11"/>
+        <v>-0.23076923076923078</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="11"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="11"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="11"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="11"/>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>B13-B18</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:X33" si="12">C13-C18</f>
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="12"/>
+        <v>-0.15384615384615385</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="12"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="12"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="12"/>
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="12"/>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="12"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="12"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="12"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="12"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="12"/>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="12"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="12"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="12"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="12"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="12"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="12"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="12"/>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="12"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="12"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="12"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="12"/>
+        <v>-0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>B14-B18</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:X34" si="13">C14-C18</f>
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="13"/>
+        <v>-0.15384615384615385</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="13"/>
+        <v>-0.69230769230769229</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="13"/>
+        <v>1.4615384615384617</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="13"/>
+        <v>7.6923076923076872E-2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="13"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="13"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="13"/>
+        <v>-0.69230769230769229</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="13"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="13"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="13"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="13"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="13"/>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="13"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="13"/>
+        <v>-0.53846153846153844</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="13"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="13"/>
+        <v>-0.38461538461538464</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="13"/>
+        <v>-0.23076923076923078</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="13"/>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="13"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="13"/>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="13"/>
+        <v>-0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>POWER(B22,2)</f>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:X49" si="14">POWER(C22,2)</f>
+        <v>0.47928994082840232</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="14"/>
+        <v>2.3668639053254441E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="14"/>
+        <v>0.47928994082840232</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="14"/>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="14"/>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" ref="B38:Q51" si="15">POWER(B23,2)</f>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="15"/>
+        <v>0.47928994082840232</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="15"/>
+        <v>2.3668639053254441E-2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="15"/>
+        <v>0.47928994082840232</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="15"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="15"/>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="15"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="15"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="15"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="15"/>
+        <v>2.1360946745562135</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="15"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="15"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="15"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="15"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="15"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="15"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="14"/>
+        <v>5.3254437869822494E-2</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" si="15"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="14"/>
+        <v>0.47928994082840232</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="14"/>
+        <v>2.3668639053254441E-2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="14"/>
+        <v>0.8520710059171599</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="14"/>
+        <v>2.609467455621302</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="14"/>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="14"/>
+        <v>2.1360946745562135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" si="15"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="14"/>
+        <v>2.3668639053254441E-2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="14"/>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="14"/>
+        <v>0.47928994082840232</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="14"/>
+        <v>5.3254437869822494E-2</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" si="15"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="14"/>
+        <v>0.47928994082840232</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="14"/>
+        <v>0.71597633136094674</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="14"/>
+        <v>1.1597633136094674</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="14"/>
+        <v>5.3254437869822494E-2</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" si="15"/>
+        <v>2.1360946745562135</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="14"/>
+        <v>2.3668639053254441E-2</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="14"/>
+        <v>0.8520710059171599</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="14"/>
+        <v>0.47928994082840232</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="14"/>
+        <v>2.609467455621302</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="14"/>
+        <v>5.3254437869822494E-2</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="15"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="14"/>
+        <v>2.3668639053254441E-2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="14"/>
+        <v>0.8520710059171599</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="14"/>
+        <v>2.3668639053254434</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="14"/>
+        <v>5.3254437869822494E-2</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" si="15"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="14"/>
+        <v>2.3668639053254441E-2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="14"/>
+        <v>0.47928994082840232</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="14"/>
+        <v>1.1597633136094674</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="14"/>
+        <v>2.1360946745562135</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="14"/>
+        <v>1.9171597633136093</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="14"/>
+        <v>2.1360946745562135</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="14"/>
+        <v>5.3254437869822494E-2</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="15"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="14"/>
+        <v>2.3668639053254441E-2</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="14"/>
+        <v>2.1360946745562135</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="14"/>
+        <v>0.8520710059171599</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="14"/>
+        <v>2.609467455621302</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="14"/>
+        <v>5.3254437869822494E-2</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="15"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="14"/>
+        <v>0.71597633136094674</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="14"/>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="14"/>
+        <v>5.3254437869822494E-2</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="15"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="14"/>
+        <v>2.3668639053254441E-2</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="14"/>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="14"/>
+        <v>0.47928994082840232</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="14"/>
+        <v>5.3254437869822494E-2</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="15"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="14"/>
+        <v>2.3668639053254441E-2</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="14"/>
+        <v>1.1597633136094674</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="14"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="14"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="14"/>
+        <v>0.59171597633136086</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="14"/>
+        <v>0.28994082840236685</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="15"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="14"/>
+        <v>9.4674556213017763E-2</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="14"/>
+        <v>2.3668639053254441E-2</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="14"/>
+        <v>0.47928994082840232</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="14"/>
+        <v>2.1360946745562135</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="14"/>
+        <v>5.9171597633136015E-3</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="14"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="I49">
+        <f t="shared" ref="I49:X49" si="16">POWER(I34,2)</f>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="16"/>
+        <v>0.47928994082840232</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="16"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="16"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="16"/>
+        <v>0.14792899408284022</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="16"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="16"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="16"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="16"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="16"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="16"/>
+        <v>0.14792899408284024</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="16"/>
+        <v>5.3254437869822494E-2</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="16"/>
+        <v>0.21301775147928997</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="16"/>
+        <v>0.37869822485207105</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="16"/>
+        <v>0.28994082840236685</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="16"/>
+        <v>0.28994082840236685</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f>SUM(B37:B49)</f>
+        <v>5.2307692307692317</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:X52" si="17">SUM(C37:C49)</f>
+        <v>2.7692307692307692</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="17"/>
+        <v>1.6923076923076921</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="17"/>
+        <v>2.7692307692307692</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="17"/>
+        <v>7.2307692307692317</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="17"/>
+        <v>6.9230769230769234</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="17"/>
+        <v>3.076923076923078</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="17"/>
+        <v>5.2307692307692317</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="17"/>
+        <v>2.7692307692307692</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="17"/>
+        <v>5.2307692307692317</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="17"/>
+        <v>3.2307692307692313</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="17"/>
+        <v>3.0769230769230775</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="17"/>
+        <v>3.076923076923078</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="17"/>
+        <v>5.0769230769230775</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="17"/>
+        <v>7.0769230769230784</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="17"/>
+        <v>5.2307692307692308</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="17"/>
+        <v>5.2307692307692308</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="17"/>
+        <v>5.0769230769230775</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="17"/>
+        <v>2.3076923076923079</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="17"/>
+        <v>3.2307692307692308</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="17"/>
+        <v>3.076923076923078</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="17"/>
+        <v>3.2307692307692304</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="17"/>
+        <v>5.2307692307692317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f>SQRT(B52)</f>
+        <v>2.2870874995874626</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:X55" si="18">SQRT(C52)</f>
+        <v>1.6641005886756874</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="18"/>
+        <v>1.3008872711759816</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="18"/>
+        <v>1.6641005886756874</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="18"/>
+        <v>2.6890089681459286</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="18"/>
+        <v>2.6311740579210876</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="18"/>
+        <v>1.7541160386140586</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="18"/>
+        <v>2.2870874995874626</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="18"/>
+        <v>1.6641005886756874</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="18"/>
+        <v>2.2870874995874626</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="18"/>
+        <v>1.7974340685458343</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="18"/>
+        <v>1.7541160386140586</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="18"/>
+        <v>1.7541160386140586</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="18"/>
+        <v>2.2532028485964326</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="18"/>
+        <v>2.6602486870447053</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="18"/>
+        <v>2.2870874995874626</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="18"/>
+        <v>2.2870874995874626</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="18"/>
+        <v>2.2532028485964326</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="18"/>
+        <v>1.5191090506255001</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="18"/>
+        <v>1.7974340685458343</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="18"/>
+        <v>1.7541160386140586</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="18"/>
+        <v>1.7974340685458341</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="18"/>
+        <v>2.2870874995874626</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f>SQRT(13)</f>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ref="C58:X58" si="19">SQRT(13)</f>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="19"/>
+        <v>3.6055512754639891</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f>B55/B58</f>
+        <v>0.63432394240271706</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ref="C61:X61" si="20">C55/C58</f>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="20"/>
+        <v>0.36080121229410994</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="20"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="20"/>
+        <v>0.74579690114097374</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="20"/>
+        <v>0.72975638311577984</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="20"/>
+        <v>0.48650425541051995</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="20"/>
+        <v>0.63432394240271706</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="20"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="20"/>
+        <v>0.63432394240271706</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="20"/>
+        <v>0.49851851526214314</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="20"/>
+        <v>0.48650425541051995</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="20"/>
+        <v>0.48650425541051995</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="20"/>
+        <v>0.62492603112584322</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="20"/>
+        <v>0.73782023435580313</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="20"/>
+        <v>0.63432394240271706</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="20"/>
+        <v>0.63432394240271706</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="20"/>
+        <v>0.62492603112584322</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="20"/>
+        <v>0.42132504423474321</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="20"/>
+        <v>0.49851851526214314</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="20"/>
+        <v>0.48650425541051995</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="20"/>
+        <v>0.49851851526214308</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="20"/>
+        <v>0.63432394240271706</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B63" s="9">
+        <f>B18/B61</f>
+        <v>0.84887468762716534</v>
+      </c>
+      <c r="C63" s="9">
+        <f t="shared" ref="C63:X63" si="21">C18/C61</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D63" s="9">
+        <f t="shared" si="21"/>
+        <v>0.42640143271122094</v>
+      </c>
+      <c r="E63" s="9">
+        <f t="shared" si="21"/>
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="F63" s="9">
+        <f t="shared" si="21"/>
+        <v>0.72199487238115534</v>
+      </c>
+      <c r="G63" s="9">
+        <f t="shared" si="21"/>
+        <v>1.2649110640673518</v>
+      </c>
+      <c r="H63" s="9">
+        <f t="shared" si="21"/>
+        <v>1.2649110640673518</v>
+      </c>
+      <c r="I63" s="9">
+        <f t="shared" si="21"/>
+        <v>0.84887468762716534</v>
+      </c>
+      <c r="J63" s="9">
+        <f t="shared" si="21"/>
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="K63" s="9">
+        <f t="shared" si="21"/>
+        <v>0.84887468762716534</v>
+      </c>
+      <c r="L63" s="9">
+        <f t="shared" si="21"/>
+        <v>1.0801234497346432</v>
+      </c>
+      <c r="M63" s="9">
+        <f t="shared" si="21"/>
+        <v>1.2649110640673518</v>
+      </c>
+      <c r="N63" s="9">
+        <f t="shared" si="21"/>
+        <v>0.79056941504209477</v>
+      </c>
+      <c r="O63" s="9">
+        <f t="shared" si="21"/>
+        <v>0.98473192783466179</v>
+      </c>
+      <c r="P63" s="9">
+        <f t="shared" si="21"/>
+        <v>0.5212860351426869</v>
+      </c>
+      <c r="Q63" s="9">
+        <f t="shared" si="21"/>
+        <v>0.84887468762716534</v>
+      </c>
+      <c r="R63" s="9">
+        <f t="shared" si="21"/>
+        <v>0.72760687510899891</v>
+      </c>
+      <c r="S63" s="9">
+        <f t="shared" si="21"/>
+        <v>0.61545745489666359</v>
+      </c>
+      <c r="T63" s="9">
+        <f t="shared" si="21"/>
+        <v>0.54772255750516607</v>
+      </c>
+      <c r="U63" s="9">
+        <f t="shared" si="21"/>
+        <v>0.92582009977255142</v>
+      </c>
+      <c r="V63" s="9">
+        <f t="shared" si="21"/>
+        <v>0.79056941504209477</v>
+      </c>
+      <c r="W63" s="9">
+        <f t="shared" si="21"/>
+        <v>0.92582009977255153</v>
+      </c>
+      <c r="X63" s="9">
+        <f t="shared" si="21"/>
+        <v>0.84887468762716534</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
   <si>
     <t>Bartek_2</t>
   </si>
@@ -1260,6 +1260,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>http://www.socscistatistics.com/tests/studentttest/Default2.aspx</t>
   </si>
 </sst>
 </file>
@@ -5227,7 +5230,7 @@
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G13"/>
+      <selection activeCell="L1" sqref="L1:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6203,8 +6206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11972,7 +11975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -16275,10 +16278,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X87"/>
+  <dimension ref="A2:X90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22363,6 +22366,11 @@
         <v>-0.21366815983794593</v>
       </c>
     </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="WynikiScenariusza1" sheetId="3" r:id="rId2"/>
-    <sheet name="WynikiScenariusza2" sheetId="4" r:id="rId3"/>
-    <sheet name="Wykresy" sheetId="7" r:id="rId4"/>
-    <sheet name="ANOVA" sheetId="5" r:id="rId5"/>
-    <sheet name="t-Student" sheetId="6" r:id="rId6"/>
-    <sheet name="t-Student2" sheetId="9" r:id="rId7"/>
+    <sheet name="WynikiScenariusza3" sheetId="10" r:id="rId2"/>
+    <sheet name="WynikiScenariusza1" sheetId="3" r:id="rId3"/>
+    <sheet name="WynikiScenariusza2" sheetId="4" r:id="rId4"/>
+    <sheet name="Wykresy" sheetId="7" r:id="rId5"/>
+    <sheet name="ANOVA" sheetId="5" r:id="rId6"/>
+    <sheet name="t-Student" sheetId="6" r:id="rId7"/>
+    <sheet name="t-Student2" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
   <si>
     <t>Bartek_2</t>
   </si>
@@ -1264,6 +1265,54 @@
   <si>
     <t>http://www.socscistatistics.com/tests/studentttest/Default2.aspx</t>
   </si>
+  <si>
+    <t>PUPPIES.mp4_7000k.raw</t>
+  </si>
+  <si>
+    <t>PUPPIES.mp4_1500k.raw</t>
+  </si>
+  <si>
+    <t>PUPPIES.mp4_9000k.raw</t>
+  </si>
+  <si>
+    <t>PUPPIES.mp4_4000k.raw</t>
+  </si>
+  <si>
+    <t>Chimei.mp4_1500k.raw</t>
+  </si>
+  <si>
+    <t>PUPPIES.mp4_3000k.raw</t>
+  </si>
+  <si>
+    <t>PUPPIES.mp4_2000k.raw</t>
+  </si>
+  <si>
+    <t>Chimei.mp4_2000k.raw</t>
+  </si>
+  <si>
+    <t>Puppies_9000k</t>
+  </si>
+  <si>
+    <t>Puppies_7000k</t>
+  </si>
+  <si>
+    <t>Puppies_4000k</t>
+  </si>
+  <si>
+    <t>Puppies_3000k</t>
+  </si>
+  <si>
+    <t>Puppies_1500k</t>
+  </si>
+  <si>
+    <t>Chimei_1500k</t>
+  </si>
+  <si>
+    <t>Chimei_2000k</t>
+  </si>
+  <si>
+    <t>Puppies_2000k</t>
+  </si>
 </sst>
 </file>
 
@@ -1332,7 +1381,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1375,8 +1424,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1384,12 +1439,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1401,6 +1508,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -1640,11 +1770,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="171582432"/>
-        <c:axId val="171582992"/>
+        <c:axId val="173219616"/>
+        <c:axId val="173220176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="171582432"/>
+        <c:axId val="173219616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1686,7 +1816,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171582992"/>
+        <c:crossAx val="173220176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1694,7 +1824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171582992"/>
+        <c:axId val="173220176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1745,7 +1875,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171582432"/>
+        <c:crossAx val="173219616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2637,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5227,10 +5357,860 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E1" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F1" s="9">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H1" s="9">
+        <v>2</v>
+      </c>
+      <c r="I1" s="9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>-3</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="9">
+        <v>-3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>-3</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>-3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>-3</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>-3</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>-3</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>-2</v>
+      </c>
+      <c r="E11" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>-2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>-3</v>
+      </c>
+      <c r="F12" s="9">
+        <v>-2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>-2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="9">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="9">
+        <v>-2</v>
+      </c>
+      <c r="E13" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" t="s">
+        <v>26</v>
+      </c>
+      <c r="U23" t="s">
+        <v>29</v>
+      </c>
+      <c r="V23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W23" t="s">
+        <v>35</v>
+      </c>
+      <c r="X23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" s="13">
+        <v>5</v>
+      </c>
+      <c r="M24" s="13">
+        <v>5</v>
+      </c>
+      <c r="N24" s="17"/>
+      <c r="O24" s="13">
+        <v>5</v>
+      </c>
+      <c r="P24" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>5</v>
+      </c>
+      <c r="R24" s="13">
+        <v>4</v>
+      </c>
+      <c r="S24" s="13">
+        <v>5</v>
+      </c>
+      <c r="T24" s="13">
+        <v>5</v>
+      </c>
+      <c r="U24" s="13">
+        <v>5</v>
+      </c>
+      <c r="V24" s="13">
+        <v>5</v>
+      </c>
+      <c r="W24" s="13">
+        <v>5</v>
+      </c>
+      <c r="X24" s="13"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="15">
+        <v>5</v>
+      </c>
+      <c r="M25" s="15">
+        <v>5</v>
+      </c>
+      <c r="N25" s="18"/>
+      <c r="O25" s="15">
+        <v>5</v>
+      </c>
+      <c r="P25" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>5</v>
+      </c>
+      <c r="R25" s="15">
+        <v>5</v>
+      </c>
+      <c r="S25" s="15">
+        <v>4</v>
+      </c>
+      <c r="T25" s="15">
+        <v>5</v>
+      </c>
+      <c r="U25" s="15">
+        <v>5</v>
+      </c>
+      <c r="V25" s="15">
+        <v>5</v>
+      </c>
+      <c r="W25" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="X25" s="15"/>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" s="15">
+        <v>4</v>
+      </c>
+      <c r="M26" s="15">
+        <v>3</v>
+      </c>
+      <c r="N26" s="18"/>
+      <c r="O26" s="15">
+        <v>4</v>
+      </c>
+      <c r="P26" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>4</v>
+      </c>
+      <c r="R26" s="15">
+        <v>4</v>
+      </c>
+      <c r="S26" s="15">
+        <v>4</v>
+      </c>
+      <c r="T26" s="15">
+        <v>4</v>
+      </c>
+      <c r="U26" s="15">
+        <v>5</v>
+      </c>
+      <c r="V26" s="15">
+        <v>4</v>
+      </c>
+      <c r="W26" s="15">
+        <v>4</v>
+      </c>
+      <c r="X26" s="15"/>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" s="15">
+        <v>2</v>
+      </c>
+      <c r="M27" s="15">
+        <v>2</v>
+      </c>
+      <c r="N27" s="18"/>
+      <c r="O27" s="15">
+        <v>2</v>
+      </c>
+      <c r="P27" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>3</v>
+      </c>
+      <c r="R27" s="15">
+        <v>2</v>
+      </c>
+      <c r="S27" s="15">
+        <v>3</v>
+      </c>
+      <c r="T27" s="15">
+        <v>1</v>
+      </c>
+      <c r="U27" s="15">
+        <v>3</v>
+      </c>
+      <c r="V27" s="15">
+        <v>3</v>
+      </c>
+      <c r="W27" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="X27" s="15"/>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28" s="15">
+        <v>3</v>
+      </c>
+      <c r="M28" s="15">
+        <v>2</v>
+      </c>
+      <c r="N28" s="18"/>
+      <c r="O28" s="15">
+        <v>2</v>
+      </c>
+      <c r="P28" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>3</v>
+      </c>
+      <c r="R28" s="15">
+        <v>3</v>
+      </c>
+      <c r="S28" s="15">
+        <v>3</v>
+      </c>
+      <c r="T28" s="19">
+        <v>4</v>
+      </c>
+      <c r="U28" s="15">
+        <v>3</v>
+      </c>
+      <c r="V28" s="15">
+        <v>4</v>
+      </c>
+      <c r="W28" s="15">
+        <v>4</v>
+      </c>
+      <c r="X28" s="15"/>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L29" s="15">
+        <v>3</v>
+      </c>
+      <c r="M29" s="15">
+        <v>2</v>
+      </c>
+      <c r="N29" s="18"/>
+      <c r="O29" s="15">
+        <v>2</v>
+      </c>
+      <c r="P29" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>3</v>
+      </c>
+      <c r="R29" s="15">
+        <v>3</v>
+      </c>
+      <c r="S29" s="15">
+        <v>3</v>
+      </c>
+      <c r="T29" s="15">
+        <v>1</v>
+      </c>
+      <c r="U29" s="15">
+        <v>3</v>
+      </c>
+      <c r="V29" s="15">
+        <v>4</v>
+      </c>
+      <c r="W29" s="15">
+        <v>2</v>
+      </c>
+      <c r="X29" s="15"/>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="L30" s="15">
+        <v>2</v>
+      </c>
+      <c r="M30" s="15">
+        <v>2</v>
+      </c>
+      <c r="N30" s="18"/>
+      <c r="O30" s="15">
+        <v>2</v>
+      </c>
+      <c r="P30" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>3</v>
+      </c>
+      <c r="R30" s="15">
+        <v>2</v>
+      </c>
+      <c r="S30" s="15">
+        <v>1</v>
+      </c>
+      <c r="T30" s="15">
+        <v>1</v>
+      </c>
+      <c r="U30" s="15">
+        <v>3</v>
+      </c>
+      <c r="V30" s="15">
+        <v>3</v>
+      </c>
+      <c r="W30" s="15">
+        <v>1</v>
+      </c>
+      <c r="X30" s="15"/>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K31" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="L31" s="15">
+        <v>1</v>
+      </c>
+      <c r="M31" s="15">
+        <v>1</v>
+      </c>
+      <c r="N31" s="18"/>
+      <c r="O31" s="15">
+        <v>1</v>
+      </c>
+      <c r="P31" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>1</v>
+      </c>
+      <c r="R31" s="15">
+        <v>1</v>
+      </c>
+      <c r="S31" s="15">
+        <v>1</v>
+      </c>
+      <c r="T31" s="15">
+        <v>1</v>
+      </c>
+      <c r="U31" s="15">
+        <v>1</v>
+      </c>
+      <c r="V31" s="15">
+        <v>1</v>
+      </c>
+      <c r="W31" s="15">
+        <v>1</v>
+      </c>
+      <c r="X31" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6197,12 +7177,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>AVERAGE(C1:C13)</f>
+        <v>1.2307692307692308</v>
+      </c>
+      <c r="H15">
+        <f>AVERAGE(H1:H13)</f>
+        <v>1.6153846153846154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X13"/>
   <sheetViews>
@@ -7182,7 +8172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X8"/>
   <sheetViews>
@@ -7799,7 +8789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z68"/>
   <sheetViews>
@@ -11971,11 +12961,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -16276,12 +17266,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X90"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:X87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20168,1223 +21158,1223 @@
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53">
-        <f>POWER(B24,2)</f>
+        <f t="shared" ref="B53:B65" si="14">POWER(B24,2)</f>
         <v>0.59171597633136086</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:X53" si="14">POWER(C24,2)</f>
+        <f t="shared" ref="C53:X53" si="15">POWER(C24,2)</f>
         <v>5.9171597633136015E-3</v>
       </c>
       <c r="D53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="E53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.37869822485207105</v>
       </c>
       <c r="F53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="G53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.5147928994082842</v>
       </c>
       <c r="H53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.28994082840236696</v>
       </c>
       <c r="I53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.85207100591716023</v>
       </c>
       <c r="J53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="K53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="L53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3668639053254406E-2</v>
       </c>
       <c r="M53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="N53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="O53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="P53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.85207100591716023</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.71597633136094618</v>
       </c>
       <c r="R53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.59171597633136086</v>
       </c>
       <c r="S53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3668639053254406E-2</v>
       </c>
       <c r="T53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21301775147928986</v>
       </c>
       <c r="U53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.47928994082840265</v>
       </c>
       <c r="V53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="W53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="X53">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.28994082840236673</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54">
-        <f>POWER(B25,2)</f>
+        <f t="shared" si="14"/>
         <v>0.59171597633136086</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:X54" si="15">POWER(C25,2)</f>
+        <f t="shared" ref="C54:X54" si="16">POWER(C25,2)</f>
         <v>5.9171597633136015E-3</v>
       </c>
       <c r="D54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="E54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.37869822485207105</v>
       </c>
       <c r="F54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="G54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.5147928994082842</v>
       </c>
       <c r="H54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.28994082840236696</v>
       </c>
       <c r="I54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.85207100591716023</v>
       </c>
       <c r="J54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="K54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.1360946745562135</v>
       </c>
       <c r="L54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.3313609467455618</v>
       </c>
       <c r="M54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.85207100591716023</v>
       </c>
       <c r="N54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="O54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="P54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.71597633136094618</v>
       </c>
       <c r="R54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.59171597633136086</v>
       </c>
       <c r="S54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.71597633136094696</v>
       </c>
       <c r="T54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.21301775147928986</v>
       </c>
       <c r="U54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.47928994082840265</v>
       </c>
       <c r="V54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.7100591715976325</v>
       </c>
       <c r="W54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="X54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.3668639053254434</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55">
-        <f>POWER(B26,2)</f>
+        <f t="shared" si="14"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:X55" si="16">POWER(C26,2)</f>
+        <f t="shared" ref="C55:X55" si="17">POWER(C26,2)</f>
         <v>5.9171597633136015E-3</v>
       </c>
       <c r="D55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="E55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14792899408284022</v>
       </c>
       <c r="F55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="G55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="H55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.21301775147928986</v>
       </c>
       <c r="I55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="J55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="K55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="L55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.3668639053254406E-2</v>
       </c>
       <c r="M55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="N55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="O55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.59171597633136086</v>
       </c>
       <c r="P55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.1597633136094669</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.71597633136094618</v>
       </c>
       <c r="R55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.59171597633136086</v>
       </c>
       <c r="S55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.3668639053254406E-2</v>
       </c>
       <c r="T55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.28994082840236696</v>
       </c>
       <c r="U55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="V55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="W55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="X55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.28994082840236673</v>
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56">
-        <f>POWER(B27,2)</f>
+        <f t="shared" si="14"/>
         <v>0.59171597633136086</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:X56" si="17">POWER(C27,2)</f>
+        <f t="shared" ref="C56:X56" si="18">POWER(C27,2)</f>
         <v>5.9171597633136015E-3</v>
       </c>
       <c r="D56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="E56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.37869822485207105</v>
       </c>
       <c r="F56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="H56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.21301775147928986</v>
       </c>
       <c r="I56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.85207100591716023</v>
       </c>
       <c r="J56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="K56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="L56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.3668639053254406E-2</v>
       </c>
       <c r="M56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="N56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="O56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="P56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.85207100591716023</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.3668639053254541E-2</v>
       </c>
       <c r="R56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="S56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.71597633136094696</v>
       </c>
       <c r="T56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.21301775147928986</v>
       </c>
       <c r="U56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="V56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="W56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="X56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.28994082840236673</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57">
-        <f>POWER(B28,2)</f>
+        <f t="shared" si="14"/>
         <v>0.59171597633136086</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:X57" si="18">POWER(C28,2)</f>
+        <f t="shared" ref="C57:X57" si="19">POWER(C28,2)</f>
         <v>0.8520710059171599</v>
       </c>
       <c r="D57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.8639053254437878</v>
       </c>
       <c r="E57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.37869822485207105</v>
       </c>
       <c r="F57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="H57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.28994082840236696</v>
       </c>
       <c r="I57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.1597633136094669</v>
       </c>
       <c r="J57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="K57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="L57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.3668639053254406E-2</v>
       </c>
       <c r="M57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.85207100591716023</v>
       </c>
       <c r="N57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.1360946745562135</v>
       </c>
       <c r="O57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="P57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.3313609467455629</v>
       </c>
       <c r="R57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="S57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.3668639053254406E-2</v>
       </c>
       <c r="T57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.28994082840236696</v>
       </c>
       <c r="U57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.47928994082840265</v>
       </c>
       <c r="V57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="W57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="X57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.28994082840236673</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58">
-        <f>POWER(B29,2)</f>
+        <f t="shared" si="14"/>
         <v>1.5147928994082842</v>
       </c>
       <c r="C58">
-        <f t="shared" ref="C58:X58" si="19">POWER(C29,2)</f>
+        <f t="shared" ref="C58:X58" si="20">POWER(C29,2)</f>
         <v>5.9171597633136015E-3</v>
       </c>
       <c r="D58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="E58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.14792899408284022</v>
       </c>
       <c r="F58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="H58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.21301775147928986</v>
       </c>
       <c r="I58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="J58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="L58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.3668639053254406E-2</v>
       </c>
       <c r="M58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="N58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="O58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="P58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.85207100591716023</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.3668639053254541E-2</v>
       </c>
       <c r="R58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.59171597633136086</v>
       </c>
       <c r="S58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.3668639053254406E-2</v>
       </c>
       <c r="T58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.28994082840236696</v>
       </c>
       <c r="U58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="V58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="W58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="X58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.21301775147929006</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59">
-        <f>POWER(B30,2)</f>
+        <f t="shared" si="14"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:X59" si="20">POWER(C30,2)</f>
+        <f t="shared" ref="C59:X59" si="21">POWER(C30,2)</f>
         <v>5.9171597633136015E-3</v>
       </c>
       <c r="D59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="E59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.37869822485207105</v>
       </c>
       <c r="F59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="H59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.28994082840236696</v>
       </c>
       <c r="I59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.85207100591716023</v>
       </c>
       <c r="J59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="K59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="L59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.3313609467455618</v>
       </c>
       <c r="M59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.85207100591716023</v>
       </c>
       <c r="N59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="O59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="P59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.3668639053254541E-2</v>
       </c>
       <c r="R59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.5147928994082842</v>
       </c>
       <c r="S59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.71597633136094696</v>
       </c>
       <c r="T59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.21301775147928986</v>
       </c>
       <c r="U59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.47928994082840265</v>
       </c>
       <c r="V59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="W59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="X59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.28994082840236673</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60">
-        <f>POWER(B31,2)</f>
+        <f t="shared" si="14"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:X60" si="21">POWER(C31,2)</f>
+        <f t="shared" ref="C60:X60" si="22">POWER(C31,2)</f>
         <v>5.9171597633136015E-3</v>
       </c>
       <c r="D60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="E60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.14792899408284022</v>
       </c>
       <c r="F60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="G60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.6686390532544371</v>
       </c>
       <c r="H60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.21301775147928986</v>
       </c>
       <c r="I60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.3136094674556205</v>
       </c>
       <c r="J60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="L60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.71597633136094696</v>
       </c>
       <c r="M60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.1597633136094669</v>
       </c>
       <c r="N60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="O60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="P60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.1597633136094669</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.6390532544378713</v>
       </c>
       <c r="R60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="S60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.3668639053254406E-2</v>
       </c>
       <c r="T60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.21301775147928986</v>
       </c>
       <c r="U60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.47928994082840265</v>
       </c>
       <c r="V60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.47928994082840265</v>
       </c>
       <c r="W60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="X60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.1360946745562135</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61">
-        <f>POWER(B32,2)</f>
+        <f t="shared" si="14"/>
         <v>1.5147928994082842</v>
       </c>
       <c r="C61">
-        <f t="shared" ref="C61:X61" si="22">POWER(C32,2)</f>
+        <f t="shared" ref="C61:X61" si="23">POWER(C32,2)</f>
         <v>5.9171597633136015E-3</v>
       </c>
       <c r="D61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="E61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.14792899408284022</v>
       </c>
       <c r="F61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="G61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.59171597633136086</v>
       </c>
       <c r="H61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.21301775147928986</v>
       </c>
       <c r="I61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="J61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="K61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="L61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.71597633136094696</v>
       </c>
       <c r="M61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.1597633136094669</v>
       </c>
       <c r="N61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="O61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.59171597633136086</v>
       </c>
       <c r="P61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.1597633136094669</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.71597633136094618</v>
       </c>
       <c r="R61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.5147928994082842</v>
       </c>
       <c r="S61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.3313609467455618</v>
       </c>
       <c r="T61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.28994082840236696</v>
       </c>
       <c r="U61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="V61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.47928994082840265</v>
       </c>
       <c r="W61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="X61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2.1360946745562135</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62">
-        <f>POWER(B33,2)</f>
+        <f t="shared" si="14"/>
         <v>0.59171597633136086</v>
       </c>
       <c r="C62">
-        <f t="shared" ref="C62:X62" si="23">POWER(C33,2)</f>
+        <f t="shared" ref="C62:X62" si="24">POWER(C33,2)</f>
         <v>5.9171597633136015E-3</v>
       </c>
       <c r="D62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.47928994082840265</v>
       </c>
       <c r="E62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.14792899408284022</v>
       </c>
       <c r="F62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="H62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.28994082840236696</v>
       </c>
       <c r="I62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="J62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="K62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="L62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.3668639053254406E-2</v>
       </c>
       <c r="M62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.85207100591716023</v>
       </c>
       <c r="N62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="O62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="P62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.85207100591716023</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.71597633136094618</v>
       </c>
       <c r="R62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.59171597633136086</v>
       </c>
       <c r="S62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.3668639053254406E-2</v>
       </c>
       <c r="T62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.21301775147928986</v>
       </c>
       <c r="U62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.47928994082840265</v>
       </c>
       <c r="V62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="W62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="X62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.28994082840236673</v>
       </c>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B63">
-        <f>POWER(B34,2)</f>
+        <f t="shared" si="14"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:X63" si="24">POWER(C34,2)</f>
+        <f t="shared" ref="C63:X63" si="25">POWER(C34,2)</f>
         <v>5.9171597633136015E-3</v>
       </c>
       <c r="D63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="E63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.14792899408284022</v>
       </c>
       <c r="F63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.59171597633136086</v>
       </c>
       <c r="H63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.28994082840236696</v>
       </c>
       <c r="I63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="J63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="L63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.71597633136094696</v>
       </c>
       <c r="M63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="N63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="O63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="P63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.85207100591716023</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.71597633136094618</v>
       </c>
       <c r="R63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.59171597633136086</v>
       </c>
       <c r="S63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.3668639053254406E-2</v>
       </c>
       <c r="T63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.21301775147928986</v>
       </c>
       <c r="U63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.7100591715976325</v>
       </c>
       <c r="V63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.47928994082840265</v>
       </c>
       <c r="W63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="X63">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.21301775147929006</v>
       </c>
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B64">
-        <f>POWER(B35,2)</f>
+        <f t="shared" si="14"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:X64" si="25">POWER(C35,2)</f>
+        <f t="shared" ref="C64:X64" si="26">POWER(C35,2)</f>
         <v>5.9171597633136015E-3</v>
       </c>
       <c r="D64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="E64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.14792899408284022</v>
       </c>
       <c r="F64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="G64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.5147928994082842</v>
       </c>
       <c r="H64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.21301775147928986</v>
       </c>
       <c r="I64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="J64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="K64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="L64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.3668639053254406E-2</v>
       </c>
       <c r="M64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="N64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="O64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="P64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.3668639053254541E-2</v>
       </c>
       <c r="R64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="S64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.3668639053254406E-2</v>
       </c>
       <c r="T64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.28994082840236696</v>
       </c>
       <c r="U64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.4674556213017624E-2</v>
       </c>
       <c r="V64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.47928994082840265</v>
       </c>
       <c r="W64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.21301775147929006</v>
       </c>
       <c r="X64">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.21301775147929006</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B65">
-        <f>POWER(B36,2)</f>
+        <f t="shared" si="14"/>
         <v>5.3254437869822514E-2</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:X65" si="26">POWER(C36,2)</f>
+        <f t="shared" ref="C65:X65" si="27">POWER(C36,2)</f>
         <v>5.9171597633136015E-3</v>
       </c>
       <c r="D65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.47928994082840265</v>
       </c>
       <c r="E65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.14792899408284022</v>
       </c>
       <c r="F65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="G65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.59171597633136086</v>
       </c>
       <c r="H65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.21301775147928986</v>
       </c>
       <c r="I65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>5.9171597633135677E-3</v>
       </c>
       <c r="J65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="K65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="L65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.71597633136094696</v>
       </c>
       <c r="M65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.1597633136094669</v>
       </c>
       <c r="N65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.28994082840236673</v>
       </c>
       <c r="O65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.59171597633136086</v>
       </c>
       <c r="P65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.1597633136094669</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.3313609467455629</v>
       </c>
       <c r="R65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.5147928994082842</v>
       </c>
       <c r="S65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.3668639053254406E-2</v>
       </c>
       <c r="T65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.28994082840236696</v>
       </c>
       <c r="U65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.7100591715976325</v>
       </c>
       <c r="V65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.47928994082840265</v>
       </c>
       <c r="W65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.3668639053254434</v>
       </c>
       <c r="X65">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.21301775147929006</v>
       </c>
     </row>
@@ -21397,87 +22387,87 @@
         <v>5.2307692307692317</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:W67" si="27">SUM(C39:C51)</f>
+        <f t="shared" ref="C67:W67" si="28">SUM(C39:C51)</f>
         <v>14.236686390532549</v>
       </c>
       <c r="D67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.9585798816568045</v>
       </c>
       <c r="E67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.0650887573964471</v>
       </c>
       <c r="F67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.1420118343195256</v>
       </c>
       <c r="G67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.1420118343195282</v>
       </c>
       <c r="H67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>10.988165680473372</v>
       </c>
       <c r="I67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.8816568047337281</v>
       </c>
       <c r="J67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>8.1301775147929014</v>
       </c>
       <c r="K67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6.8106508875739644</v>
       </c>
       <c r="L67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>13.153846153846155</v>
       </c>
       <c r="M67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.1301775147929005</v>
       </c>
       <c r="N67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.1538461538461551</v>
       </c>
       <c r="O67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>12.207100591715975</v>
       </c>
       <c r="P67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>10.497041420118343</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.1420118343195256</v>
       </c>
       <c r="R67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.1301775147929014</v>
       </c>
       <c r="S67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>10.852071005917164</v>
       </c>
       <c r="T67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>15.698224852071011</v>
       </c>
       <c r="U67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.7278106508875748</v>
       </c>
       <c r="V67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.0650887573964507</v>
       </c>
       <c r="W67">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.0000000000000018</v>
       </c>
       <c r="X67">
@@ -21494,87 +22484,87 @@
         <v>6.3076923076923075</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:W68" si="28">SUM(C53:C65)</f>
+        <f t="shared" ref="C68:W68" si="29">SUM(C53:C65)</f>
         <v>0.92307692307692346</v>
       </c>
       <c r="D68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.7692307692307692</v>
       </c>
       <c r="E68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.076923076923078</v>
       </c>
       <c r="F68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="G68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>14.30769230769231</v>
       </c>
       <c r="H68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.2307692307692299</v>
       </c>
       <c r="I68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.9230769230769234</v>
       </c>
       <c r="J68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="K68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.2307692307692317</v>
       </c>
       <c r="L68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.6923076923076925</v>
       </c>
       <c r="M68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>6.9230769230769242</v>
       </c>
       <c r="N68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.2307692307692317</v>
       </c>
       <c r="O68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.3076923076923079</v>
       </c>
       <c r="P68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.9230769230769234</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>11.69230769230769</v>
       </c>
       <c r="R68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>8.3076923076923084</v>
       </c>
       <c r="S68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.6923076923076934</v>
       </c>
       <c r="T68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.2307692307692304</v>
       </c>
       <c r="U68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>6.7692307692307692</v>
       </c>
       <c r="V68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.7692307692307701</v>
       </c>
       <c r="W68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.2307692307692317</v>
       </c>
       <c r="X68">
@@ -21591,87 +22581,87 @@
         <v>12</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:W72" si="29">13-1</f>
+        <f t="shared" ref="C71:W72" si="30">13-1</f>
         <v>12</v>
       </c>
       <c r="D71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="E71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="F71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="G71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="H71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="I71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="J71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="K71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="L71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="M71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="N71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="O71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="P71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="R71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="S71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="T71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="U71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="V71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="W71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="X71">
@@ -21688,87 +22678,87 @@
         <v>12</v>
       </c>
       <c r="C72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="D72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="E72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="F72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="G72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="H72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="I72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="J72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="K72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="L72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="M72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="N72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="O72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="P72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="R72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="S72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="T72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="U72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="V72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="W72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="X72">
@@ -21785,91 +22775,91 @@
         <v>0.43589743589743596</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:X75" si="30">C67/C71</f>
+        <f t="shared" ref="C75:X75" si="31">C67/C71</f>
         <v>1.1863905325443791</v>
       </c>
       <c r="D75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.16321499013806703</v>
       </c>
       <c r="E75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.75542406311637056</v>
       </c>
       <c r="F75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.4285009861932938</v>
       </c>
       <c r="G75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.59516765285996065</v>
       </c>
       <c r="H75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.91568047337278102</v>
       </c>
       <c r="I75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.32347140039447736</v>
       </c>
       <c r="J75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.67751479289940841</v>
       </c>
       <c r="K75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.56755424063116366</v>
       </c>
       <c r="L75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.0961538461538463</v>
       </c>
       <c r="M75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.59418145956607504</v>
       </c>
       <c r="N75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.42948717948717957</v>
       </c>
       <c r="O75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.0172583826429979</v>
       </c>
       <c r="P75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.87475345167652863</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.4285009861932938</v>
       </c>
       <c r="R75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.59418145956607515</v>
       </c>
       <c r="S75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.90433925049309705</v>
       </c>
       <c r="T75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.3081854043392509</v>
       </c>
       <c r="U75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.81065088757396453</v>
       </c>
       <c r="V75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.42209072978303758</v>
       </c>
       <c r="W75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.75000000000000011</v>
       </c>
       <c r="X75">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.91568047337278091</v>
       </c>
     </row>
@@ -21882,91 +22872,91 @@
         <v>0.52564102564102566</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76:X76" si="31">C68/C72</f>
+        <f t="shared" ref="C76:X76" si="32">C68/C72</f>
         <v>7.6923076923076955E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.39743589743589741</v>
       </c>
       <c r="E76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.2564102564102565</v>
       </c>
       <c r="F76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="G76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.1923076923076925</v>
       </c>
       <c r="H76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.26923076923076916</v>
       </c>
       <c r="I76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.74358974358974361</v>
       </c>
       <c r="J76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="K76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.43589743589743596</v>
       </c>
       <c r="L76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.47435897435897439</v>
       </c>
       <c r="M76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.57692307692307698</v>
       </c>
       <c r="N76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.43589743589743596</v>
       </c>
       <c r="O76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.19230769230769232</v>
       </c>
       <c r="P76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.74358974358974361</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.97435897435897412</v>
       </c>
       <c r="R76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.6923076923076924</v>
       </c>
       <c r="S76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.30769230769230776</v>
       </c>
       <c r="T76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.26923076923076922</v>
       </c>
       <c r="U76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.5641025641025641</v>
       </c>
       <c r="V76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.39743589743589752</v>
       </c>
       <c r="W76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.43589743589743596</v>
       </c>
       <c r="X76">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0.76923076923076927</v>
       </c>
     </row>
@@ -21981,91 +22971,91 @@
         <v>0.48076923076923084</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79:X79" si="32" xml:space="preserve"> C71/(C71+C72)*C75 + C72/(C71+C72)*C76</f>
+        <f t="shared" ref="C79:X79" si="33" xml:space="preserve"> C71/(C71+C72)*C75 + C72/(C71+C72)*C76</f>
         <v>0.63165680473372798</v>
       </c>
       <c r="D79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.28032544378698221</v>
       </c>
       <c r="E79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.50591715976331353</v>
       </c>
       <c r="F79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.63091715976331364</v>
       </c>
       <c r="G79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.89373767258382664</v>
       </c>
       <c r="H79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.59245562130177509</v>
       </c>
       <c r="I79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.53353057199211051</v>
       </c>
       <c r="J79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.83875739644970415</v>
       </c>
       <c r="K79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.50172583826429984</v>
       </c>
       <c r="L79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.78525641025641035</v>
       </c>
       <c r="M79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.58555226824457596</v>
       </c>
       <c r="N79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.43269230769230776</v>
       </c>
       <c r="O79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.60478303747534512</v>
       </c>
       <c r="P79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.80917159763313617</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.7014299802761339</v>
       </c>
       <c r="R79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.64324457593688378</v>
       </c>
       <c r="S79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.60601577909270243</v>
       </c>
       <c r="T79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.78870808678501003</v>
       </c>
       <c r="U79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.68737672583826437</v>
       </c>
       <c r="V79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.40976331360946755</v>
       </c>
       <c r="W79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.59294871794871806</v>
       </c>
       <c r="X79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.84245562130177509</v>
       </c>
     </row>
@@ -22080,91 +23070,91 @@
         <v>3.6982248520710068E-2</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82:X82" si="33">C79/13</f>
+        <f t="shared" ref="C82:X82" si="34">C79/13</f>
         <v>4.8588984979517538E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2.1563495675921709E-2</v>
       </c>
       <c r="E82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3.8916704597177963E-2</v>
       </c>
       <c r="F82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.8532089212562586E-2</v>
       </c>
       <c r="G82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6.8749051737217431E-2</v>
       </c>
       <c r="H82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.5573509330905773E-2</v>
       </c>
       <c r="I82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.104081323016235E-2</v>
       </c>
       <c r="J82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6.451979972690032E-2</v>
       </c>
       <c r="K82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3.8594295251099989E-2</v>
       </c>
       <c r="L82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6.0404339250493107E-2</v>
       </c>
       <c r="M82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.5042482172659687E-2</v>
       </c>
       <c r="N82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3.3284023668639057E-2</v>
       </c>
       <c r="O82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.6521772113488083E-2</v>
       </c>
       <c r="P82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6.2243969048702781E-2</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5.3956152328933374E-2</v>
       </c>
       <c r="R82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.9480351995144903E-2</v>
       </c>
       <c r="S82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.6616598391746339E-2</v>
       </c>
       <c r="T82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6.0669852829616157E-2</v>
       </c>
       <c r="U82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>5.2875132756789567E-2</v>
       </c>
       <c r="V82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>3.1520254893035962E-2</v>
       </c>
       <c r="W82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>4.5611439842209084E-2</v>
       </c>
       <c r="X82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>6.4804278561675005E-2</v>
       </c>
     </row>
@@ -22179,91 +23169,91 @@
         <v>3.6982248520710068E-2</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84:X84" si="34">C79/13</f>
+        <f t="shared" ref="C84:X84" si="35">C79/13</f>
         <v>4.8588984979517538E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>2.1563495675921709E-2</v>
       </c>
       <c r="E84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.8916704597177963E-2</v>
       </c>
       <c r="F84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.8532089212562586E-2</v>
       </c>
       <c r="G84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.8749051737217431E-2</v>
       </c>
       <c r="H84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.5573509330905773E-2</v>
       </c>
       <c r="I84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.104081323016235E-2</v>
       </c>
       <c r="J84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.451979972690032E-2</v>
       </c>
       <c r="K84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.8594295251099989E-2</v>
       </c>
       <c r="L84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.0404339250493107E-2</v>
       </c>
       <c r="M84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.5042482172659687E-2</v>
       </c>
       <c r="N84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.3284023668639057E-2</v>
       </c>
       <c r="O84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.6521772113488083E-2</v>
       </c>
       <c r="P84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.2243969048702781E-2</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>5.3956152328933374E-2</v>
       </c>
       <c r="R84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.9480351995144903E-2</v>
       </c>
       <c r="S84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.6616598391746339E-2</v>
       </c>
       <c r="T84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.0669852829616157E-2</v>
       </c>
       <c r="U84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>5.2875132756789567E-2</v>
       </c>
       <c r="V84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.1520254893035962E-2</v>
       </c>
       <c r="W84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>4.5611439842209084E-2</v>
       </c>
       <c r="X84">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>6.4804278561675005E-2</v>
       </c>
     </row>
@@ -22273,96 +23263,96 @@
       </c>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B87">
+      <c r="B87" s="11">
         <f>(B2-B3)/SQRT(B82+B84)</f>
         <v>0.84852813742385713</v>
       </c>
-      <c r="C87">
-        <f t="shared" ref="C87:X87" si="35">(C2-C3)/SQRT(C82+C84)</f>
+      <c r="C87" s="11">
+        <f t="shared" ref="C87:X87" si="36">(C2-C3)/SQRT(C82+C84)</f>
         <v>0.49351769873992901</v>
       </c>
-      <c r="D87">
-        <f t="shared" si="35"/>
+      <c r="D87" s="11">
+        <f t="shared" si="36"/>
         <v>0.74081891505795661</v>
       </c>
-      <c r="E87">
-        <f t="shared" si="35"/>
+      <c r="E87" s="11">
+        <f t="shared" si="36"/>
         <v>0.82717019186851148</v>
       </c>
-      <c r="F87">
-        <f t="shared" si="35"/>
+      <c r="F87" s="11">
+        <f t="shared" si="36"/>
         <v>1.2345172438335541</v>
       </c>
-      <c r="G87">
-        <f t="shared" si="35"/>
+      <c r="G87" s="11">
+        <f t="shared" si="36"/>
         <v>-0.41489508437011219</v>
       </c>
-      <c r="H87">
-        <f t="shared" si="35"/>
+      <c r="H87" s="11">
+        <f t="shared" si="36"/>
         <v>0.50958356109947456</v>
       </c>
-      <c r="I87">
-        <f t="shared" si="35"/>
+      <c r="I87" s="11">
+        <f t="shared" si="36"/>
         <v>0.26849343489944899</v>
       </c>
-      <c r="J87">
-        <f t="shared" si="35"/>
+      <c r="J87" s="11">
+        <f t="shared" si="36"/>
         <v>-0.21413869147987413</v>
       </c>
-      <c r="K87">
-        <f t="shared" si="35"/>
+      <c r="K87" s="11">
+        <f t="shared" si="36"/>
         <v>-0.83061801685629855</v>
       </c>
-      <c r="L87">
-        <f t="shared" si="35"/>
+      <c r="L87" s="11">
+        <f t="shared" si="36"/>
         <v>-1.1065666703449759</v>
       </c>
-      <c r="M87">
-        <f t="shared" si="35"/>
+      <c r="M87" s="11">
+        <f t="shared" si="36"/>
         <v>-0.51257862041374957</v>
       </c>
-      <c r="N87">
-        <f t="shared" si="35"/>
+      <c r="N87" s="11">
+        <f t="shared" si="36"/>
         <v>0.29814239699997092</v>
       </c>
-      <c r="O87">
-        <f t="shared" si="35"/>
+      <c r="O87" s="11">
+        <f t="shared" si="36"/>
         <v>0.50436335008755007</v>
       </c>
-      <c r="P87">
-        <f t="shared" si="35"/>
+      <c r="P87" s="11">
+        <f t="shared" si="36"/>
         <v>0.21801833108109622</v>
       </c>
-      <c r="Q87">
-        <f t="shared" si="35"/>
+      <c r="Q87" s="11">
+        <f t="shared" si="36"/>
         <v>0.70249367527126816</v>
       </c>
-      <c r="R87">
-        <f t="shared" si="35"/>
+      <c r="R87" s="11">
+        <f t="shared" si="36"/>
         <v>-0.48905224320999935</v>
       </c>
-      <c r="S87">
-        <f t="shared" si="35"/>
+      <c r="S87" s="11">
+        <f t="shared" si="36"/>
         <v>0.25192505375512014</v>
       </c>
-      <c r="T87">
-        <f t="shared" si="35"/>
+      <c r="T87" s="11">
+        <f t="shared" si="36"/>
         <v>0.66248558643571465</v>
       </c>
-      <c r="U87">
-        <f t="shared" si="35"/>
+      <c r="U87" s="11">
+        <f t="shared" si="36"/>
         <v>-0.47309233328243294</v>
       </c>
-      <c r="V87">
-        <f t="shared" si="35"/>
+      <c r="V87" s="11">
+        <f t="shared" si="36"/>
         <v>-0.30637039002566313</v>
       </c>
-      <c r="W87">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="X87">
-        <f t="shared" si="35"/>
+      <c r="W87" s="11">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="X87" s="11">
+        <f t="shared" si="36"/>
         <v>-0.21366815983794593</v>
       </c>
     </row>
@@ -22373,5 +23363,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="126">
   <si>
     <t>Bartek_2</t>
   </si>
@@ -1313,6 +1313,81 @@
   <si>
     <t>Puppies_2000k</t>
   </si>
+  <si>
+    <t>średnia</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p1.5</t>
+  </si>
+  <si>
+    <t>c1.5</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Maź</t>
+  </si>
+  <si>
+    <t>Puppies_11000k</t>
+  </si>
+  <si>
+    <t>Puppies_1000k</t>
+  </si>
+  <si>
+    <t>Chimei_1000k</t>
+  </si>
+  <si>
+    <t>Chimei_Source</t>
+  </si>
+  <si>
+    <t>Chimei_6000k</t>
+  </si>
+  <si>
+    <t>Puppies_6000k</t>
+  </si>
+  <si>
+    <t>Puppies_5000k</t>
+  </si>
+  <si>
+    <t>Puppies_8000k</t>
+  </si>
+  <si>
+    <t>Puppies_Source</t>
+  </si>
+  <si>
+    <t>Chimei_3000k</t>
+  </si>
+  <si>
+    <t>Chimei_4000k</t>
+  </si>
+  <si>
+    <t>Chimei_5000k</t>
+  </si>
+  <si>
+    <t>Chimei_9000k</t>
+  </si>
 </sst>
 </file>
 
@@ -1496,7 +1571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1531,6 +1606,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -1563,29 +1642,59 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Test1</c:v>
+            <c:v>Średnia ocena</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="28575" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
           <c:val>
             <c:numRef>
               <c:f>Wykresy!$B$2:$X$2</c:f>
@@ -1593,172 +1702,270 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>4.4615384615384617</c:v>
+                  <c:v>1.2307692307692308</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2307692307692308</c:v>
+                  <c:v>2.6153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8461538461538458</c:v>
+                  <c:v>1.6153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.6153846153846154</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2.5384615384615383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1538461538461537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>4.384615384615385</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.6153846153846154</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6153846153846154</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.1538461538461542</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.9230769230769229</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.3076923076923075</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>3.4615384615384617</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.9230769230769229</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.5384615384615383</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.9230769230769229</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.1538461538461542</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4.384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>3.6153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>4.0769230769230766</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.2307692307692308</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7692307692307692</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.1538461538461537</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.6153846153846154</c:v>
+                  <c:v>4.4615384615384617</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5384615384615383</c:v>
+                  <c:v>4.8461538461538458</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.3846153846153846</c:v>
+                  <c:v>4.5384615384615383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Test2</c:v>
+            <c:v>Najniższa ocena</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="28575" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Wykresy!$B$6:$X$6</c:f>
+              <c:f>Wykresy!$B$3:$X$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>4.2307692307692308</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0769230769230769</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6923076923076925</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3846153846153846</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Najwyższa ocena</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykresy!$B$4:$X$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7692307692307692</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4615384615384615</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0769230769230766</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5384615384615383</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8461538461538463</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.0769230769230766</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4615384615384617</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.7692307692307692</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0769230769230766</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1538461538461542</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.2307692307692308</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1538461538461537</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5384615384615385</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3076923076923075</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.6923076923076925</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5384615384615383</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.4615384615384617</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1768,11 +1975,23 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="173219616"/>
         <c:axId val="173220176"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="173219616"/>
         <c:scaling>
@@ -1780,6 +1999,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Numer sekwencji filmowej</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1844,6 +2119,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ocena filmu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1879,6 +2210,1797 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="sq">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Średnia ocena</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykresy!$B$6:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6923076923076925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5384615384615383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1538461538461537</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5384615384615383</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8461538461538463</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.6923076923076925</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4615384615384617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Najniższa ocena</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykresy!$B$7:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Najwyższa ocena</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykresy!$B$8:$X$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="302021056"/>
+        <c:axId val="409505344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="302021056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Numer sekwencji filmowej</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="409505344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="409505344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ocena filmu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302021056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="sq">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Średnia ocena 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykresy!$B$2:$X$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5384615384615383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1538461538461537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8461538461538458</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5384615384615383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Średnia ocena 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykresy!$B$6:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6923076923076925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5384615384615383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1538461538461537</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5384615384615383</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8461538461538463</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.6923076923076925</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4615384615384617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="221191072"/>
+        <c:axId val="221191632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="221191072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Numer sekwencji filmowej</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="221191632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="221191632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ocena filmu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="221191072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="sq">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Średnia ocena</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykresy!$B$10:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1538461538461537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.61538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.61538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38461538461538464</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53846153846153844</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38461538461538464</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.3076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.46153846153846156</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.15384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.6923076923076927E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Najniższa ocena</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykresy!$B$11:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Najwyższa ocena</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykresy!$B$12:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="315963760"/>
+        <c:axId val="309419584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="315963760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Numer sekwencji filmowej</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309419584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="309419584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ocena porównawcza</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315963760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln cap="sq">
@@ -1925,6 +4047,126 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2467,20 +4709,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2494,6 +6245,100 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>283845</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2768,7 +6613,7 @@
   <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+      <selection activeCell="A39" sqref="A39:P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5357,10 +9202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X31"/>
+  <dimension ref="A1:AD67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="X68" sqref="X68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5372,7 +9217,7 @@
     <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>87</v>
       </c>
@@ -5401,7 +9246,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>85</v>
       </c>
@@ -5430,7 +9275,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="16" t="s">
         <v>9</v>
@@ -5457,7 +9302,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>87</v>
       </c>
@@ -5486,7 +9331,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>88</v>
       </c>
@@ -5514,8 +9359,17 @@
       <c r="I5" s="9">
         <v>-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5">
+        <v>4.153846154</v>
+      </c>
+      <c r="R5">
+        <v>4.076923077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" t="s">
         <v>17</v>
@@ -5541,8 +9395,17 @@
       <c r="I6" s="9">
         <v>-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6">
+        <v>3.615384615</v>
+      </c>
+      <c r="R6">
+        <v>3.769230769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>85</v>
       </c>
@@ -5570,8 +9433,17 @@
       <c r="I7" s="9">
         <v>-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q7">
+        <v>2.923076923</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>86</v>
       </c>
@@ -5599,8 +9471,17 @@
       <c r="I8" s="9">
         <v>-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8">
+        <v>2.153846154</v>
+      </c>
+      <c r="R8">
+        <v>2.307692308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>26</v>
@@ -5626,8 +9507,17 @@
       <c r="I9" s="9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q9">
+        <v>1.615384615</v>
+      </c>
+      <c r="R9">
+        <v>1.461538462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>86</v>
       </c>
@@ -5655,8 +9545,17 @@
       <c r="I10" s="9">
         <v>-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q10">
+        <v>2.615384615</v>
+      </c>
+      <c r="R10">
+        <v>2.692307692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>89</v>
       </c>
@@ -5684,8 +9583,17 @@
       <c r="I11" s="9">
         <v>-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q11">
+        <v>3.230769231</v>
+      </c>
+      <c r="R11">
+        <v>3.153846154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" t="s">
         <v>35</v>
@@ -5711,8 +9619,17 @@
       <c r="I12" s="9">
         <v>-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12">
+        <v>1.769230769</v>
+      </c>
+      <c r="R12">
+        <v>1.538461538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>89</v>
       </c>
@@ -5741,25 +9658,25 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -5771,7 +9688,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>90</v>
       </c>
@@ -5785,7 +9702,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>91</v>
       </c>
@@ -5799,7 +9716,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -5810,7 +9727,7 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -5821,7 +9738,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -5864,8 +9781,11 @@
       <c r="X23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="12" t="s">
@@ -5905,9 +9825,24 @@
       <c r="W24" s="13">
         <v>5</v>
       </c>
-      <c r="X24" s="13"/>
-    </row>
-    <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X24" s="13">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="11">
+        <f>AVERAGE(L24:X24)</f>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="AB24" s="11">
+        <v>4.153846154</v>
+      </c>
+      <c r="AC24" s="11">
+        <v>4.076923077</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="14" t="s">
@@ -5947,9 +9882,24 @@
       <c r="W25" s="15">
         <v>4.5</v>
       </c>
-      <c r="X25" s="15"/>
-    </row>
-    <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X25" s="15">
+        <v>4</v>
+      </c>
+      <c r="Z25" s="11">
+        <f t="shared" ref="Z25:Z31" si="0">AVERAGE(L25:X25)</f>
+        <v>4.791666666666667</v>
+      </c>
+      <c r="AB25" s="11">
+        <v>3.615384615</v>
+      </c>
+      <c r="AC25" s="11">
+        <v>3.769230769</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="14" t="s">
@@ -5989,9 +9939,24 @@
       <c r="W26" s="15">
         <v>4</v>
       </c>
-      <c r="X26" s="15"/>
-    </row>
-    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X26" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="11">
+        <f t="shared" si="0"/>
+        <v>3.9583333333333335</v>
+      </c>
+      <c r="AB26" s="11">
+        <v>2.923076923</v>
+      </c>
+      <c r="AC26" s="11">
+        <v>3</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="14" t="s">
@@ -6031,51 +9996,82 @@
       <c r="W27" s="15">
         <v>2.5</v>
       </c>
-      <c r="X27" s="15"/>
-    </row>
-    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X27" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="11">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AB27" s="11">
+        <v>2.153846154</v>
+      </c>
+      <c r="AC27" s="11">
+        <v>2.307692308</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="14" t="s">
+      <c r="K28" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="L28" s="15">
-        <v>3</v>
-      </c>
-      <c r="M28" s="15">
+      <c r="L28" s="18">
+        <v>3</v>
+      </c>
+      <c r="M28" s="18">
         <v>2</v>
       </c>
       <c r="N28" s="18"/>
-      <c r="O28" s="15">
-        <v>2</v>
-      </c>
-      <c r="P28" s="15">
+      <c r="O28" s="18">
+        <v>2</v>
+      </c>
+      <c r="P28" s="18">
         <v>3.5</v>
       </c>
-      <c r="Q28" s="15">
-        <v>3</v>
-      </c>
-      <c r="R28" s="15">
-        <v>3</v>
-      </c>
-      <c r="S28" s="15">
+      <c r="Q28" s="18">
+        <v>3</v>
+      </c>
+      <c r="R28" s="18">
+        <v>3</v>
+      </c>
+      <c r="S28" s="18">
         <v>3</v>
       </c>
       <c r="T28" s="19">
         <v>4</v>
       </c>
-      <c r="U28" s="15">
-        <v>3</v>
-      </c>
-      <c r="V28" s="15">
-        <v>4</v>
-      </c>
-      <c r="W28" s="15">
-        <v>4</v>
-      </c>
-      <c r="X28" s="15"/>
-    </row>
-    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U28" s="18">
+        <v>3</v>
+      </c>
+      <c r="V28" s="18">
+        <v>4</v>
+      </c>
+      <c r="W28" s="18">
+        <v>4</v>
+      </c>
+      <c r="X28" s="18">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="21">
+        <f t="shared" si="0"/>
+        <v>3.0416666666666665</v>
+      </c>
+      <c r="AB28" s="11">
+        <v>1.615384615</v>
+      </c>
+      <c r="AC28" s="11">
+        <v>1.461538462</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="14" t="s">
@@ -6115,9 +10111,24 @@
       <c r="W29" s="15">
         <v>2</v>
       </c>
-      <c r="X29" s="15"/>
-    </row>
-    <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X29" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="11">
+        <f t="shared" si="0"/>
+        <v>2.625</v>
+      </c>
+      <c r="AB29" s="11">
+        <v>2.615384615</v>
+      </c>
+      <c r="AC29" s="11">
+        <v>2.692307692</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="14" t="s">
@@ -6157,9 +10168,24 @@
       <c r="W30" s="15">
         <v>1</v>
       </c>
-      <c r="X30" s="15"/>
-    </row>
-    <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X30" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="AB30" s="11">
+        <v>3.230769231</v>
+      </c>
+      <c r="AC30" s="11">
+        <v>3.153846154</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K31" s="14" t="s">
         <v>100</v>
       </c>
@@ -6197,7 +10223,1523 @@
       <c r="W31" s="15">
         <v>1</v>
       </c>
-      <c r="X31" s="15"/>
+      <c r="X31" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB31" s="11">
+        <v>1.769230769</v>
+      </c>
+      <c r="AC31" s="11">
+        <v>1.538461538</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>-1</v>
+      </c>
+      <c r="U38">
+        <v>-2</v>
+      </c>
+      <c r="V38">
+        <v>2</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>-1</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>-1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>-1</v>
+      </c>
+      <c r="S40">
+        <v>-2</v>
+      </c>
+      <c r="T40">
+        <v>-2</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>2</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>12</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>-1</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>-1</v>
+      </c>
+      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>-1</v>
+      </c>
+      <c r="V43">
+        <v>2</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>-1</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+      <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>3</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>-1</v>
+      </c>
+      <c r="T46">
+        <v>-1</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>1</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>3</v>
+      </c>
+      <c r="Y46">
+        <v>2</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>3</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>-1</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>2</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>-1</v>
+      </c>
+      <c r="V48">
+        <v>3</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>35</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+      <c r="Q49">
+        <v>3</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
+        <v>-1</v>
+      </c>
+      <c r="T49">
+        <v>-2</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>3</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>2</v>
+      </c>
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>-1</v>
+      </c>
+      <c r="V50">
+        <v>2</v>
+      </c>
+      <c r="W50">
+        <v>2</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>-1</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <f>L38*(-1)</f>
+        <v>-3</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ref="M52:Z52" si="1">M38*(-1)</f>
+        <v>-2</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>6</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53:Z63" si="2">L39*(-1)</f>
+        <v>-3</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K54" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>12</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K58" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K59" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K61" t="s">
+        <v>29</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K62" t="s">
+        <v>32</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
+        <v>35</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
+        <v>38</v>
+      </c>
+      <c r="L64">
+        <f>L50*(-1)</f>
+        <v>-3</v>
+      </c>
+      <c r="M64">
+        <f t="shared" ref="M64:Z64" si="3">M50*(-1)</f>
+        <v>-2</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X67">
+        <f>AVERAGE(X52:X64)</f>
+        <v>-0.46153846153846156</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6209,7 +11751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -8174,26 +13716,98 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" t="s">
+        <v>125</v>
+      </c>
+      <c r="V1" t="s">
+        <v>113</v>
+      </c>
+      <c r="W1" t="s">
+        <v>116</v>
+      </c>
+      <c r="X1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -8201,96 +13815,96 @@
         <v>67</v>
       </c>
       <c r="B2">
+        <f>AVERAGE(WynikiScenariusza1!C1:C13)</f>
+        <v>1.2307692307692308</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(WynikiScenariusza1!E1:E13)</f>
+        <v>2.6153846153846154</v>
+      </c>
+      <c r="D2">
+        <f>AVERAGE(WynikiScenariusza1!H1:H13)</f>
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(WynikiScenariusza1!V1:V13)</f>
+        <v>2.6153846153846154</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(WynikiScenariusza1!W1:W13)</f>
+        <v>2.5384615384615383</v>
+      </c>
+      <c r="G2">
+        <f>AVERAGE(WynikiScenariusza1!X1:X13)</f>
+        <v>2.3846153846153846</v>
+      </c>
+      <c r="H2">
+        <f>AVERAGE(WynikiScenariusza1!T1:T13)</f>
+        <v>1.7692307692307692</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(WynikiScenariusza1!S1:S13)</f>
+        <v>3.2307692307692308</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(WynikiScenariusza1!U1:U13)</f>
+        <v>2.1538461538461537</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(WynikiScenariusza1!O1:O13)</f>
+        <v>3.9230769230769229</v>
+      </c>
+      <c r="L2">
+        <f>AVERAGE(WynikiScenariusza1!J1:J13)</f>
+        <v>2.9230769230769229</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(WynikiScenariusza1!P1:P13)</f>
+        <v>4.1538461538461542</v>
+      </c>
+      <c r="N2">
+        <f>AVERAGE(WynikiScenariusza1!K1:K13)</f>
+        <v>3.3076923076923075</v>
+      </c>
+      <c r="O2">
+        <f>AVERAGE(WynikiScenariusza1!Q1:Q13)</f>
+        <v>4.384615384615385</v>
+      </c>
+      <c r="P2">
+        <f>AVERAGE(WynikiScenariusza1!L1:L13)</f>
+        <v>3.4615384615384617</v>
+      </c>
+      <c r="Q2">
+        <f>AVERAGE(WynikiScenariusza1!F1:F13)</f>
+        <v>4.384615384615385</v>
+      </c>
+      <c r="R2">
+        <f>AVERAGE(WynikiScenariusza1!G1:G13)</f>
+        <v>3.6153846153846154</v>
+      </c>
+      <c r="S2">
+        <f>AVERAGE(WynikiScenariusza1!M1:M13)</f>
+        <v>3.9230769230769229</v>
+      </c>
+      <c r="T2">
+        <f>AVERAGE(WynikiScenariusza1!I1:I13)</f>
+        <v>4.1538461538461542</v>
+      </c>
+      <c r="U2">
+        <f>AVERAGE(WynikiScenariusza1!R1:R13)</f>
+        <v>4.0769230769230766</v>
+      </c>
+      <c r="V2">
         <f>AVERAGE(WynikiScenariusza1!B1:B13)</f>
         <v>4.4615384615384617</v>
       </c>
-      <c r="C2">
-        <f>AVERAGE(WynikiScenariusza1!C1:C13)</f>
-        <v>1.2307692307692308</v>
-      </c>
-      <c r="D2">
+      <c r="W2">
         <f>AVERAGE(WynikiScenariusza1!D1:D13)</f>
         <v>4.8461538461538458</v>
       </c>
-      <c r="E2">
-        <f>AVERAGE(WynikiScenariusza1!E1:E13)</f>
-        <v>2.6153846153846154</v>
-      </c>
-      <c r="F2">
-        <f>AVERAGE(WynikiScenariusza1!F1:F13)</f>
-        <v>4.384615384615385</v>
-      </c>
-      <c r="G2">
-        <f>AVERAGE(WynikiScenariusza1!G1:G13)</f>
-        <v>3.6153846153846154</v>
-      </c>
-      <c r="H2">
-        <f>AVERAGE(WynikiScenariusza1!H1:H13)</f>
-        <v>1.6153846153846154</v>
-      </c>
-      <c r="I2">
-        <f>AVERAGE(WynikiScenariusza1!I1:I13)</f>
-        <v>4.1538461538461542</v>
-      </c>
-      <c r="J2">
-        <f>AVERAGE(WynikiScenariusza1!J1:J13)</f>
-        <v>2.9230769230769229</v>
-      </c>
-      <c r="K2">
-        <f>AVERAGE(WynikiScenariusza1!K1:K13)</f>
-        <v>3.3076923076923075</v>
-      </c>
-      <c r="L2">
-        <f>AVERAGE(WynikiScenariusza1!L1:L13)</f>
-        <v>3.4615384615384617</v>
-      </c>
-      <c r="M2">
-        <f>AVERAGE(WynikiScenariusza1!M1:M13)</f>
-        <v>3.9230769230769229</v>
-      </c>
-      <c r="N2">
+      <c r="X2">
         <f>AVERAGE(WynikiScenariusza1!N1:N13)</f>
         <v>4.5384615384615383</v>
-      </c>
-      <c r="O2">
-        <f>AVERAGE(WynikiScenariusza1!O1:O13)</f>
-        <v>3.9230769230769229</v>
-      </c>
-      <c r="P2">
-        <f>AVERAGE(WynikiScenariusza1!P1:P13)</f>
-        <v>4.1538461538461542</v>
-      </c>
-      <c r="Q2">
-        <f>AVERAGE(WynikiScenariusza1!Q1:Q13)</f>
-        <v>4.384615384615385</v>
-      </c>
-      <c r="R2">
-        <f>AVERAGE(WynikiScenariusza1!R1:R13)</f>
-        <v>4.0769230769230766</v>
-      </c>
-      <c r="S2">
-        <f>AVERAGE(WynikiScenariusza1!S1:S13)</f>
-        <v>3.2307692307692308</v>
-      </c>
-      <c r="T2">
-        <f>AVERAGE(WynikiScenariusza1!T1:T13)</f>
-        <v>1.7692307692307692</v>
-      </c>
-      <c r="U2">
-        <f>AVERAGE(WynikiScenariusza1!U1:U13)</f>
-        <v>2.1538461538461537</v>
-      </c>
-      <c r="V2">
-        <f>AVERAGE(WynikiScenariusza1!V1:V13)</f>
-        <v>2.6153846153846154</v>
-      </c>
-      <c r="W2">
-        <f>AVERAGE(WynikiScenariusza1!W1:W13)</f>
-        <v>2.5384615384615383</v>
-      </c>
-      <c r="X2">
-        <f>AVERAGE(WynikiScenariusza1!X1:X13)</f>
-        <v>2.3846153846153846</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -8298,96 +13912,96 @@
         <v>68</v>
       </c>
       <c r="B3">
+        <f>MIN(WynikiScenariusza1!C1:C13)</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>MIN(WynikiScenariusza1!E1:E13)</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>MIN(WynikiScenariusza1!H1:H13)</f>
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>MIN(WynikiScenariusza1!V1:V13)</f>
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>MIN(WynikiScenariusza1!W1:W13)</f>
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>MIN(WynikiScenariusza1!X1:X13)</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>MIN(WynikiScenariusza1!T1:T13)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>MIN(WynikiScenariusza1!S1:S13)</f>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f>MIN(WynikiScenariusza1!U1:U13)</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>MIN(WynikiScenariusza1!O1:O13)</f>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f>MIN(WynikiScenariusza1!J1:J13)</f>
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f>MIN(WynikiScenariusza1!P1:P13)</f>
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <f>MIN(WynikiScenariusza1!K1:K13)</f>
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <f>MIN(WynikiScenariusza1!Q1:Q13)</f>
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <f>MIN(WynikiScenariusza1!L1:L13)</f>
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <f>MIN(WynikiScenariusza1!F1:F13)</f>
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <f>MIN(WynikiScenariusza1!G1:G13)</f>
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <f>MIN(WynikiScenariusza1!M1:M13)</f>
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <f>MIN(WynikiScenariusza1!I1:I13)</f>
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <f>MIN(WynikiScenariusza1!R1:R13)</f>
+        <v>3</v>
+      </c>
+      <c r="V3">
         <f>MIN(WynikiScenariusza1!B1:B13)</f>
         <v>3</v>
       </c>
-      <c r="C3">
-        <f>MIN(WynikiScenariusza1!C1:C13)</f>
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="W3">
         <f>MIN(WynikiScenariusza1!D1:D13)</f>
         <v>4</v>
       </c>
-      <c r="E3">
-        <f>MIN(WynikiScenariusza1!E1:E13)</f>
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f>MIN(WynikiScenariusza1!F1:F13)</f>
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <f>MIN(WynikiScenariusza1!G1:G13)</f>
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <f>MIN(WynikiScenariusza1!H1:H13)</f>
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <f>MIN(WynikiScenariusza1!I1:I13)</f>
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <f>MIN(WynikiScenariusza1!J1:J13)</f>
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <f>MIN(WynikiScenariusza1!K1:K13)</f>
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <f>MIN(WynikiScenariusza1!L1:L13)</f>
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <f>MIN(WynikiScenariusza1!M1:M13)</f>
-        <v>3</v>
-      </c>
-      <c r="N3">
+      <c r="X3">
         <f>MIN(WynikiScenariusza1!N1:N13)</f>
         <v>3</v>
-      </c>
-      <c r="O3">
-        <f>MIN(WynikiScenariusza1!O1:O13)</f>
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <f>MIN(WynikiScenariusza1!P1:P13)</f>
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <f>MIN(WynikiScenariusza1!Q1:Q13)</f>
-        <v>3</v>
-      </c>
-      <c r="R3">
-        <f>MIN(WynikiScenariusza1!R1:R13)</f>
-        <v>3</v>
-      </c>
-      <c r="S3">
-        <f>MIN(WynikiScenariusza1!S1:S13)</f>
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <f>MIN(WynikiScenariusza1!T1:T13)</f>
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <f>MIN(WynikiScenariusza1!U1:U13)</f>
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <f>MIN(WynikiScenariusza1!V1:V13)</f>
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <f>MIN(WynikiScenariusza1!W1:W13)</f>
-        <v>2</v>
-      </c>
-      <c r="X3">
-        <f>MIN(WynikiScenariusza1!X1:X13)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -8395,96 +14009,96 @@
         <v>69</v>
       </c>
       <c r="B4">
+        <f>MAX(WynikiScenariusza1!C1:C13)</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f>MAX(WynikiScenariusza1!E1:E13)</f>
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f>MAX(WynikiScenariusza1!H1:H13)</f>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f>MAX(WynikiScenariusza1!V1:V13)</f>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f>MAX(WynikiScenariusza1!W1:W13)</f>
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>MAX(WynikiScenariusza1!X1:X13)</f>
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f>MAX(WynikiScenariusza1!T1:T13)</f>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <f>MAX(WynikiScenariusza1!S1:S13)</f>
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <f>MAX(WynikiScenariusza1!U1:U13)</f>
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <f>MAX(WynikiScenariusza1!O1:O13)</f>
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <f>MAX(WynikiScenariusza1!J1:J13)</f>
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <f>MAX(WynikiScenariusza1!P1:P13)</f>
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <f>MAX(WynikiScenariusza1!K1:K13)</f>
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <f>MAX(WynikiScenariusza1!Q1:Q13)</f>
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <f>MAX(WynikiScenariusza1!L1:L13)</f>
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <f>MAX(WynikiScenariusza1!F1:F13)</f>
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <f>MAX(WynikiScenariusza1!G1:G13)</f>
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <f>MAX(WynikiScenariusza1!M1:M13)</f>
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <f>MAX(WynikiScenariusza1!I1:I13)</f>
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <f>MAX(WynikiScenariusza1!R1:R13)</f>
+        <v>5</v>
+      </c>
+      <c r="V4">
         <f>MAX(WynikiScenariusza1!B1:B13)</f>
         <v>5</v>
       </c>
-      <c r="C4">
-        <f>MAX(WynikiScenariusza1!C1:C13)</f>
-        <v>2</v>
-      </c>
-      <c r="D4">
+      <c r="W4">
         <f>MAX(WynikiScenariusza1!D1:D13)</f>
         <v>5</v>
       </c>
-      <c r="E4">
-        <f>MAX(WynikiScenariusza1!E1:E13)</f>
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <f>MAX(WynikiScenariusza1!F1:F13)</f>
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <f>MAX(WynikiScenariusza1!G1:G13)</f>
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <f>MAX(WynikiScenariusza1!H1:H13)</f>
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <f>MAX(WynikiScenariusza1!I1:I13)</f>
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <f>MAX(WynikiScenariusza1!J1:J13)</f>
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <f>MAX(WynikiScenariusza1!K1:K13)</f>
-        <v>4</v>
-      </c>
-      <c r="L4">
-        <f>MAX(WynikiScenariusza1!L1:L13)</f>
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <f>MAX(WynikiScenariusza1!M1:M13)</f>
-        <v>5</v>
-      </c>
-      <c r="N4">
+      <c r="X4">
         <f>MAX(WynikiScenariusza1!N1:N13)</f>
         <v>5</v>
-      </c>
-      <c r="O4">
-        <f>MAX(WynikiScenariusza1!O1:O13)</f>
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <f>MAX(WynikiScenariusza1!P1:P13)</f>
-        <v>5</v>
-      </c>
-      <c r="Q4">
-        <f>MAX(WynikiScenariusza1!Q1:Q13)</f>
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <f>MAX(WynikiScenariusza1!R1:R13)</f>
-        <v>5</v>
-      </c>
-      <c r="S4">
-        <f>MAX(WynikiScenariusza1!S1:S13)</f>
-        <v>4</v>
-      </c>
-      <c r="T4">
-        <f>MAX(WynikiScenariusza1!T1:T13)</f>
-        <v>3</v>
-      </c>
-      <c r="U4">
-        <f>MAX(WynikiScenariusza1!U1:U13)</f>
-        <v>3</v>
-      </c>
-      <c r="V4">
-        <f>MAX(WynikiScenariusza1!V1:V13)</f>
-        <v>3</v>
-      </c>
-      <c r="W4">
-        <f>MAX(WynikiScenariusza1!W1:W13)</f>
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <f>MAX(WynikiScenariusza1!X1:X13)</f>
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -8497,96 +14111,96 @@
         <v>67</v>
       </c>
       <c r="B6">
+        <f>AVERAGE(WynikiScenariusza2!C1:C13)</f>
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(WynikiScenariusza2!E1:E13)</f>
+        <v>2.3846153846153846</v>
+      </c>
+      <c r="D6">
+        <f>AVERAGE(WynikiScenariusza2!H1:H13)</f>
+        <v>1.4615384615384615</v>
+      </c>
+      <c r="E6">
+        <f>AVERAGE(WynikiScenariusza2!V1:V13)</f>
+        <v>2.6923076923076925</v>
+      </c>
+      <c r="F6">
+        <f>AVERAGE(WynikiScenariusza2!W1:W13)</f>
+        <v>2.5384615384615383</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(WynikiScenariusza2!X1:X13)</f>
+        <v>2.4615384615384617</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE(WynikiScenariusza2!T1:T13)</f>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE(WynikiScenariusza2!S1:S13)</f>
+        <v>3.1538461538461537</v>
+      </c>
+      <c r="J6">
+        <f>AVERAGE(WynikiScenariusza2!U1:U13)</f>
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGE(WynikiScenariusza2!O1:O13)</f>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="L6">
+        <f>AVERAGE(WynikiScenariusza2!J1:J13)</f>
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <f>AVERAGE(WynikiScenariusza2!P1:P13)</f>
+        <v>4.0769230769230766</v>
+      </c>
+      <c r="N6">
+        <f>AVERAGE(WynikiScenariusza2!K1:K13)</f>
+        <v>3.5384615384615383</v>
+      </c>
+      <c r="O6">
+        <f>AVERAGE(WynikiScenariusza2!Q1:Q13)</f>
+        <v>4.1538461538461542</v>
+      </c>
+      <c r="P6">
+        <f>AVERAGE(WynikiScenariusza2!L1:L13)</f>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="Q6">
+        <f>AVERAGE(WynikiScenariusza2!F1:F13)</f>
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <f>AVERAGE(WynikiScenariusza2!G1:G13)</f>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="S6">
+        <f>AVERAGE(WynikiScenariusza2!M1:M13)</f>
+        <v>4.0769230769230766</v>
+      </c>
+      <c r="T6">
+        <f>AVERAGE(WynikiScenariusza2!I1:I13)</f>
+        <v>4.0769230769230766</v>
+      </c>
+      <c r="U6">
+        <f>AVERAGE(WynikiScenariusza2!R1:R13)</f>
+        <v>4.2307692307692308</v>
+      </c>
+      <c r="V6">
         <f>AVERAGE(WynikiScenariusza2!B1:B13)</f>
         <v>4.2307692307692308</v>
       </c>
-      <c r="C6">
-        <f>AVERAGE(WynikiScenariusza2!C1:C13)</f>
-        <v>1.0769230769230769</v>
-      </c>
-      <c r="D6">
+      <c r="W6">
         <f>AVERAGE(WynikiScenariusza2!D1:D13)</f>
         <v>4.6923076923076925</v>
       </c>
-      <c r="E6">
-        <f>AVERAGE(WynikiScenariusza2!E1:E13)</f>
-        <v>2.3846153846153846</v>
-      </c>
-      <c r="F6">
-        <f>AVERAGE(WynikiScenariusza2!F1:F13)</f>
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <f>AVERAGE(WynikiScenariusza2!G1:G13)</f>
-        <v>3.7692307692307692</v>
-      </c>
-      <c r="H6">
-        <f>AVERAGE(WynikiScenariusza2!H1:H13)</f>
-        <v>1.4615384615384615</v>
-      </c>
-      <c r="I6">
-        <f>AVERAGE(WynikiScenariusza2!I1:I13)</f>
-        <v>4.0769230769230766</v>
-      </c>
-      <c r="J6">
-        <f>AVERAGE(WynikiScenariusza2!J1:J13)</f>
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <f>AVERAGE(WynikiScenariusza2!K1:K13)</f>
-        <v>3.5384615384615383</v>
-      </c>
-      <c r="L6">
-        <f>AVERAGE(WynikiScenariusza2!L1:L13)</f>
-        <v>3.8461538461538463</v>
-      </c>
-      <c r="M6">
-        <f>AVERAGE(WynikiScenariusza2!M1:M13)</f>
-        <v>4.0769230769230766</v>
-      </c>
-      <c r="N6">
+      <c r="X6">
         <f>AVERAGE(WynikiScenariusza2!N1:N13)</f>
         <v>4.4615384615384617</v>
-      </c>
-      <c r="O6">
-        <f>AVERAGE(WynikiScenariusza2!O1:O13)</f>
-        <v>3.7692307692307692</v>
-      </c>
-      <c r="P6">
-        <f>AVERAGE(WynikiScenariusza2!P1:P13)</f>
-        <v>4.0769230769230766</v>
-      </c>
-      <c r="Q6">
-        <f>AVERAGE(WynikiScenariusza2!Q1:Q13)</f>
-        <v>4.1538461538461542</v>
-      </c>
-      <c r="R6">
-        <f>AVERAGE(WynikiScenariusza2!R1:R13)</f>
-        <v>4.2307692307692308</v>
-      </c>
-      <c r="S6">
-        <f>AVERAGE(WynikiScenariusza2!S1:S13)</f>
-        <v>3.1538461538461537</v>
-      </c>
-      <c r="T6">
-        <f>AVERAGE(WynikiScenariusza2!T1:T13)</f>
-        <v>1.5384615384615385</v>
-      </c>
-      <c r="U6">
-        <f>AVERAGE(WynikiScenariusza2!U1:U13)</f>
-        <v>2.3076923076923075</v>
-      </c>
-      <c r="V6">
-        <f>AVERAGE(WynikiScenariusza2!V1:V13)</f>
-        <v>2.6923076923076925</v>
-      </c>
-      <c r="W6">
-        <f>AVERAGE(WynikiScenariusza2!W1:W13)</f>
-        <v>2.5384615384615383</v>
-      </c>
-      <c r="X6">
-        <f>AVERAGE(WynikiScenariusza2!X1:X13)</f>
-        <v>2.4615384615384617</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -8594,96 +14208,96 @@
         <v>68</v>
       </c>
       <c r="B7">
+        <f>MIN(WynikiScenariusza2!C1:C13)</f>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>MIN(WynikiScenariusza2!E1:E13)</f>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f>MIN(WynikiScenariusza2!H1:H13)</f>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f>MIN(WynikiScenariusza2!V1:V13)</f>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <f>MIN(WynikiScenariusza2!W1:W13)</f>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>MIN(WynikiScenariusza2!X1:X13)</f>
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f>MIN(WynikiScenariusza2!T1:T13)</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>MIN(WynikiScenariusza2!S1:S13)</f>
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f>MIN(WynikiScenariusza2!U1:U13)</f>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f>MIN(WynikiScenariusza2!O1:O13)</f>
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <f>MIN(WynikiScenariusza2!J1:J13)</f>
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f>MIN(WynikiScenariusza2!P1:P13)</f>
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <f>MIN(WynikiScenariusza2!K1:K13)</f>
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <f>MIN(WynikiScenariusza2!Q1:Q13)</f>
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <f>MIN(WynikiScenariusza2!L1:L13)</f>
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <f>MIN(WynikiScenariusza2!F1:F13)</f>
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <f>MIN(WynikiScenariusza2!G1:G13)</f>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f>MIN(WynikiScenariusza2!M1:M13)</f>
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <f>MIN(WynikiScenariusza2!I1:I13)</f>
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <f>MIN(WynikiScenariusza2!R1:R13)</f>
+        <v>3</v>
+      </c>
+      <c r="V7">
         <f>MIN(WynikiScenariusza2!B1:B13)</f>
         <v>3</v>
       </c>
-      <c r="C7">
-        <f>MIN(WynikiScenariusza2!C1:C13)</f>
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="W7">
         <f>MIN(WynikiScenariusza2!D1:D13)</f>
         <v>3</v>
       </c>
-      <c r="E7">
-        <f>MIN(WynikiScenariusza2!E1:E13)</f>
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <f>MIN(WynikiScenariusza2!F1:F13)</f>
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <f>MIN(WynikiScenariusza2!G1:G13)</f>
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <f>MIN(WynikiScenariusza2!H1:H13)</f>
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <f>MIN(WynikiScenariusza2!I1:I13)</f>
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <f>MIN(WynikiScenariusza2!J1:J13)</f>
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <f>MIN(WynikiScenariusza2!K1:K13)</f>
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <f>MIN(WynikiScenariusza2!L1:L13)</f>
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <f>MIN(WynikiScenariusza2!M1:M13)</f>
-        <v>3</v>
-      </c>
-      <c r="N7">
+      <c r="X7">
         <f>MIN(WynikiScenariusza2!N1:N13)</f>
         <v>3</v>
-      </c>
-      <c r="O7">
-        <f>MIN(WynikiScenariusza2!O1:O13)</f>
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <f>MIN(WynikiScenariusza2!P1:P13)</f>
-        <v>3</v>
-      </c>
-      <c r="Q7">
-        <f>MIN(WynikiScenariusza2!Q1:Q13)</f>
-        <v>2</v>
-      </c>
-      <c r="R7">
-        <f>MIN(WynikiScenariusza2!R1:R13)</f>
-        <v>3</v>
-      </c>
-      <c r="S7">
-        <f>MIN(WynikiScenariusza2!S1:S13)</f>
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <f>MIN(WynikiScenariusza2!T1:T13)</f>
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <f>MIN(WynikiScenariusza2!U1:U13)</f>
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <f>MIN(WynikiScenariusza2!V1:V13)</f>
-        <v>2</v>
-      </c>
-      <c r="W7">
-        <f>MIN(WynikiScenariusza2!W1:W13)</f>
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <f>MIN(WynikiScenariusza2!X1:X13)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -8691,96 +14305,382 @@
         <v>69</v>
       </c>
       <c r="B8">
+        <f>MAX(WynikiScenariusza2!C1:C13)</f>
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f>MAX(WynikiScenariusza2!E1:E13)</f>
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f>MAX(WynikiScenariusza2!H1:H13)</f>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f>MAX(WynikiScenariusza2!V1:V13)</f>
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <f>MAX(WynikiScenariusza2!W1:W13)</f>
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <f>MAX(WynikiScenariusza2!X1:X13)</f>
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f>MAX(WynikiScenariusza2!T1:T13)</f>
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <f>MAX(WynikiScenariusza2!S1:S13)</f>
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <f>MAX(WynikiScenariusza2!U1:U13)</f>
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <f>MAX(WynikiScenariusza2!O1:O13)</f>
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <f>MAX(WynikiScenariusza2!J1:J13)</f>
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <f>MAX(WynikiScenariusza2!P1:P13)</f>
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <f>MAX(WynikiScenariusza2!K1:K13)</f>
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <f>MAX(WynikiScenariusza2!Q1:Q13)</f>
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <f>MAX(WynikiScenariusza2!L1:L13)</f>
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <f>MAX(WynikiScenariusza2!F1:F13)</f>
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <f>MAX(WynikiScenariusza2!G1:G13)</f>
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <f>MAX(WynikiScenariusza2!M1:M13)</f>
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <f>MAX(WynikiScenariusza2!I1:I13)</f>
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <f>MAX(WynikiScenariusza2!R1:R13)</f>
+        <v>5</v>
+      </c>
+      <c r="V8">
         <f>MAX(WynikiScenariusza2!B1:B13)</f>
         <v>5</v>
       </c>
-      <c r="C8">
-        <f>MAX(WynikiScenariusza2!C1:C13)</f>
-        <v>2</v>
-      </c>
-      <c r="D8">
+      <c r="W8">
         <f>MAX(WynikiScenariusza2!D1:D13)</f>
         <v>5</v>
       </c>
-      <c r="E8">
-        <f>MAX(WynikiScenariusza2!E1:E13)</f>
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <f>MAX(WynikiScenariusza2!F1:F13)</f>
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <f>MAX(WynikiScenariusza2!G1:G13)</f>
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <f>MAX(WynikiScenariusza2!H1:H13)</f>
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <f>MAX(WynikiScenariusza2!I1:I13)</f>
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <f>MAX(WynikiScenariusza2!J1:J13)</f>
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <f>MAX(WynikiScenariusza2!K1:K13)</f>
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <f>MAX(WynikiScenariusza2!L1:L13)</f>
-        <v>5</v>
-      </c>
-      <c r="M8">
-        <f>MAX(WynikiScenariusza2!M1:M13)</f>
-        <v>5</v>
-      </c>
-      <c r="N8">
+      <c r="X8">
         <f>MAX(WynikiScenariusza2!N1:N13)</f>
         <v>5</v>
       </c>
-      <c r="O8">
-        <f>MAX(WynikiScenariusza2!O1:O13)</f>
-        <v>4</v>
-      </c>
-      <c r="P8">
-        <f>MAX(WynikiScenariusza2!P1:P13)</f>
-        <v>5</v>
-      </c>
-      <c r="Q8">
-        <f>MAX(WynikiScenariusza2!Q1:Q13)</f>
-        <v>5</v>
-      </c>
-      <c r="R8">
-        <f>MAX(WynikiScenariusza2!R1:R13)</f>
-        <v>5</v>
-      </c>
-      <c r="S8">
-        <f>MAX(WynikiScenariusza2!S1:S13)</f>
-        <v>4</v>
-      </c>
-      <c r="T8">
-        <f>MAX(WynikiScenariusza2!T1:T13)</f>
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <f>MAX(WynikiScenariusza2!U1:U13)</f>
-        <v>3</v>
-      </c>
-      <c r="V8">
-        <f>MAX(WynikiScenariusza2!V1:V13)</f>
-        <v>4</v>
-      </c>
-      <c r="W8">
-        <f>MAX(WynikiScenariusza2!W1:W13)</f>
-        <v>3</v>
-      </c>
-      <c r="X8">
-        <f>MAX(WynikiScenariusza2!X1:X13)</f>
-        <v>4</v>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="9">
+        <f>AVERAGE(WynikiScenariusza3!L52:L64)</f>
+        <v>-3</v>
+      </c>
+      <c r="C10" s="9">
+        <f>AVERAGE(WynikiScenariusza3!M52:M64)</f>
+        <v>-2.0769230769230771</v>
+      </c>
+      <c r="D10" s="9">
+        <f>AVERAGE(WynikiScenariusza3!N52:N64)</f>
+        <v>-2.4615384615384617</v>
+      </c>
+      <c r="E10" s="9">
+        <f>AVERAGE(WynikiScenariusza3!O52:O64)</f>
+        <v>-1.1538461538461537</v>
+      </c>
+      <c r="F10" s="9">
+        <f>AVERAGE(WynikiScenariusza3!P52:P64)</f>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="G10" s="9">
+        <f>AVERAGE(WynikiScenariusza3!Q52:Q64)</f>
+        <v>-2</v>
+      </c>
+      <c r="H10" s="9">
+        <f>AVERAGE(WynikiScenariusza3!R52:R64)</f>
+        <v>-0.61538461538461542</v>
+      </c>
+      <c r="I10" s="9">
+        <f>AVERAGE(WynikiScenariusza3!S52:S64)</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="J10" s="9">
+        <f>AVERAGE(WynikiScenariusza3!T52:T64)</f>
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="K10" s="9">
+        <f>AVERAGE(WynikiScenariusza3!U52:U64)</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="L10" s="9">
+        <f>AVERAGE(WynikiScenariusza3!V52:V64)</f>
+        <v>-2.3076923076923075</v>
+      </c>
+      <c r="M10" s="9">
+        <f>AVERAGE(WynikiScenariusza3!W52:W64)</f>
+        <v>-0.92307692307692313</v>
+      </c>
+      <c r="N10" s="9">
+        <f>AVERAGE(WynikiScenariusza3!X52:X64)</f>
+        <v>-0.46153846153846156</v>
+      </c>
+      <c r="O10" s="9">
+        <f>AVERAGE(WynikiScenariusza3!Y52:Y64)</f>
+        <v>-0.15384615384615385</v>
+      </c>
+      <c r="P10" s="9">
+        <f>AVERAGE(WynikiScenariusza3!Z52:Z64)</f>
+        <v>-7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="9">
+        <f>MIN(WynikiScenariusza3!L52:L64)</f>
+        <v>-3</v>
+      </c>
+      <c r="C11" s="9">
+        <f>MIN(WynikiScenariusza3!M52:M64)</f>
+        <v>-3</v>
+      </c>
+      <c r="D11" s="9">
+        <f>MIN(WynikiScenariusza3!N52:N64)</f>
+        <v>-3</v>
+      </c>
+      <c r="E11" s="9">
+        <f>MIN(WynikiScenariusza3!O52:O64)</f>
+        <v>-2</v>
+      </c>
+      <c r="F11" s="9">
+        <f>MIN(WynikiScenariusza3!P52:P64)</f>
+        <v>-2</v>
+      </c>
+      <c r="G11" s="9">
+        <f>MIN(WynikiScenariusza3!Q52:Q64)</f>
+        <v>-3</v>
+      </c>
+      <c r="H11" s="9">
+        <f>MIN(WynikiScenariusza3!R52:R64)</f>
+        <v>-3</v>
+      </c>
+      <c r="I11" s="9">
+        <f>MIN(WynikiScenariusza3!S52:S64)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <f>MIN(WynikiScenariusza3!T52:T64)</f>
+        <v>-1</v>
+      </c>
+      <c r="K11" s="9">
+        <f>MIN(WynikiScenariusza3!U52:U64)</f>
+        <v>-1</v>
+      </c>
+      <c r="L11" s="9">
+        <f>MIN(WynikiScenariusza3!V52:V64)</f>
+        <v>-3</v>
+      </c>
+      <c r="M11" s="9">
+        <f>MIN(WynikiScenariusza3!W52:W64)</f>
+        <v>-2</v>
+      </c>
+      <c r="N11" s="9">
+        <f>MIN(WynikiScenariusza3!X52:X64)</f>
+        <v>-3</v>
+      </c>
+      <c r="O11" s="9">
+        <f>MIN(WynikiScenariusza3!Y52:Y64)</f>
+        <v>-2</v>
+      </c>
+      <c r="P11" s="9">
+        <f>MIN(WynikiScenariusza3!Z52:Z64)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="9">
+        <f>MAX(WynikiScenariusza3!L52:L64)</f>
+        <v>-3</v>
+      </c>
+      <c r="C12" s="9">
+        <f>MAX(WynikiScenariusza3!M52:M64)</f>
+        <v>-1</v>
+      </c>
+      <c r="D12" s="9">
+        <f>MAX(WynikiScenariusza3!N52:N64)</f>
+        <v>-2</v>
+      </c>
+      <c r="E12" s="9">
+        <f>MAX(WynikiScenariusza3!O52:O64)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <f>MAX(WynikiScenariusza3!P52:P64)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <f>MAX(WynikiScenariusza3!Q52:Q64)</f>
+        <v>-1</v>
+      </c>
+      <c r="H12" s="9">
+        <f>MAX(WynikiScenariusza3!R52:R64)</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="9">
+        <f>MAX(WynikiScenariusza3!S52:S64)</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="9">
+        <f>MAX(WynikiScenariusza3!T52:T64)</f>
+        <v>2</v>
+      </c>
+      <c r="K12" s="9">
+        <f>MAX(WynikiScenariusza3!U52:U64)</f>
+        <v>2</v>
+      </c>
+      <c r="L12" s="9">
+        <f>MAX(WynikiScenariusza3!V52:V64)</f>
+        <v>-1</v>
+      </c>
+      <c r="M12" s="9">
+        <f>MAX(WynikiScenariusza3!W52:W64)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <f>MAX(WynikiScenariusza3!X52:X64)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <f>MAX(WynikiScenariusza3!Y52:Y64)</f>
+        <v>1</v>
+      </c>
+      <c r="P12" s="9">
+        <f>MAX(WynikiScenariusza3!Z52:Z64)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" t="s">
+        <v>118</v>
+      </c>
+      <c r="N17" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>123</v>
+      </c>
+      <c r="R17" t="s">
+        <v>124</v>
+      </c>
+      <c r="S17" t="s">
+        <v>125</v>
+      </c>
+      <c r="T17" t="s">
+        <v>99</v>
+      </c>
+      <c r="U17" t="s">
+        <v>100</v>
+      </c>
+      <c r="V17" t="s">
+        <v>96</v>
+      </c>
+      <c r="W17" t="s">
+        <v>98</v>
+      </c>
+      <c r="X17" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -4046,6 +4046,549 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Średnia różnica ocen 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykresy!$B$14:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.3846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89743589743589736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0769230769230775</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92307692307692335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6923076923077538E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30769230769230749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Średnia róznica ocen 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykresy!$B$15:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.3076923076923077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1025641025641029</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6153846153846152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61538461538461586</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15384615384615374</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15384615384615419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23076923076923084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Średnia różnica wszystkich ocen</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykresy!$B$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.93589743589743568</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93589743589743568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93589743589743568</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93589743589743568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93589743589743568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93589743589743568</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93589743589743568</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93589743589743568</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93589743589743568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="348794288"/>
+        <c:axId val="348793728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="348794288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Numer pary</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> sekwencji</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t> filmowej</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348793728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="348793728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Różnica ocen filmu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348794288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="sq">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4167,6 +4710,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6218,6 +6801,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6339,6 +7425,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13716,10 +14834,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14612,6 +15730,120 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <f>ABS(B2-C2)</f>
+        <v>1.3846153846153846</v>
+      </c>
+      <c r="C14" s="11">
+        <f>ABS(D2-AVERAGE(E2:G2))</f>
+        <v>0.89743589743589736</v>
+      </c>
+      <c r="D14" s="11">
+        <f>ABS(H2-I2)</f>
+        <v>1.4615384615384617</v>
+      </c>
+      <c r="E14" s="11">
+        <f>ABS(J2-K2)</f>
+        <v>1.7692307692307692</v>
+      </c>
+      <c r="F14" s="11">
+        <f>ABS(L2-M2)</f>
+        <v>1.2307692307692313</v>
+      </c>
+      <c r="G14" s="11">
+        <f>ABS(N2-O2)</f>
+        <v>1.0769230769230775</v>
+      </c>
+      <c r="H14" s="11">
+        <f>ABS(P2-Q2)</f>
+        <v>0.92307692307692335</v>
+      </c>
+      <c r="I14" s="11">
+        <f>ABS(T2-U2)</f>
+        <v>7.6923076923077538E-2</v>
+      </c>
+      <c r="J14" s="11">
+        <f>ABS(W2-X2)</f>
+        <v>0.30769230769230749</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
+        <f>ABS(B6-C6)</f>
+        <v>1.3076923076923077</v>
+      </c>
+      <c r="C15" s="11">
+        <f>ABS(D6-AVERAGE(E6:G6))</f>
+        <v>1.1025641025641029</v>
+      </c>
+      <c r="D15" s="11">
+        <f>ABS(H6-I6)</f>
+        <v>1.6153846153846152</v>
+      </c>
+      <c r="E15" s="11">
+        <f>ABS(J6-K6)</f>
+        <v>1.4615384615384617</v>
+      </c>
+      <c r="F15" s="11">
+        <f>ABS(L6-M6)</f>
+        <v>1.0769230769230766</v>
+      </c>
+      <c r="G15" s="11">
+        <f>ABS(N6-O6)</f>
+        <v>0.61538461538461586</v>
+      </c>
+      <c r="H15" s="11">
+        <f>ABS(P6-Q6)</f>
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="I15" s="11">
+        <f>ABS(T6-U6)</f>
+        <v>0.15384615384615419</v>
+      </c>
+      <c r="J15" s="11">
+        <f>ABS(W6-X6)</f>
+        <v>0.23076923076923084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
+        <f>AVERAGE($B14:$J15)</f>
+        <v>0.93589743589743568</v>
+      </c>
+      <c r="C16" s="11">
+        <f>AVERAGE($B14:$J15)</f>
+        <v>0.93589743589743568</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" ref="C16:J16" si="0">AVERAGE($B14:$J15)</f>
+        <v>0.93589743589743568</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.93589743589743568</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.93589743589743568</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.93589743589743568</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.93589743589743568</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.93589743589743568</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" si="0"/>
+        <v>0.93589743589743568</v>
+      </c>
+    </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>113</v>
@@ -14681,6 +15913,12 @@
       </c>
       <c r="Y17" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>LOG10(B2)</f>
+        <v>9.017663034908803E-2</v>
       </c>
     </row>
   </sheetData>

--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -1989,11 +1989,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="173219616"/>
-        <c:axId val="173220176"/>
+        <c:axId val="164975616"/>
+        <c:axId val="164976176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="173219616"/>
+        <c:axId val="164975616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,7 +2091,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173220176"/>
+        <c:crossAx val="164976176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2099,7 +2099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173220176"/>
+        <c:axId val="164976176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,7 +2206,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173219616"/>
+        <c:crossAx val="164975616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2636,11 +2636,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="302021056"/>
-        <c:axId val="409505344"/>
+        <c:axId val="164698464"/>
+        <c:axId val="164699024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="302021056"/>
+        <c:axId val="164698464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2738,7 +2738,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409505344"/>
+        <c:crossAx val="164699024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2746,7 +2746,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="409505344"/>
+        <c:axId val="164699024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2853,7 +2853,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302021056"/>
+        <c:crossAx val="164698464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3166,11 +3166,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="221191072"/>
-        <c:axId val="221191632"/>
+        <c:axId val="164702384"/>
+        <c:axId val="164702944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="221191072"/>
+        <c:axId val="164702384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3268,7 +3268,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221191632"/>
+        <c:crossAx val="164702944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3276,7 +3276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221191632"/>
+        <c:axId val="164702944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3383,7 +3383,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221191072"/>
+        <c:crossAx val="164702384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3741,11 +3741,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="315963760"/>
-        <c:axId val="309419584"/>
+        <c:axId val="165458368"/>
+        <c:axId val="165458928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="315963760"/>
+        <c:axId val="165458368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3777,7 +3777,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3843,7 +3842,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309419584"/>
+        <c:crossAx val="165458928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3851,7 +3850,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="309419584"/>
+        <c:axId val="165458928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3897,7 +3896,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3958,7 +3956,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="315963760"/>
+        <c:crossAx val="165458368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4276,11 +4274,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="348794288"/>
-        <c:axId val="348793728"/>
+        <c:axId val="165462848"/>
+        <c:axId val="165463408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="348794288"/>
+        <c:axId val="165462848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4386,7 +4384,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348793728"/>
+        <c:crossAx val="165463408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4394,7 +4392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="348793728"/>
+        <c:axId val="165463408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4501,7 +4499,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="348794288"/>
+        <c:crossAx val="165462848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14836,8 +14834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15816,7 +15814,7 @@
         <v>0.93589743589743568</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" ref="C16:J16" si="0">AVERAGE($B14:$J15)</f>
+        <f t="shared" ref="D16:J16" si="0">AVERAGE($B14:$J15)</f>
         <v>0.93589743589743568</v>
       </c>
       <c r="E16" s="11">

--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konrad\Documents\GitHub\Mgr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\Desktop\mgr\Mgr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,12 @@
     <sheet name="WynikiScenariusza1" sheetId="3" r:id="rId3"/>
     <sheet name="WynikiScenariusza2" sheetId="4" r:id="rId4"/>
     <sheet name="Wykresy" sheetId="7" r:id="rId5"/>
-    <sheet name="ANOVA" sheetId="5" r:id="rId6"/>
-    <sheet name="t-Student" sheetId="6" r:id="rId7"/>
-    <sheet name="t-Student2" sheetId="9" r:id="rId8"/>
+    <sheet name="Podzial po filmach" sheetId="11" r:id="rId6"/>
+    <sheet name="ANOVA" sheetId="5" r:id="rId7"/>
+    <sheet name="t-Student" sheetId="6" r:id="rId8"/>
+    <sheet name="t-Student2" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="126">
   <si>
     <t>Bartek_2</t>
   </si>
@@ -1392,7 +1393,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1571,7 +1575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1610,6 +1614,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -1629,7 +1635,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -1694,6 +1700,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-20DD-4234-AB5C-C62389C83027}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1774,6 +1785,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-20DD-4234-AB5C-C62389C83027}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1870,6 +1886,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-20DD-4234-AB5C-C62389C83027}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1966,6 +1987,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-20DD-4234-AB5C-C62389C83027}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2295,7 +2321,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -2421,6 +2447,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F277-49F1-AA33-4FFCF0378FF6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2517,6 +2548,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F277-49F1-AA33-4FFCF0378FF6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2613,6 +2649,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F277-49F1-AA33-4FFCF0378FF6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2942,7 +2983,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -2982,6 +3023,11 @@
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-FDA2-4044-9145-911A04E5B49B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -3061,6 +3107,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FDA2-4044-9145-911A04E5B49B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3156,6 +3207,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FDA2-4044-9145-911A04E5B49B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3472,7 +3528,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -3574,6 +3630,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB47-4D2D-9853-A0F5C749739B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3646,6 +3707,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB47-4D2D-9853-A0F5C749739B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3718,6 +3784,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB47-4D2D-9853-A0F5C749739B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3777,6 +3848,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3896,6 +3968,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4045,7 +4118,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pl-PL"/>
   <c:roundedCorners val="0"/>
@@ -4129,6 +4202,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E9A-4B88-AB38-A2C860B5F06A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4195,6 +4273,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E9A-4B88-AB38-A2C860B5F06A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4263,6 +4346,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8E9A-4B88-AB38-A2C860B5F06A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4587,6 +4675,2299 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Średnia ocena 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="4"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-A753-41DA-B48B-5376F21964E5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykresy!$B$2:$X$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5384615384615383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1538461538461537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8461538461538458</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5384615384615383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A753-41DA-B48B-5376F21964E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Średnia ocena 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykresy!$B$6:$X$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6923076923076925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5384615384615383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1538461538461537</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5384615384615383</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8461538461538463</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.7692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.6923076923076925</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4615384615384617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A753-41DA-B48B-5376F21964E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="164975616"/>
+        <c:axId val="164976176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="164975616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Numer sekwencji filmowej</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164976176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164976176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ocena filmu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164975616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="sq">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Moduł z różnicy średnich</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykresy!$AC$14:$AY$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.15384615384615397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23076923076923084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15384615384615397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6923076923077094E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6923076923077094E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23076923076923062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6923076923077094E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15384615384615374</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15384615384615374</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6923076923077094E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6923076923077538E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23076923076923084</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23076923076923084</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38461538461538458</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38461538461538503</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15384615384615374</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15384615384615374</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.6923076923077538E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15384615384615419</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.23076923076923084</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1538461538461533</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.692307692307665E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B579-4606-ACA8-9ECC39295537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="164702384"/>
+        <c:axId val="164702944"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Średnia róznic =  0.1605</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Wykresy!$AC$15:$AY$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.16053511705685627</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B579-4606-ACA8-9ECC39295537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="164702384"/>
+        <c:axId val="164702944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="164702384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Numer sekwencji filmowej</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164702944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164702944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164702384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="sq">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11115732574458148"/>
+          <c:y val="2.8906032799312722E-2"/>
+          <c:w val="0.86746024922896614"/>
+          <c:h val="0.67299938571508344"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Puppies test 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Podzial po filmach'!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1538461538461537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5384615384615383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C65-427D-8560-0AF6A090087E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Puppies test 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Podzial po filmach'!$B$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5384615384615383</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8461538461538463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4615384615384617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4C65-427D-8560-0AF6A090087E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Chimei test 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Podzial po filmach'!$B$31:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.6153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5128205128205128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8461538461538458</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4C65-427D-8560-0AF6A090087E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Chimei test 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Podzial po filmach'!$B$35:$J$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.3846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5641025641025643</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1538461538461537</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6923076923076925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4C65-427D-8560-0AF6A090087E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="164702384"/>
+        <c:axId val="164702944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="164702384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Numer sekwencji filmowej</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48352340892476792"/>
+              <c:y val="0.96078648776253062"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164702944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164702944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ocena filmu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164702384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="sq">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Puppies test 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Podzial po filmach'!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1538461538461537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5384615384615383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D6E8-4116-9063-3EBE69D488BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Puppies test 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Podzial po filmach'!$B$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0769230769230769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3076923076923075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5384615384615383</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8461538461538463</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4615384615384617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D6E8-4116-9063-3EBE69D488BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Chimei test 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Podzial po filmach'!$B$18:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.6153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5128205128205128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9230769230769229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.384615384615385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8461538461538458</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D6E8-4116-9063-3EBE69D488BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Chimei test 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Podzial po filmach'!$B$22:$J$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.3846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5641025641025643</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1538461538461537</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2307692307692308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6923076923076925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D6E8-4116-9063-3EBE69D488BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="164975616"/>
+        <c:axId val="164976176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="164975616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Numer sekwencji filmowej</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164976176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164976176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Ocena filmu</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164975616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="sq">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4748,6 +7129,166 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7302,6 +9843,2018 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7455,6 +12008,139 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Wykres 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>974912</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>58832</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>79282</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14832,10 +19518,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:AY19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="B6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS15" sqref="AS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14850,9 +19536,10 @@
     <col min="16" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -14926,7 +19613,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -15023,7 +19710,7 @@
         <v>4.5384615384615383</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -15120,7 +19807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -15217,12 +19904,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -15319,7 +20006,7 @@
         <v>4.4615384615384617</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -15416,7 +20103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -15513,7 +20200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>110</v>
       </c>
@@ -15533,7 +20220,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>67</v>
       </c>
@@ -15598,7 +20285,7 @@
         <v>-7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>111</v>
       </c>
@@ -15663,7 +20350,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>112</v>
       </c>
@@ -15728,7 +20415,101 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AC13">
+        <f>B2-B6</f>
+        <v>0.15384615384615397</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" ref="AD13:BI13" si="0">C2-C6</f>
+        <v>0.23076923076923084</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="0"/>
+        <v>0.15384615384615397</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="0"/>
+        <v>-7.6923076923077094E-2</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="0"/>
+        <v>-7.6923076923077094E-2</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="0"/>
+        <v>0.23076923076923062</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="0"/>
+        <v>7.6923076923077094E-2</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="0"/>
+        <v>-0.15384615384615374</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="0"/>
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="0"/>
+        <v>-7.6923076923077094E-2</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="0"/>
+        <v>7.6923076923077538E-2</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="0"/>
+        <v>-0.23076923076923084</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="0"/>
+        <v>0.23076923076923084</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="0"/>
+        <v>-0.38461538461538458</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="0"/>
+        <v>-0.15384615384615374</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="0"/>
+        <v>-0.15384615384615374</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="0"/>
+        <v>7.6923076923077538E-2</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="0"/>
+        <v>-0.15384615384615419</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="0"/>
+        <v>0.23076923076923084</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="0"/>
+        <v>0.1538461538461533</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="0"/>
+        <v>7.692307692307665E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <f>ABS(B2-C2)</f>
         <v>1.3846153846153846</v>
@@ -15765,8 +20546,100 @@
         <f>ABS(W2-X2)</f>
         <v>0.30769230769230749</v>
       </c>
+      <c r="AC14">
+        <f>ABS(AC13)</f>
+        <v>0.15384615384615397</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" ref="AD14:AY14" si="1">ABS(AD13)</f>
+        <v>0.23076923076923084</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615397</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="1"/>
+        <v>7.6923076923077094E-2</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="1"/>
+        <v>7.6923076923077094E-2</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="1"/>
+        <v>0.23076923076923062</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="1"/>
+        <v>7.6923076923077094E-2</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="1"/>
+        <v>7.6923076923077094E-2</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="1"/>
+        <v>7.6923076923077538E-2</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="1"/>
+        <v>0.23076923076923084</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="1"/>
+        <v>0.23076923076923084</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="1"/>
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="1"/>
+        <v>0.38461538461538503</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615374</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="1"/>
+        <v>7.6923076923077538E-2</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="1"/>
+        <v>0.15384615384615419</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="1"/>
+        <v>0.23076923076923084</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="1"/>
+        <v>0.1538461538461533</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="1"/>
+        <v>7.692307692307665E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <f>ABS(B6-C6)</f>
         <v>1.3076923076923077</v>
@@ -15803,8 +20676,100 @@
         <f>ABS(W6-X6)</f>
         <v>0.23076923076923084</v>
       </c>
+      <c r="AC15">
+        <f>AVERAGE($AC$14:$AY$14)</f>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" ref="AD15:AY15" si="2">AVERAGE($AC$14:$AY$14)</f>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="2"/>
+        <v>0.16053511705685627</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <f>AVERAGE($B14:$J15)</f>
         <v>0.93589743589743568</v>
@@ -15814,31 +20779,31 @@
         <v>0.93589743589743568</v>
       </c>
       <c r="D16" s="11">
-        <f t="shared" ref="D16:J16" si="0">AVERAGE($B14:$J15)</f>
+        <f t="shared" ref="D16:J16" si="3">AVERAGE($B14:$J15)</f>
         <v>0.93589743589743568</v>
       </c>
       <c r="E16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.93589743589743568</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.93589743589743568</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.93589743589743568</v>
       </c>
       <c r="H16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.93589743589743568</v>
       </c>
       <c r="I16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.93589743589743568</v>
       </c>
       <c r="J16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.93589743589743568</v>
       </c>
     </row>
@@ -15926,6 +20891,920 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N38" sqref="N37:N38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="22">
+        <f>AVERAGE(WynikiScenariusza1!C1:C13)</f>
+        <v>1.2307692307692308</v>
+      </c>
+      <c r="C3" s="22">
+        <f>AVERAGE(WynikiScenariusza1!H1:H13)</f>
+        <v>1.6153846153846154</v>
+      </c>
+      <c r="D3" s="22">
+        <f>AVERAGE(WynikiScenariusza1!T1:T13)</f>
+        <v>1.7692307692307692</v>
+      </c>
+      <c r="E3" s="22">
+        <f>AVERAGE(WynikiScenariusza1!U1:U13)</f>
+        <v>2.1538461538461537</v>
+      </c>
+      <c r="F3" s="22">
+        <f>AVERAGE(WynikiScenariusza1!J1:J13)</f>
+        <v>2.9230769230769229</v>
+      </c>
+      <c r="G3" s="22">
+        <f>AVERAGE(WynikiScenariusza1!K1:K13)</f>
+        <v>3.3076923076923075</v>
+      </c>
+      <c r="H3" s="22">
+        <f>AVERAGE(WynikiScenariusza1!L1:L13)</f>
+        <v>3.4615384615384617</v>
+      </c>
+      <c r="I3" s="22">
+        <f>AVERAGE(WynikiScenariusza1!I1:I13)</f>
+        <v>4.1538461538461542</v>
+      </c>
+      <c r="J3" s="22">
+        <f>AVERAGE(WynikiScenariusza1!N1:N13)</f>
+        <v>4.5384615384615383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="23">
+        <f>MIN(WynikiScenariusza1!C2:C14)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="23">
+        <f>MIN(WynikiScenariusza1!H2:H14)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="23">
+        <f>MIN(WynikiScenariusza1!T2:T14)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="23">
+        <f>MIN(WynikiScenariusza1!U2:U14)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="23">
+        <f>MIN(WynikiScenariusza1!J2:J14)</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="23">
+        <f>MIN(WynikiScenariusza1!K2:K14)</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="23">
+        <f>MIN(WynikiScenariusza1!L2:L14)</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="23">
+        <f>MIN(WynikiScenariusza1!I2:I14)</f>
+        <v>3</v>
+      </c>
+      <c r="J4" s="23">
+        <f>MIN(WynikiScenariusza1!N2:N14)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="23">
+        <f>MAX(WynikiScenariusza1!C2:C14)</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="23">
+        <f>MAX(WynikiScenariusza1!H2:H14)</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="23">
+        <f>MAX(WynikiScenariusza1!T2:T14)</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="23">
+        <f>MAX(WynikiScenariusza1!U2:U14)</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="23">
+        <f>MAX(WynikiScenariusza1!J2:J14)</f>
+        <v>4</v>
+      </c>
+      <c r="G5" s="23">
+        <f>MAX(WynikiScenariusza1!K2:K14)</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="23">
+        <f>MAX(WynikiScenariusza1!L2:L14)</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="23">
+        <f>MAX(WynikiScenariusza1!I2:I14)</f>
+        <v>5</v>
+      </c>
+      <c r="J5" s="23">
+        <f>MAX(WynikiScenariusza1!N2:N14)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="22">
+        <f>AVERAGE(WynikiScenariusza2!C1:C13)</f>
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="C7" s="22">
+        <f>AVERAGE(WynikiScenariusza2!H1:H13)</f>
+        <v>1.4615384615384615</v>
+      </c>
+      <c r="D7" s="22">
+        <f>AVERAGE(WynikiScenariusza2!T1:T13)</f>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="E7" s="22">
+        <f>AVERAGE(WynikiScenariusza2!U1:U13)</f>
+        <v>2.3076923076923075</v>
+      </c>
+      <c r="F7" s="22">
+        <f>AVERAGE(WynikiScenariusza2!J1:J13)</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="22">
+        <f>AVERAGE(WynikiScenariusza2!K1:K13)</f>
+        <v>3.5384615384615383</v>
+      </c>
+      <c r="H7" s="22">
+        <f>AVERAGE(WynikiScenariusza2!L1:L13)</f>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="I7" s="22">
+        <f>AVERAGE(WynikiScenariusza2!I1:I13)</f>
+        <v>4.0769230769230766</v>
+      </c>
+      <c r="J7" s="22">
+        <f>AVERAGE(WynikiScenariusza2!N1:N13)</f>
+        <v>4.4615384615384617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="23">
+        <f>MIN(WynikiScenariusza2!C2:C14)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="23">
+        <f>MIN(WynikiScenariusza2!H2:H14)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="23">
+        <f>MIN(WynikiScenariusza2!T2:T14)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="23">
+        <f>MIN(WynikiScenariusza2!U2:U14)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="23">
+        <f>MIN(WynikiScenariusza2!J2:J14)</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="23">
+        <f>MIN(WynikiScenariusza2!K2:K14)</f>
+        <v>3</v>
+      </c>
+      <c r="H8" s="23">
+        <f>MIN(WynikiScenariusza2!L2:L14)</f>
+        <v>3</v>
+      </c>
+      <c r="I8" s="23">
+        <f>MIN(WynikiScenariusza2!I2:I14)</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="23">
+        <f>MIN(WynikiScenariusza2!N2:N14)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="23">
+        <f>MAX(WynikiScenariusza2!C2:C14)</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="23">
+        <f>MAX(WynikiScenariusza2!H2:H14)</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="23">
+        <f>MAX(WynikiScenariusza2!T2:T14)</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="23">
+        <f>MAX(WynikiScenariusza2!U2:U14)</f>
+        <v>3</v>
+      </c>
+      <c r="F9" s="23">
+        <f>MAX(WynikiScenariusza2!J2:J14)</f>
+        <v>4</v>
+      </c>
+      <c r="G9" s="23">
+        <f>MAX(WynikiScenariusza2!K2:K14)</f>
+        <v>5</v>
+      </c>
+      <c r="H9" s="23">
+        <f>MAX(WynikiScenariusza2!L2:L14)</f>
+        <v>5</v>
+      </c>
+      <c r="I9" s="23">
+        <f>MAX(WynikiScenariusza2!I2:I14)</f>
+        <v>5</v>
+      </c>
+      <c r="J9" s="23">
+        <f>MAX(WynikiScenariusza2!N2:N14)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="22">
+        <v>2.6153846153846154</v>
+      </c>
+      <c r="C18" s="22">
+        <v>2.5128205128205128</v>
+      </c>
+      <c r="D18" s="22">
+        <v>3.2307692307692308</v>
+      </c>
+      <c r="E18" s="22">
+        <v>3.9230769230769229</v>
+      </c>
+      <c r="F18" s="22">
+        <v>4.1538461538461542</v>
+      </c>
+      <c r="G18" s="22">
+        <v>4.384615384615385</v>
+      </c>
+      <c r="H18" s="22">
+        <v>4.384615384615385</v>
+      </c>
+      <c r="I18" s="22">
+        <v>4.0769230769230766</v>
+      </c>
+      <c r="J18" s="22">
+        <v>4.8461538461538458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="22">
+        <v>2.3846153846153846</v>
+      </c>
+      <c r="C22" s="22">
+        <v>2.5641025641025643</v>
+      </c>
+      <c r="D22" s="22">
+        <v>3.1538461538461537</v>
+      </c>
+      <c r="E22" s="22">
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="F22" s="22">
+        <v>4.0769230769230766</v>
+      </c>
+      <c r="G22" s="22">
+        <v>4.1538461538461542</v>
+      </c>
+      <c r="H22" s="22">
+        <v>4</v>
+      </c>
+      <c r="I22" s="22">
+        <v>4.2307692307692308</v>
+      </c>
+      <c r="J22" s="22">
+        <v>4.6923076923076925</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="22">
+        <f>AVERAGE(WynikiScenariusza1!E1:E13)</f>
+        <v>2.6153846153846154</v>
+      </c>
+      <c r="C31" s="22">
+        <f>AVERAGE(C45:E45)</f>
+        <v>2.5128205128205128</v>
+      </c>
+      <c r="D31" s="22">
+        <f>AVERAGE(WynikiScenariusza1!S1:S13)</f>
+        <v>3.2307692307692308</v>
+      </c>
+      <c r="E31" s="22">
+        <f>AVERAGE(WynikiScenariusza1!O1:O13)</f>
+        <v>3.9230769230769229</v>
+      </c>
+      <c r="F31" s="22">
+        <f>AVERAGE(WynikiScenariusza1!P1:P13)</f>
+        <v>4.1538461538461542</v>
+      </c>
+      <c r="G31" s="22">
+        <f>AVERAGE(WynikiScenariusza1!Q1:Q13)</f>
+        <v>4.384615384615385</v>
+      </c>
+      <c r="H31" s="22">
+        <f>AVERAGE(WynikiScenariusza1!F1:F13)</f>
+        <v>4.384615384615385</v>
+      </c>
+      <c r="I31" s="22">
+        <f>AVERAGE(WynikiScenariusza1!R1:R13)</f>
+        <v>4.0769230769230766</v>
+      </c>
+      <c r="J31" s="22">
+        <f>AVERAGE(WynikiScenariusza1!D1:D13)</f>
+        <v>4.8461538461538458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="23">
+        <f>MIN(WynikiScenariusza1!E2:E14)</f>
+        <v>1</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23">
+        <f>MIN(WynikiScenariusza1!S2:S14)</f>
+        <v>2</v>
+      </c>
+      <c r="E32" s="23">
+        <f>MIN(WynikiScenariusza1!O2:O14)</f>
+        <v>2</v>
+      </c>
+      <c r="F32" s="23">
+        <f>MIN(WynikiScenariusza1!P2:P14)</f>
+        <v>3</v>
+      </c>
+      <c r="G32" s="23">
+        <f>MIN(WynikiScenariusza1!Q2:Q14)</f>
+        <v>3</v>
+      </c>
+      <c r="H32" s="23">
+        <f>MIN(WynikiScenariusza1!F2:F14)</f>
+        <v>3</v>
+      </c>
+      <c r="I32" s="23">
+        <f>MIN(WynikiScenariusza1!R2:R14)</f>
+        <v>3</v>
+      </c>
+      <c r="J32" s="23">
+        <f>MIN(WynikiScenariusza1!D2:D14)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="23">
+        <f>MAX(WynikiScenariusza1!E2:E14)</f>
+        <v>4</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23">
+        <f>MAX(WynikiScenariusza1!S2:S14)</f>
+        <v>4</v>
+      </c>
+      <c r="E33" s="23">
+        <f>MAX(WynikiScenariusza1!O2:O14)</f>
+        <v>5</v>
+      </c>
+      <c r="F33" s="23">
+        <f>MAX(WynikiScenariusza1!P2:P14)</f>
+        <v>5</v>
+      </c>
+      <c r="G33" s="23">
+        <f>MAX(WynikiScenariusza1!Q2:Q14)</f>
+        <v>5</v>
+      </c>
+      <c r="H33" s="23">
+        <f>MAX(WynikiScenariusza1!F2:F14)</f>
+        <v>5</v>
+      </c>
+      <c r="I33" s="23">
+        <f>MAX(WynikiScenariusza1!R2:R14)</f>
+        <v>5</v>
+      </c>
+      <c r="J33" s="23">
+        <f>MAX(WynikiScenariusza1!D2:D14)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="22">
+        <f>AVERAGE(WynikiScenariusza2!E1:E13)</f>
+        <v>2.3846153846153846</v>
+      </c>
+      <c r="C35" s="22">
+        <f>AVERAGE(C49:E49)</f>
+        <v>2.5641025641025643</v>
+      </c>
+      <c r="D35" s="22">
+        <f>AVERAGE(WynikiScenariusza2!S1:S13)</f>
+        <v>3.1538461538461537</v>
+      </c>
+      <c r="E35" s="22">
+        <f>AVERAGE(WynikiScenariusza2!O1:O13)</f>
+        <v>3.7692307692307692</v>
+      </c>
+      <c r="F35" s="22">
+        <f>AVERAGE(WynikiScenariusza2!P1:P13)</f>
+        <v>4.0769230769230766</v>
+      </c>
+      <c r="G35" s="22">
+        <f>AVERAGE(WynikiScenariusza2!Q1:Q13)</f>
+        <v>4.1538461538461542</v>
+      </c>
+      <c r="H35" s="22">
+        <f>AVERAGE(WynikiScenariusza2!F1:F13)</f>
+        <v>4</v>
+      </c>
+      <c r="I35" s="22">
+        <f>AVERAGE(WynikiScenariusza2!R1:R13)</f>
+        <v>4.2307692307692308</v>
+      </c>
+      <c r="J35" s="22">
+        <f>AVERAGE(WynikiScenariusza2!D1:D13)</f>
+        <v>4.6923076923076925</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="23">
+        <f>MIN(WynikiScenariusza2!E2:E14)</f>
+        <v>2</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23">
+        <f>MIN(WynikiScenariusza2!S2:S14)</f>
+        <v>2</v>
+      </c>
+      <c r="E36" s="23">
+        <f>MIN(WynikiScenariusza2!O2:O14)</f>
+        <v>3</v>
+      </c>
+      <c r="F36" s="23">
+        <f>MIN(WynikiScenariusza2!P2:P14)</f>
+        <v>3</v>
+      </c>
+      <c r="G36" s="23">
+        <f>MIN(WynikiScenariusza2!Q2:Q14)</f>
+        <v>2</v>
+      </c>
+      <c r="H36" s="23">
+        <f>MIN(WynikiScenariusza2!F2:F14)</f>
+        <v>2</v>
+      </c>
+      <c r="I36" s="23">
+        <f>MIN(WynikiScenariusza2!R2:R14)</f>
+        <v>3</v>
+      </c>
+      <c r="J36" s="23">
+        <f>MIN(WynikiScenariusza2!D2:D14)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="23">
+        <f>MAX(WynikiScenariusza2!E2:E14)</f>
+        <v>3</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23">
+        <f>MAX(WynikiScenariusza2!S2:S14)</f>
+        <v>4</v>
+      </c>
+      <c r="E37" s="23">
+        <f>MAX(WynikiScenariusza2!O2:O14)</f>
+        <v>4</v>
+      </c>
+      <c r="F37" s="23">
+        <f>MAX(WynikiScenariusza2!P2:P14)</f>
+        <v>5</v>
+      </c>
+      <c r="G37" s="23">
+        <f>MAX(WynikiScenariusza2!Q2:Q14)</f>
+        <v>5</v>
+      </c>
+      <c r="H37" s="23">
+        <f>MAX(WynikiScenariusza2!F2:F14)</f>
+        <v>5</v>
+      </c>
+      <c r="I37" s="23">
+        <f>MAX(WynikiScenariusza2!R2:R14)</f>
+        <v>5</v>
+      </c>
+      <c r="J37" s="23">
+        <f>MAX(WynikiScenariusza2!D2:D14)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f>AVERAGE(WynikiScenariusza1!V1:V13)</f>
+        <v>2.6153846153846154</v>
+      </c>
+      <c r="D45">
+        <f>AVERAGE(WynikiScenariusza1!W1:W13)</f>
+        <v>2.5384615384615383</v>
+      </c>
+      <c r="E45">
+        <f>AVERAGE(WynikiScenariusza1!X1:X13)</f>
+        <v>2.3846153846153846</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f>MIN(WynikiScenariusza1!V2:V14)</f>
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <f>MIN(WynikiScenariusza1!W2:W14)</f>
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <f>MIN(WynikiScenariusza1!X2:X14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f>MAX(WynikiScenariusza1!V2:V14)</f>
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <f>MAX(WynikiScenariusza1!W2:W14)</f>
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <f>MAX(WynikiScenariusza1!X2:X14)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f>AVERAGE(WynikiScenariusza2!V1:V13)</f>
+        <v>2.6923076923076925</v>
+      </c>
+      <c r="D49">
+        <f>AVERAGE(WynikiScenariusza2!W1:W13)</f>
+        <v>2.5384615384615383</v>
+      </c>
+      <c r="E49">
+        <f>AVERAGE(WynikiScenariusza2!X1:X13)</f>
+        <v>2.4615384615384617</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f>MIN(WynikiScenariusza2!V2:V14)</f>
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <f>MIN(WynikiScenariusza2!W2:W14)</f>
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f>MIN(WynikiScenariusza2!X2:X14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f>MAX(WynikiScenariusza2!V2:V14)</f>
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <f>MAX(WynikiScenariusza2!W2:W14)</f>
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <f>MAX(WynikiScenariusza2!X2:X14)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z68"/>
   <sheetViews>
@@ -20097,7 +25976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X63"/>
   <sheetViews>
@@ -24402,7 +30281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X90"/>
   <sheetViews>

--- a/wyniki.xlsx
+++ b/wyniki.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -1394,8 +1394,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1575,7 +1576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1614,8 +1615,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -5551,7 +5553,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5690,7 +5691,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5808,7 +5808,7 @@
             <c:numRef>
               <c:f>'Podzial po filmach'!$B$3:$J$3</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.2307692307692308</c:v>
@@ -5866,7 +5866,7 @@
             <c:numRef>
               <c:f>'Podzial po filmach'!$B$7:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.0769230769230769</c:v>
@@ -5924,7 +5924,7 @@
             <c:numRef>
               <c:f>'Podzial po filmach'!$B$31:$J$31</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.6153846153846154</c:v>
@@ -5982,7 +5982,7 @@
             <c:numRef>
               <c:f>'Podzial po filmach'!$B$35:$J$35</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.3846153846153846</c:v>
@@ -6222,7 +6222,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6395,7 +6395,7 @@
             <c:numRef>
               <c:f>'Podzial po filmach'!$B$3:$J$3</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.2307692307692308</c:v>
@@ -6468,7 +6468,7 @@
             <c:numRef>
               <c:f>'Podzial po filmach'!$B$7:$J$7</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.0769230769230769</c:v>
@@ -6541,7 +6541,7 @@
             <c:numRef>
               <c:f>'Podzial po filmach'!$B$18:$J$18</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.6153846153846154</c:v>
@@ -6614,7 +6614,7 @@
             <c:numRef>
               <c:f>'Podzial po filmach'!$B$22:$J$22</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2.3846153846153846</c:v>
@@ -19520,7 +19520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY19"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AS15" sqref="AS15"/>
     </sheetView>
   </sheetViews>
@@ -20421,7 +20421,7 @@
         <v>0.15384615384615397</v>
       </c>
       <c r="AD13">
-        <f t="shared" ref="AD13:BI13" si="0">C2-C6</f>
+        <f t="shared" ref="AD13:AY13" si="0">C2-C6</f>
         <v>0.23076923076923084</v>
       </c>
       <c r="AE13">
@@ -20894,8 +20894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N38" sqref="N37:N38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20949,39 +20949,39 @@
       <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="24">
         <f>AVERAGE(WynikiScenariusza1!C1:C13)</f>
         <v>1.2307692307692308</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="24">
         <f>AVERAGE(WynikiScenariusza1!H1:H13)</f>
         <v>1.6153846153846154</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="24">
         <f>AVERAGE(WynikiScenariusza1!T1:T13)</f>
         <v>1.7692307692307692</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="24">
         <f>AVERAGE(WynikiScenariusza1!U1:U13)</f>
         <v>2.1538461538461537</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="24">
         <f>AVERAGE(WynikiScenariusza1!J1:J13)</f>
         <v>2.9230769230769229</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="24">
         <f>AVERAGE(WynikiScenariusza1!K1:K13)</f>
         <v>3.3076923076923075</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="24">
         <f>AVERAGE(WynikiScenariusza1!L1:L13)</f>
         <v>3.4615384615384617</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="24">
         <f>AVERAGE(WynikiScenariusza1!I1:I13)</f>
         <v>4.1538461538461542</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="24">
         <f>AVERAGE(WynikiScenariusza1!N1:N13)</f>
         <v>4.5384615384615383</v>
       </c>
@@ -21086,39 +21086,39 @@
       <c r="A7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="24">
         <f>AVERAGE(WynikiScenariusza2!C1:C13)</f>
         <v>1.0769230769230769</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="24">
         <f>AVERAGE(WynikiScenariusza2!H1:H13)</f>
         <v>1.4615384615384615</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="24">
         <f>AVERAGE(WynikiScenariusza2!T1:T13)</f>
         <v>1.5384615384615385</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="24">
         <f>AVERAGE(WynikiScenariusza2!U1:U13)</f>
         <v>2.3076923076923075</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="24">
         <f>AVERAGE(WynikiScenariusza2!J1:J13)</f>
         <v>3</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="24">
         <f>AVERAGE(WynikiScenariusza2!K1:K13)</f>
         <v>3.5384615384615383</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="24">
         <f>AVERAGE(WynikiScenariusza2!L1:L13)</f>
         <v>3.8461538461538463</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="24">
         <f>AVERAGE(WynikiScenariusza2!I1:I13)</f>
         <v>4.0769230769230766</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="24">
         <f>AVERAGE(WynikiScenariusza2!N1:N13)</f>
         <v>4.4615384615384617</v>
       </c>
@@ -21241,31 +21241,31 @@
       <c r="A18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="24">
         <v>2.6153846153846154</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="24">
         <v>2.5128205128205128</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="24">
         <v>3.2307692307692308</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="24">
         <v>3.9230769230769229</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="24">
         <v>4.1538461538461542</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="24">
         <v>4.384615384615385</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="24">
         <v>4.384615384615385</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="24">
         <v>4.0769230769230766</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="24">
         <v>4.8461538461538458</v>
       </c>
     </row>
@@ -21336,31 +21336,31 @@
       <c r="A22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="24">
         <v>2.3846153846153846</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="24">
         <v>2.5641025641025643</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="24">
         <v>3.1538461538461537</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="24">
         <v>3.7692307692307692</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="24">
         <v>4.0769230769230766</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="24">
         <v>4.1538461538461542</v>
       </c>
-      <c r="H22" s="22">
-        <v>4</v>
-      </c>
-      <c r="I22" s="22">
+      <c r="H22" s="24">
+        <v>4</v>
+      </c>
+      <c r="I22" s="24">
         <v>4.2307692307692308</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="24">
         <v>4.6923076923076925</v>
       </c>
     </row>
@@ -21458,39 +21458,39 @@
       <c r="A31" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="24">
         <f>AVERAGE(WynikiScenariusza1!E1:E13)</f>
         <v>2.6153846153846154</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="24">
         <f>AVERAGE(C45:E45)</f>
         <v>2.5128205128205128</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="24">
         <f>AVERAGE(WynikiScenariusza1!S1:S13)</f>
         <v>3.2307692307692308</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="24">
         <f>AVERAGE(WynikiScenariusza1!O1:O13)</f>
         <v>3.9230769230769229</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="24">
         <f>AVERAGE(WynikiScenariusza1!P1:P13)</f>
         <v>4.1538461538461542</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="24">
         <f>AVERAGE(WynikiScenariusza1!Q1:Q13)</f>
         <v>4.384615384615385</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H31" s="24">
         <f>AVERAGE(WynikiScenariusza1!F1:F13)</f>
         <v>4.384615384615385</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="24">
         <f>AVERAGE(WynikiScenariusza1!R1:R13)</f>
         <v>4.0769230769230766</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="24">
         <f>AVERAGE(WynikiScenariusza1!D1:D13)</f>
         <v>4.8461538461538458</v>
       </c>
@@ -21589,39 +21589,39 @@
       <c r="A35" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="24">
         <f>AVERAGE(WynikiScenariusza2!E1:E13)</f>
         <v>2.3846153846153846</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="24">
         <f>AVERAGE(C49:E49)</f>
         <v>2.5641025641025643</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="24">
         <f>AVERAGE(WynikiScenariusza2!S1:S13)</f>
         <v>3.1538461538461537</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="24">
         <f>AVERAGE(WynikiScenariusza2!O1:O13)</f>
         <v>3.7692307692307692</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="24">
         <f>AVERAGE(WynikiScenariusza2!P1:P13)</f>
         <v>4.0769230769230766</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="24">
         <f>AVERAGE(WynikiScenariusza2!Q1:Q13)</f>
         <v>4.1538461538461542</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="24">
         <f>AVERAGE(WynikiScenariusza2!F1:F13)</f>
         <v>4</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="24">
         <f>AVERAGE(WynikiScenariusza2!R1:R13)</f>
         <v>4.2307692307692308</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="24">
         <f>AVERAGE(WynikiScenariusza2!D1:D13)</f>
         <v>4.6923076923076925</v>
       </c>
